--- a/PricerAndQutation/OptionPricer_v2_20180516.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180516.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="264">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -837,10 +837,6 @@
     <t>RB1810</t>
   </si>
   <si>
-    <t>RB1810</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中金公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -859,46 +855,22 @@
     <t>sc1809</t>
   </si>
   <si>
-    <t>sc1809</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ta809</t>
   </si>
   <si>
-    <t>ta809</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zc809</t>
   </si>
   <si>
-    <t>zc809</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pp1809</t>
   </si>
   <si>
-    <t>pp1809</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>v1809</t>
   </si>
   <si>
-    <t>cu1807</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>i1809</t>
   </si>
   <si>
     <t>j1809</t>
-  </si>
-  <si>
-    <t>j1809</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交回报 l</t>
@@ -912,15 +884,7 @@
     <t>ru1809</t>
   </si>
   <si>
-    <t>ru1901</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cf809</t>
-  </si>
-  <si>
-    <t>cf809</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>m1809</t>
@@ -970,6 +934,39 @@
   </si>
   <si>
     <t>Example</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交回报3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交回报4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jm1809</t>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1809</t>
+  </si>
+  <si>
+    <t>al1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi</t>
+  </si>
+  <si>
+    <t>oi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -977,18 +974,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="###,###,##0"/>
     <numFmt numFmtId="179" formatCode="###,###,##0.0"/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.000000000000000_ "/>
-    <numFmt numFmtId="182" formatCode="#,##0_ "/>
-    <numFmt numFmtId="184" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,13 +1241,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1534,13 +1523,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1734,11 +1723,11 @@
     <xf numFmtId="178" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="179" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="6" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1817,8 +1806,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1846,62 +1833,56 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>11465</v>
+        <v>14880</v>
         <stp/>
-        <stp>ru1809</stp>
+        <stp>al1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P19" s="1"/>
+        <tr r="P20" s="1"/>
+        <tr r="P32" s="1"/>
+        <tr r="P38" s="1"/>
+        <tr r="P33" s="1"/>
+        <tr r="P39" s="1"/>
+      </tp>
+      <tp>
+        <v>14800</v>
+        <stp/>
+        <stp>al1808</stp>
+        <stp>LastPrice</stp>
+        <tr r="P8" s="1"/>
+        <tr r="P18" s="1"/>
+        <tr r="P17" s="1"/>
+        <tr r="P30" s="1"/>
         <tr r="P36" s="1"/>
+        <tr r="P31" s="1"/>
         <tr r="P37" s="1"/>
       </tp>
       <tp>
-        <v>13475</v>
-        <stp/>
-        <stp>ru1901</stp>
-        <stp>LastPrice</stp>
-        <tr r="P38" s="1"/>
-      </tp>
-      <tp>
-        <v>14910</v>
-        <stp/>
-        <stp>al1808</stp>
-        <stp>LastPrice</stp>
-        <tr r="P9" s="1"/>
-        <tr r="P8" s="1"/>
-      </tp>
-      <tp>
-        <v>483</v>
+        <v>459.5</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="9"/>
-        <tr r="P28" s="1"/>
-        <tr r="P29" s="1"/>
-        <tr r="P44" s="1"/>
-        <tr r="P46" s="1"/>
-        <tr r="P45" s="1"/>
-        <tr r="P49" s="1"/>
-        <tr r="P48" s="1"/>
-        <tr r="P47" s="1"/>
+        <tr r="P12" s="1"/>
+        <tr r="P13" s="1"/>
+        <tr r="P14" s="1"/>
       </tp>
       <tp>
-        <v>2968</v>
+        <v>3044</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
         <tr r="P18" s="9"/>
         <tr r="P21" s="9"/>
+        <tr r="P29" s="9"/>
         <tr r="P26" s="9"/>
-        <tr r="P29" s="9"/>
       </tp>
       <tp>
-        <v>3676</v>
+        <v>3583</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="9"/>
-        <tr r="P19" s="1"/>
-        <tr r="P20" s="1"/>
-        <tr r="P21" s="1"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -2204,10 +2185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:V126"/>
+  <dimension ref="B1:V169"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171:V183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2929,7 +2910,7 @@
         <v>160</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D18" s="93">
         <v>43222</v>
@@ -3033,7 +3014,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D20" s="93">
         <v>43222</v>
@@ -3086,7 +3067,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="93">
         <v>43222</v>
@@ -3190,7 +3171,7 @@
         <v>160</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23" s="93">
         <v>43223</v>
@@ -3398,7 +3379,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" s="93">
         <v>43227</v>
@@ -3447,7 +3428,7 @@
         <v>160</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28" s="93">
         <v>43227</v>
@@ -3515,7 +3496,7 @@
         <v>160</v>
       </c>
       <c r="C30" s="92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D30" s="93">
         <v>43227</v>
@@ -3583,7 +3564,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D32" s="93">
         <v>43227</v>
@@ -3632,7 +3613,7 @@
         <v>160</v>
       </c>
       <c r="C33" s="92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D33" s="93">
         <v>43227</v>
@@ -3681,7 +3662,7 @@
         <v>160</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D34" s="93">
         <v>43227</v>
@@ -3730,7 +3711,7 @@
         <v>160</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D35" s="93">
         <v>43227</v>
@@ -3798,7 +3779,7 @@
         <v>160</v>
       </c>
       <c r="C37" s="92" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D37" s="93">
         <v>43227</v>
@@ -3866,7 +3847,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D39" s="93">
         <v>43227</v>
@@ -4170,7 +4151,7 @@
         <v>160</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D45" s="93">
         <v>43229</v>
@@ -4277,7 +4258,7 @@
         <v>160</v>
       </c>
       <c r="C47" s="92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D47" s="93">
         <v>43229</v>
@@ -4331,7 +4312,7 @@
         <v>160</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D48" s="93">
         <v>43229</v>
@@ -4533,7 +4514,7 @@
         <v>160</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D53" s="93">
         <v>43229</v>
@@ -4635,7 +4616,7 @@
         <v>160</v>
       </c>
       <c r="C55" s="92" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D55" s="93">
         <v>43229</v>
@@ -4688,7 +4669,7 @@
         <v>160</v>
       </c>
       <c r="C56" s="92" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D56" s="93">
         <v>43229</v>
@@ -4741,7 +4722,7 @@
         <v>160</v>
       </c>
       <c r="C57" s="92" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D57" s="93">
         <v>43229</v>
@@ -4845,7 +4826,7 @@
         <v>160</v>
       </c>
       <c r="C59" s="92" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D59" s="93">
         <v>43230</v>
@@ -4896,7 +4877,7 @@
         <v>160</v>
       </c>
       <c r="C60" s="92" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D60" s="93">
         <v>43230</v>
@@ -4998,7 +4979,7 @@
         <v>160</v>
       </c>
       <c r="C62" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D62" s="93">
         <v>43230</v>
@@ -5049,7 +5030,7 @@
         <v>160</v>
       </c>
       <c r="C63" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D63" s="93">
         <v>43230</v>
@@ -5100,7 +5081,7 @@
         <v>160</v>
       </c>
       <c r="C64" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D64" s="93">
         <v>43230</v>
@@ -5151,7 +5132,7 @@
         <v>160</v>
       </c>
       <c r="C65" s="92" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D65" s="93">
         <v>43230</v>
@@ -5202,7 +5183,7 @@
         <v>160</v>
       </c>
       <c r="C66" s="92" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D66" s="93">
         <v>43230</v>
@@ -5253,7 +5234,7 @@
         <v>160</v>
       </c>
       <c r="C67" s="92" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D67" s="93">
         <v>43230</v>
@@ -5355,7 +5336,7 @@
         <v>160</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D69" s="93">
         <v>43230</v>
@@ -5406,7 +5387,7 @@
         <v>160</v>
       </c>
       <c r="C70" s="92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D70" s="93">
         <v>43230</v>
@@ -5508,7 +5489,7 @@
         <v>160</v>
       </c>
       <c r="C72" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D72" s="93">
         <v>43230</v>
@@ -5557,7 +5538,7 @@
         <v>160</v>
       </c>
       <c r="C73" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D73" s="93">
         <v>43230</v>
@@ -5606,7 +5587,7 @@
         <v>160</v>
       </c>
       <c r="C74" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D74" s="93">
         <v>43230</v>
@@ -5615,7 +5596,7 @@
         <v>43261</v>
       </c>
       <c r="F74" s="92" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G74" s="92">
         <v>31</v>
@@ -5649,7 +5630,7 @@
         <v>160</v>
       </c>
       <c r="C75" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D75" s="93">
         <v>43230</v>
@@ -5698,7 +5679,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D76" s="93">
         <v>43230</v>
@@ -5747,7 +5728,7 @@
         <v>160</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D77" s="93">
         <v>43230</v>
@@ -5756,7 +5737,7 @@
         <v>43322</v>
       </c>
       <c r="F77" s="92" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G77" s="92">
         <v>92</v>
@@ -5828,7 +5809,7 @@
         <v>160</v>
       </c>
       <c r="C80" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D80" s="93">
         <v>43230</v>
@@ -5877,7 +5858,7 @@
         <v>160</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D81" s="93">
         <v>43230</v>
@@ -5926,7 +5907,7 @@
         <v>160</v>
       </c>
       <c r="C82" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D82" s="93">
         <v>43230</v>
@@ -5935,7 +5916,7 @@
         <v>43261</v>
       </c>
       <c r="F82" s="92" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G82" s="92">
         <v>31</v>
@@ -5969,7 +5950,7 @@
         <v>160</v>
       </c>
       <c r="C83" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D83" s="93">
         <v>43230</v>
@@ -6018,7 +5999,7 @@
         <v>160</v>
       </c>
       <c r="C84" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D84" s="93">
         <v>43230</v>
@@ -6067,7 +6048,7 @@
         <v>160</v>
       </c>
       <c r="C85" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D85" s="93">
         <v>43230</v>
@@ -6076,7 +6057,7 @@
         <v>43322</v>
       </c>
       <c r="F85" s="92" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G85" s="92">
         <v>92</v>
@@ -6365,7 +6346,7 @@
         <v>160</v>
       </c>
       <c r="C91" s="92" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D91" s="93">
         <v>43231</v>
@@ -6433,7 +6414,7 @@
         <v>160</v>
       </c>
       <c r="C93" s="92" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D93" s="93">
         <v>43231</v>
@@ -6501,7 +6482,7 @@
         <v>160</v>
       </c>
       <c r="C95" s="92" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D95" s="93">
         <v>43231</v>
@@ -6550,7 +6531,7 @@
         <v>160</v>
       </c>
       <c r="C96" s="92" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D96" s="93">
         <v>43231</v>
@@ -6618,7 +6599,7 @@
         <v>160</v>
       </c>
       <c r="C98" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D98" s="93">
         <v>43231</v>
@@ -6667,7 +6648,7 @@
         <v>160</v>
       </c>
       <c r="C99" s="92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D99" s="93">
         <v>43231</v>
@@ -6735,7 +6716,7 @@
         <v>160</v>
       </c>
       <c r="C101" s="92" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D101" s="93">
         <v>43231</v>
@@ -6784,7 +6765,7 @@
         <v>160</v>
       </c>
       <c r="C102" s="92" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D102" s="93">
         <v>43231</v>
@@ -6884,7 +6865,7 @@
         <v>160</v>
       </c>
       <c r="C104" s="92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D104" s="93">
         <v>43234</v>
@@ -6935,7 +6916,7 @@
         <v>160</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D105" s="93">
         <v>43234</v>
@@ -7009,7 +6990,7 @@
         <v>160</v>
       </c>
       <c r="C107" s="92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D107" s="93">
         <v>43234</v>
@@ -7060,7 +7041,7 @@
         <v>160</v>
       </c>
       <c r="C108" s="92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D108" s="93">
         <v>43234</v>
@@ -7134,7 +7115,7 @@
         <v>160</v>
       </c>
       <c r="C110" s="92" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D110" s="93">
         <v>43234</v>
@@ -7185,7 +7166,7 @@
         <v>160</v>
       </c>
       <c r="C111" s="92" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D111" s="93">
         <v>43234</v>
@@ -7259,7 +7240,7 @@
         <v>160</v>
       </c>
       <c r="C113" s="92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D113" s="93">
         <v>43234</v>
@@ -7361,7 +7342,7 @@
         <v>160</v>
       </c>
       <c r="C115" s="92" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D115" s="93">
         <v>43235</v>
@@ -7412,7 +7393,7 @@
         <v>160</v>
       </c>
       <c r="C116" s="92" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D116" s="93">
         <v>43235</v>
@@ -7511,10 +7492,10 @@
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B118" s="92" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C118" s="92" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D118" s="93">
         <v>43236</v>
@@ -7565,7 +7546,7 @@
         <v>160</v>
       </c>
       <c r="C119" s="92" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D119" s="93">
         <v>43236</v>
@@ -7667,7 +7648,7 @@
         <v>160</v>
       </c>
       <c r="C121" s="92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D121" s="93">
         <v>43236</v>
@@ -7721,7 +7702,7 @@
         <v>160</v>
       </c>
       <c r="C122" s="92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D122" s="93">
         <v>43236</v>
@@ -7775,7 +7756,7 @@
         <v>160</v>
       </c>
       <c r="C123" s="92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D123" s="93">
         <v>43236</v>
@@ -7820,7 +7801,7 @@
       <c r="R123" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="V123" s="148">
+      <c r="V123" s="120">
         <f>V122*V121</f>
         <v>53500000</v>
       </c>
@@ -7830,7 +7811,7 @@
         <v>160</v>
       </c>
       <c r="C124" s="92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D124" s="93">
         <v>43236</v>
@@ -7881,7 +7862,7 @@
         <v>160</v>
       </c>
       <c r="C125" s="92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D125" s="93">
         <v>43236</v>
@@ -7932,7 +7913,7 @@
         <v>160</v>
       </c>
       <c r="C126" s="92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D126" s="93">
         <v>43236</v>
@@ -7975,6 +7956,2209 @@
         <v>-1</v>
       </c>
       <c r="R126" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B127" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G127" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J127" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K127" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M127" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N127" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O127" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P127" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q127" s="33"/>
+      <c r="R127" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B128" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D128" s="93">
+        <v>43237</v>
+      </c>
+      <c r="E128" s="93">
+        <v>43266</v>
+      </c>
+      <c r="F128" s="92">
+        <v>430</v>
+      </c>
+      <c r="G128" s="92">
+        <v>29</v>
+      </c>
+      <c r="H128" s="92">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I128" s="92">
+        <v>0</v>
+      </c>
+      <c r="J128" s="92">
+        <v>0.37</v>
+      </c>
+      <c r="K128" s="92">
+        <v>-3.101094311276313</v>
+      </c>
+      <c r="L128" s="92"/>
+      <c r="M128" s="92">
+        <v>0</v>
+      </c>
+      <c r="N128" s="99">
+        <v>3.101094311276313</v>
+      </c>
+      <c r="O128" s="92">
+        <v>483.5</v>
+      </c>
+      <c r="P128" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q128" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R128" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B129" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" s="93">
+        <v>43237</v>
+      </c>
+      <c r="E129" s="93">
+        <v>43294</v>
+      </c>
+      <c r="F129" s="92">
+        <v>430</v>
+      </c>
+      <c r="G129" s="92">
+        <v>57</v>
+      </c>
+      <c r="H129" s="92">
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="I129" s="92">
+        <v>0</v>
+      </c>
+      <c r="J129" s="92">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K129" s="92">
+        <v>-7.6903764663189946</v>
+      </c>
+      <c r="L129" s="92"/>
+      <c r="M129" s="92">
+        <v>0</v>
+      </c>
+      <c r="N129" s="99">
+        <v>7.6903764663189946</v>
+      </c>
+      <c r="O129" s="92">
+        <v>483.5</v>
+      </c>
+      <c r="P129" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q129" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R129" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B130" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130" s="93">
+        <v>43237</v>
+      </c>
+      <c r="E130" s="93">
+        <v>43322</v>
+      </c>
+      <c r="F130" s="92">
+        <v>430</v>
+      </c>
+      <c r="G130" s="92">
+        <v>85</v>
+      </c>
+      <c r="H130" s="92">
+        <v>0.23287671232876711</v>
+      </c>
+      <c r="I130" s="92">
+        <v>0</v>
+      </c>
+      <c r="J130" s="92">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K130" s="92">
+        <v>-12.072825026404317</v>
+      </c>
+      <c r="L130" s="92"/>
+      <c r="M130" s="92">
+        <v>0</v>
+      </c>
+      <c r="N130" s="99">
+        <v>12.072825026404317</v>
+      </c>
+      <c r="O130" s="92">
+        <v>483.5</v>
+      </c>
+      <c r="P130" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q130" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R130" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B131" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G131" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J131" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K131" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M131" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N131" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O131" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P131" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q131" s="33"/>
+      <c r="R131" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B132" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" s="93">
+        <v>43237</v>
+      </c>
+      <c r="E132" s="93">
+        <v>43353</v>
+      </c>
+      <c r="F132" s="92">
+        <v>3669</v>
+      </c>
+      <c r="G132" s="92">
+        <v>116</v>
+      </c>
+      <c r="H132" s="92">
+        <v>0.31780821917808222</v>
+      </c>
+      <c r="I132" s="92">
+        <v>0</v>
+      </c>
+      <c r="J132" s="92">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K132" s="92">
+        <v>159.80702588726945</v>
+      </c>
+      <c r="L132" s="92">
+        <v>30</v>
+      </c>
+      <c r="M132" s="92">
+        <v>3.498115068493151</v>
+      </c>
+      <c r="N132" s="99">
+        <v>156.3089108187763</v>
+      </c>
+      <c r="O132" s="92">
+        <v>3669</v>
+      </c>
+      <c r="P132" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q132" s="92">
+        <v>1</v>
+      </c>
+      <c r="R132" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B133" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G133" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J133" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K133" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M133" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N133" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O133" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P133" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B134" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C134" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="D134" s="93">
+        <v>43237</v>
+      </c>
+      <c r="E134" s="93">
+        <v>43315</v>
+      </c>
+      <c r="F134" s="92">
+        <v>6600</v>
+      </c>
+      <c r="G134" s="92">
+        <v>78</v>
+      </c>
+      <c r="H134" s="92">
+        <v>0.21369863013698631</v>
+      </c>
+      <c r="I134" s="92">
+        <v>0</v>
+      </c>
+      <c r="J134" s="92">
+        <v>0.22</v>
+      </c>
+      <c r="K134" s="92">
+        <v>-205.35943726084224</v>
+      </c>
+      <c r="L134" s="92"/>
+      <c r="M134" s="92">
+        <v>0</v>
+      </c>
+      <c r="N134" s="99">
+        <v>205.35943726084224</v>
+      </c>
+      <c r="O134" s="92">
+        <v>6740</v>
+      </c>
+      <c r="P134" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q134" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R134" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B135" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="D135" s="93">
+        <v>43237</v>
+      </c>
+      <c r="E135" s="93">
+        <v>43315</v>
+      </c>
+      <c r="F135" s="92">
+        <v>7200</v>
+      </c>
+      <c r="G135" s="92">
+        <v>78</v>
+      </c>
+      <c r="H135" s="92">
+        <v>0.21369863013698631</v>
+      </c>
+      <c r="I135" s="92">
+        <v>0</v>
+      </c>
+      <c r="J135" s="92">
+        <v>0.16</v>
+      </c>
+      <c r="K135" s="92">
+        <v>52.206060971161151</v>
+      </c>
+      <c r="L135" s="92"/>
+      <c r="M135" s="92">
+        <v>0</v>
+      </c>
+      <c r="N135" s="99">
+        <v>48</v>
+      </c>
+      <c r="O135" s="92">
+        <v>6740</v>
+      </c>
+      <c r="P135" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q135" s="92">
+        <v>1</v>
+      </c>
+      <c r="R135" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B136" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G136" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J136" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K136" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M136" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N136" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O136" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P136" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q136" s="33"/>
+      <c r="R136" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B137" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D137" s="93">
+        <v>43241</v>
+      </c>
+      <c r="E137" s="93">
+        <v>43322</v>
+      </c>
+      <c r="F137" s="92">
+        <v>480</v>
+      </c>
+      <c r="G137" s="92">
+        <v>81</v>
+      </c>
+      <c r="H137" s="92">
+        <v>0.22191780821917809</v>
+      </c>
+      <c r="I137" s="92">
+        <v>0</v>
+      </c>
+      <c r="J137" s="92">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K137" s="92">
+        <v>-40.241601265935884</v>
+      </c>
+      <c r="L137" s="92"/>
+      <c r="M137" s="92">
+        <v>0</v>
+      </c>
+      <c r="N137" s="99">
+        <v>40.241601265935884</v>
+      </c>
+      <c r="O137" s="92">
+        <v>465</v>
+      </c>
+      <c r="P137" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q137" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R137" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B138" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D138" s="93">
+        <v>43241</v>
+      </c>
+      <c r="E138" s="93">
+        <v>43322</v>
+      </c>
+      <c r="F138" s="92">
+        <v>430</v>
+      </c>
+      <c r="G138" s="92">
+        <v>81</v>
+      </c>
+      <c r="H138" s="92">
+        <v>0.22191780821917809</v>
+      </c>
+      <c r="I138" s="92">
+        <v>0</v>
+      </c>
+      <c r="J138" s="92">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K138" s="92">
+        <v>-16.198540619170956</v>
+      </c>
+      <c r="L138" s="92"/>
+      <c r="M138" s="92">
+        <v>0</v>
+      </c>
+      <c r="N138" s="99">
+        <v>16.198540619170956</v>
+      </c>
+      <c r="O138" s="92">
+        <v>465</v>
+      </c>
+      <c r="P138" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q138" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R138" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B139" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D139" s="93">
+        <v>43241</v>
+      </c>
+      <c r="E139" s="93">
+        <v>43322</v>
+      </c>
+      <c r="F139" s="92">
+        <v>465</v>
+      </c>
+      <c r="G139" s="92">
+        <v>81</v>
+      </c>
+      <c r="H139" s="92">
+        <v>0.22191780821917809</v>
+      </c>
+      <c r="I139" s="92">
+        <v>0</v>
+      </c>
+      <c r="J139" s="92">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K139" s="92">
+        <v>-31.716822654485497</v>
+      </c>
+      <c r="L139" s="92"/>
+      <c r="M139" s="92">
+        <v>0</v>
+      </c>
+      <c r="N139" s="99">
+        <v>31.716822654485497</v>
+      </c>
+      <c r="O139" s="92">
+        <v>465</v>
+      </c>
+      <c r="P139" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q139" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R139" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B140" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G140" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J140" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M140" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N140" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O140" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P140" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q140" s="33"/>
+      <c r="R140" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B141" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D141" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E141" s="93">
+        <v>43251</v>
+      </c>
+      <c r="F141" s="92">
+        <v>3500</v>
+      </c>
+      <c r="G141" s="92">
+        <v>9</v>
+      </c>
+      <c r="H141" s="92">
+        <v>2.4657534246575342E-2</v>
+      </c>
+      <c r="I141" s="92">
+        <v>0</v>
+      </c>
+      <c r="J141" s="92">
+        <v>0.18</v>
+      </c>
+      <c r="K141" s="92">
+        <v>13.554618445439701</v>
+      </c>
+      <c r="L141" s="92"/>
+      <c r="M141" s="92">
+        <v>0</v>
+      </c>
+      <c r="N141" s="99">
+        <v>13.554618445439701</v>
+      </c>
+      <c r="O141" s="92">
+        <v>3573</v>
+      </c>
+      <c r="P141" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q141" s="92">
+        <v>1</v>
+      </c>
+      <c r="R141" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B142" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C142" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D142" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E142" s="93">
+        <v>43294</v>
+      </c>
+      <c r="F142" s="92">
+        <v>14500</v>
+      </c>
+      <c r="G142" s="92">
+        <v>52</v>
+      </c>
+      <c r="H142" s="92">
+        <v>0.14246575342465753</v>
+      </c>
+      <c r="I142" s="92">
+        <v>0</v>
+      </c>
+      <c r="J142" s="92">
+        <v>0.15</v>
+      </c>
+      <c r="K142" s="92">
+        <v>193.13653115325724</v>
+      </c>
+      <c r="L142" s="92"/>
+      <c r="M142" s="92">
+        <v>0</v>
+      </c>
+      <c r="N142" s="99">
+        <v>193.13653115325724</v>
+      </c>
+      <c r="O142" s="92">
+        <v>14825</v>
+      </c>
+      <c r="P142" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q142" s="92">
+        <v>1</v>
+      </c>
+      <c r="R142" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B143" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D143" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E143" s="93">
+        <v>43322</v>
+      </c>
+      <c r="F143" s="92">
+        <v>480</v>
+      </c>
+      <c r="G143" s="92">
+        <v>80</v>
+      </c>
+      <c r="H143" s="92">
+        <v>0.21917808219178081</v>
+      </c>
+      <c r="I143" s="92">
+        <v>0</v>
+      </c>
+      <c r="J143" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="K143" s="92">
+        <v>38.236597967491889</v>
+      </c>
+      <c r="L143" s="92"/>
+      <c r="M143" s="92">
+        <v>0</v>
+      </c>
+      <c r="N143" s="99">
+        <v>38.236597967491889</v>
+      </c>
+      <c r="O143" s="92">
+        <v>458.5</v>
+      </c>
+      <c r="P143" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q143" s="92">
+        <v>1</v>
+      </c>
+      <c r="R143" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B144" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D144" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E144" s="93">
+        <v>43322</v>
+      </c>
+      <c r="F144" s="92">
+        <v>430</v>
+      </c>
+      <c r="G144" s="92">
+        <v>80</v>
+      </c>
+      <c r="H144" s="92">
+        <v>0.21917808219178081</v>
+      </c>
+      <c r="I144" s="92">
+        <v>0</v>
+      </c>
+      <c r="J144" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="K144" s="92">
+        <v>13.110640096108312</v>
+      </c>
+      <c r="L144" s="92"/>
+      <c r="M144" s="92">
+        <v>0</v>
+      </c>
+      <c r="N144" s="99">
+        <v>13.110640096108312</v>
+      </c>
+      <c r="O144" s="92">
+        <v>458.5</v>
+      </c>
+      <c r="P144" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q144" s="92">
+        <v>1</v>
+      </c>
+      <c r="R144" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B145" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D145" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E145" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G145" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J145" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K145" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M145" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N145" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O145" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P145" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q145" s="33"/>
+      <c r="R145" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B146" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D146" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E146" s="93">
+        <v>43322</v>
+      </c>
+      <c r="F146" s="92">
+        <v>465</v>
+      </c>
+      <c r="G146" s="92">
+        <v>80</v>
+      </c>
+      <c r="H146" s="92">
+        <v>0.21917808219178081</v>
+      </c>
+      <c r="I146" s="92">
+        <v>0</v>
+      </c>
+      <c r="J146" s="92">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K146" s="92">
+        <v>-34.643998950779434</v>
+      </c>
+      <c r="L146" s="92"/>
+      <c r="M146" s="92">
+        <v>0</v>
+      </c>
+      <c r="N146" s="99">
+        <v>34.643998950779434</v>
+      </c>
+      <c r="O146" s="92">
+        <v>458.5</v>
+      </c>
+      <c r="P146" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q146" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R146" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B147" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G147" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J147" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K147" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L147" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M147" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N147" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O147" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P147" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q147" s="33"/>
+      <c r="R147" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B148" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C148" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="D148" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E148" s="93">
+        <v>43272</v>
+      </c>
+      <c r="F148" s="92">
+        <v>100</v>
+      </c>
+      <c r="G148" s="92">
+        <v>30</v>
+      </c>
+      <c r="H148" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I148" s="92">
+        <v>0</v>
+      </c>
+      <c r="J148" s="92">
+        <v>0.1075</v>
+      </c>
+      <c r="K148" s="92">
+        <v>1.2274438352226085</v>
+      </c>
+      <c r="L148" s="92"/>
+      <c r="M148" s="92">
+        <v>0</v>
+      </c>
+      <c r="N148" s="99">
+        <v>1.2274438352226085</v>
+      </c>
+      <c r="O148" s="92">
+        <v>100</v>
+      </c>
+      <c r="P148" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q148" s="92">
+        <v>1</v>
+      </c>
+      <c r="R148" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B149" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D149" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E149" s="93">
+        <v>43272</v>
+      </c>
+      <c r="F149" s="92">
+        <v>100</v>
+      </c>
+      <c r="G149" s="92">
+        <v>30</v>
+      </c>
+      <c r="H149" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I149" s="92">
+        <v>0</v>
+      </c>
+      <c r="J149" s="92">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K149" s="92">
+        <v>2.6828480996015003</v>
+      </c>
+      <c r="L149" s="92"/>
+      <c r="M149" s="92">
+        <v>0</v>
+      </c>
+      <c r="N149" s="99">
+        <v>2.6828480996015003</v>
+      </c>
+      <c r="O149" s="92">
+        <v>100</v>
+      </c>
+      <c r="P149" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q149" s="92">
+        <v>1</v>
+      </c>
+      <c r="R149" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B150" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="D150" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E150" s="93">
+        <v>43272</v>
+      </c>
+      <c r="F150" s="92">
+        <v>100</v>
+      </c>
+      <c r="G150" s="92">
+        <v>30</v>
+      </c>
+      <c r="H150" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I150" s="92">
+        <v>0</v>
+      </c>
+      <c r="J150" s="92">
+        <v>0.125</v>
+      </c>
+      <c r="K150" s="92">
+        <v>1.4272403868415324</v>
+      </c>
+      <c r="L150" s="92"/>
+      <c r="M150" s="92">
+        <v>0</v>
+      </c>
+      <c r="N150" s="99">
+        <v>1.4272403868415324</v>
+      </c>
+      <c r="O150" s="92">
+        <v>100</v>
+      </c>
+      <c r="P150" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q150" s="92">
+        <v>1</v>
+      </c>
+      <c r="R150" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B151" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D151" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E151" s="93">
+        <v>43272</v>
+      </c>
+      <c r="F151" s="92">
+        <v>100</v>
+      </c>
+      <c r="G151" s="92">
+        <v>30</v>
+      </c>
+      <c r="H151" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I151" s="92">
+        <v>0</v>
+      </c>
+      <c r="J151" s="92">
+        <v>0.2525</v>
+      </c>
+      <c r="K151" s="92">
+        <v>2.8825504543547567</v>
+      </c>
+      <c r="L151" s="92"/>
+      <c r="M151" s="92">
+        <v>0</v>
+      </c>
+      <c r="N151" s="99">
+        <v>2.8825504543547567</v>
+      </c>
+      <c r="O151" s="92">
+        <v>100</v>
+      </c>
+      <c r="P151" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q151" s="92">
+        <v>1</v>
+      </c>
+      <c r="R151" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B152" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D152" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E152" s="93">
+        <v>43272</v>
+      </c>
+      <c r="F152" s="92">
+        <v>100</v>
+      </c>
+      <c r="G152" s="92">
+        <v>30</v>
+      </c>
+      <c r="H152" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I152" s="92">
+        <v>0</v>
+      </c>
+      <c r="J152" s="92">
+        <v>0.215</v>
+      </c>
+      <c r="K152" s="92">
+        <v>2.4545962454477035</v>
+      </c>
+      <c r="L152" s="92"/>
+      <c r="M152" s="92">
+        <v>0</v>
+      </c>
+      <c r="N152" s="99">
+        <v>2.4545962454477035</v>
+      </c>
+      <c r="O152" s="92">
+        <v>100</v>
+      </c>
+      <c r="P152" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q152" s="92">
+        <v>1</v>
+      </c>
+      <c r="R152" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B153" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D153" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E153" s="93">
+        <v>43272</v>
+      </c>
+      <c r="F153" s="92">
+        <v>100</v>
+      </c>
+      <c r="G153" s="92">
+        <v>30</v>
+      </c>
+      <c r="H153" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I153" s="92">
+        <v>0</v>
+      </c>
+      <c r="J153" s="92">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K153" s="92">
+        <v>-3.2533772011772371</v>
+      </c>
+      <c r="L153" s="92"/>
+      <c r="M153" s="92">
+        <v>0</v>
+      </c>
+      <c r="N153" s="99">
+        <v>3.2533772011772371</v>
+      </c>
+      <c r="O153" s="92">
+        <v>100</v>
+      </c>
+      <c r="P153" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q153" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R153" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B154" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D154" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E154" s="93">
+        <v>43272</v>
+      </c>
+      <c r="F154" s="92">
+        <v>100</v>
+      </c>
+      <c r="G154" s="92">
+        <v>30</v>
+      </c>
+      <c r="H154" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I154" s="92">
+        <v>0</v>
+      </c>
+      <c r="J154" s="92">
+        <v>0.17</v>
+      </c>
+      <c r="K154" s="92">
+        <v>1.9409586889787747</v>
+      </c>
+      <c r="L154" s="92"/>
+      <c r="M154" s="92">
+        <v>0</v>
+      </c>
+      <c r="N154" s="99">
+        <v>1.9409586889787747</v>
+      </c>
+      <c r="O154" s="92">
+        <v>100</v>
+      </c>
+      <c r="P154" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q154" s="92">
+        <v>1</v>
+      </c>
+      <c r="R154" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B155" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D155" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E155" s="93">
+        <v>43272</v>
+      </c>
+      <c r="F155" s="92">
+        <v>100</v>
+      </c>
+      <c r="G155" s="92">
+        <v>30</v>
+      </c>
+      <c r="H155" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I155" s="92">
+        <v>0</v>
+      </c>
+      <c r="J155" s="92">
+        <v>0.23</v>
+      </c>
+      <c r="K155" s="92">
+        <v>-2.6257871293425126</v>
+      </c>
+      <c r="L155" s="92"/>
+      <c r="M155" s="92">
+        <v>0</v>
+      </c>
+      <c r="N155" s="99">
+        <v>2.6257871293425126</v>
+      </c>
+      <c r="O155" s="92">
+        <v>100</v>
+      </c>
+      <c r="P155" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q155" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R155" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B156" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D156" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E156" s="93">
+        <v>43301</v>
+      </c>
+      <c r="F156" s="92">
+        <v>100</v>
+      </c>
+      <c r="G156" s="92">
+        <v>59</v>
+      </c>
+      <c r="H156" s="92">
+        <v>0.16164383561643836</v>
+      </c>
+      <c r="I156" s="92">
+        <v>0</v>
+      </c>
+      <c r="J156" s="92">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="K156" s="92">
+        <v>2.7573232762272042</v>
+      </c>
+      <c r="L156" s="92"/>
+      <c r="M156" s="92">
+        <v>0</v>
+      </c>
+      <c r="N156" s="99">
+        <v>2.7573232762272042</v>
+      </c>
+      <c r="O156" s="92">
+        <v>100</v>
+      </c>
+      <c r="P156" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q156" s="92">
+        <v>1</v>
+      </c>
+      <c r="R156" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B157" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D157" s="93">
+        <v>43242</v>
+      </c>
+      <c r="E157" s="93">
+        <v>43301</v>
+      </c>
+      <c r="F157" s="92">
+        <v>100</v>
+      </c>
+      <c r="G157" s="92">
+        <v>59</v>
+      </c>
+      <c r="H157" s="92">
+        <v>0.16164383561643836</v>
+      </c>
+      <c r="I157" s="92">
+        <v>0</v>
+      </c>
+      <c r="J157" s="92">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="K157" s="92">
+        <v>-3.7956334668117861</v>
+      </c>
+      <c r="L157" s="92"/>
+      <c r="M157" s="92">
+        <v>0</v>
+      </c>
+      <c r="N157" s="99">
+        <v>3.7956334668117861</v>
+      </c>
+      <c r="O157" s="92">
+        <v>100</v>
+      </c>
+      <c r="P157" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q157" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R157" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B158" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E158" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G158" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J158" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K158" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L158" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M158" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N158" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O158" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P158" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q158" s="33"/>
+      <c r="R158" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B159" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D159" s="93">
+        <v>43243</v>
+      </c>
+      <c r="E159" s="93">
+        <v>43294</v>
+      </c>
+      <c r="F159" s="92">
+        <v>13800</v>
+      </c>
+      <c r="G159" s="92">
+        <v>51</v>
+      </c>
+      <c r="H159" s="92">
+        <v>0.13972602739726028</v>
+      </c>
+      <c r="I159" s="92">
+        <v>0</v>
+      </c>
+      <c r="J159" s="92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K159" s="92">
+        <v>42.725461964348824</v>
+      </c>
+      <c r="L159" s="92">
+        <v>30</v>
+      </c>
+      <c r="M159" s="92">
+        <v>6.1556301369863018</v>
+      </c>
+      <c r="N159" s="99">
+        <v>36.56983182736252</v>
+      </c>
+      <c r="O159" s="92">
+        <v>14685</v>
+      </c>
+      <c r="P159" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q159" s="92">
+        <v>1</v>
+      </c>
+      <c r="R159" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B160" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D160" s="93">
+        <v>43243</v>
+      </c>
+      <c r="E160" s="93">
+        <v>43294</v>
+      </c>
+      <c r="F160" s="92">
+        <v>14000</v>
+      </c>
+      <c r="G160" s="92">
+        <v>51</v>
+      </c>
+      <c r="H160" s="92">
+        <v>0.13972602739726028</v>
+      </c>
+      <c r="I160" s="92">
+        <v>0</v>
+      </c>
+      <c r="J160" s="92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K160" s="92">
+        <v>73.385056834770239</v>
+      </c>
+      <c r="L160" s="92">
+        <v>30</v>
+      </c>
+      <c r="M160" s="92">
+        <v>6.1556301369863018</v>
+      </c>
+      <c r="N160" s="99">
+        <v>67.229426697783936</v>
+      </c>
+      <c r="O160" s="92">
+        <v>14685</v>
+      </c>
+      <c r="P160" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q160" s="92">
+        <v>1</v>
+      </c>
+      <c r="R160" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B161" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="D161" s="93">
+        <v>43243</v>
+      </c>
+      <c r="E161" s="93">
+        <v>43326</v>
+      </c>
+      <c r="F161" s="92">
+        <v>13800</v>
+      </c>
+      <c r="G161" s="92">
+        <v>83</v>
+      </c>
+      <c r="H161" s="92">
+        <v>0.22739726027397261</v>
+      </c>
+      <c r="I161" s="92">
+        <v>0</v>
+      </c>
+      <c r="J161" s="92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K161" s="92">
+        <v>78.638194812504935</v>
+      </c>
+      <c r="L161" s="92">
+        <v>30</v>
+      </c>
+      <c r="M161" s="92">
+        <v>10.065739726027397</v>
+      </c>
+      <c r="N161" s="99">
+        <v>68.572455086477532</v>
+      </c>
+      <c r="O161" s="92">
+        <v>14755</v>
+      </c>
+      <c r="P161" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q161" s="92">
+        <v>1</v>
+      </c>
+      <c r="R161" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B162" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="D162" s="93">
+        <v>43243</v>
+      </c>
+      <c r="E162" s="93">
+        <v>43326</v>
+      </c>
+      <c r="F162" s="92">
+        <v>14000</v>
+      </c>
+      <c r="G162" s="92">
+        <v>83</v>
+      </c>
+      <c r="H162" s="92">
+        <v>0.22739726027397261</v>
+      </c>
+      <c r="I162" s="92">
+        <v>0</v>
+      </c>
+      <c r="J162" s="92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K162" s="92">
+        <v>117.4828896758977</v>
+      </c>
+      <c r="L162" s="92">
+        <v>30</v>
+      </c>
+      <c r="M162" s="92">
+        <v>10.065739726027397</v>
+      </c>
+      <c r="N162" s="99">
+        <v>107.41714994987029</v>
+      </c>
+      <c r="O162" s="92">
+        <v>14755</v>
+      </c>
+      <c r="P162" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q162" s="92">
+        <v>1</v>
+      </c>
+      <c r="R162" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B163" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E163" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G163" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J163" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K163" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L163" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M163" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N163" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O163" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P163" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q163" s="33"/>
+      <c r="R163" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B164" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D164" s="93">
+        <v>43244</v>
+      </c>
+      <c r="E164" s="93">
+        <v>43276</v>
+      </c>
+      <c r="F164" s="92">
+        <v>100</v>
+      </c>
+      <c r="G164" s="92">
+        <v>32</v>
+      </c>
+      <c r="H164" s="92">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I164" s="92">
+        <v>0</v>
+      </c>
+      <c r="J164" s="92">
+        <v>0.115</v>
+      </c>
+      <c r="K164" s="92">
+        <v>1.3559821728240848</v>
+      </c>
+      <c r="L164" s="92"/>
+      <c r="M164" s="92">
+        <v>0</v>
+      </c>
+      <c r="N164" s="99">
+        <v>1.3559821728240848</v>
+      </c>
+      <c r="O164" s="92">
+        <v>100</v>
+      </c>
+      <c r="P164" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q164" s="92">
+        <v>1</v>
+      </c>
+      <c r="R164" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B165" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D165" s="93">
+        <v>43244</v>
+      </c>
+      <c r="E165" s="93">
+        <v>43276</v>
+      </c>
+      <c r="F165" s="92">
+        <v>100</v>
+      </c>
+      <c r="G165" s="92">
+        <v>32</v>
+      </c>
+      <c r="H165" s="92">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I165" s="92">
+        <v>0</v>
+      </c>
+      <c r="J165" s="92">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K165" s="92">
+        <v>-2.6526462008723612</v>
+      </c>
+      <c r="L165" s="92"/>
+      <c r="M165" s="92">
+        <v>0</v>
+      </c>
+      <c r="N165" s="99">
+        <v>2.6526462008723612</v>
+      </c>
+      <c r="O165" s="92">
+        <v>100</v>
+      </c>
+      <c r="P165" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q165" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R165" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B166" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D166" s="93">
+        <v>43244</v>
+      </c>
+      <c r="E166" s="93">
+        <v>43304</v>
+      </c>
+      <c r="F166" s="92">
+        <v>100</v>
+      </c>
+      <c r="G166" s="92">
+        <v>60</v>
+      </c>
+      <c r="H166" s="92">
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="I166" s="92">
+        <v>0</v>
+      </c>
+      <c r="J166" s="92">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K166" s="92">
+        <v>1.9021818418049463</v>
+      </c>
+      <c r="L166" s="92"/>
+      <c r="M166" s="92">
+        <v>0</v>
+      </c>
+      <c r="N166" s="99">
+        <v>1.9021818418049463</v>
+      </c>
+      <c r="O166" s="92">
+        <v>100</v>
+      </c>
+      <c r="P166" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q166" s="92">
+        <v>1</v>
+      </c>
+      <c r="R166" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B167" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C167" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D167" s="93">
+        <v>43244</v>
+      </c>
+      <c r="E167" s="93">
+        <v>43304</v>
+      </c>
+      <c r="F167" s="92">
+        <v>100</v>
+      </c>
+      <c r="G167" s="92">
+        <v>60</v>
+      </c>
+      <c r="H167" s="92">
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="I167" s="92">
+        <v>0</v>
+      </c>
+      <c r="J167" s="92">
+        <v>0.23</v>
+      </c>
+      <c r="K167" s="92">
+        <v>-3.7066530980644856</v>
+      </c>
+      <c r="L167" s="92"/>
+      <c r="M167" s="92">
+        <v>0</v>
+      </c>
+      <c r="N167" s="99">
+        <v>3.7066530980644856</v>
+      </c>
+      <c r="O167" s="92">
+        <v>100</v>
+      </c>
+      <c r="P167" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q167" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R167" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B168" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D168" s="93">
+        <v>43244</v>
+      </c>
+      <c r="E168" s="93">
+        <v>43276</v>
+      </c>
+      <c r="F168" s="92">
+        <v>100</v>
+      </c>
+      <c r="G168" s="92">
+        <v>32</v>
+      </c>
+      <c r="H168" s="92">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I168" s="92">
+        <v>0</v>
+      </c>
+      <c r="J168" s="92">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K168" s="92">
+        <v>-1.7096679406089024</v>
+      </c>
+      <c r="L168" s="92"/>
+      <c r="M168" s="92">
+        <v>0</v>
+      </c>
+      <c r="N168" s="99">
+        <v>1.7096679406089024</v>
+      </c>
+      <c r="O168" s="92">
+        <v>100</v>
+      </c>
+      <c r="P168" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q168" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R168" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B169" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" s="93">
+        <v>43244</v>
+      </c>
+      <c r="E169" s="93">
+        <v>43276</v>
+      </c>
+      <c r="F169" s="92">
+        <v>100</v>
+      </c>
+      <c r="G169" s="92">
+        <v>32</v>
+      </c>
+      <c r="H169" s="92">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I169" s="92">
+        <v>0</v>
+      </c>
+      <c r="J169" s="92">
+        <v>0.115</v>
+      </c>
+      <c r="K169" s="92">
+        <v>-1.3559821728240848</v>
+      </c>
+      <c r="L169" s="92"/>
+      <c r="M169" s="92">
+        <v>0</v>
+      </c>
+      <c r="N169" s="99">
+        <v>1.3559821728240848</v>
+      </c>
+      <c r="O169" s="92">
+        <v>100</v>
+      </c>
+      <c r="P169" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q169" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R169" s="92" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8182,11 +10366,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43266</v>
+        <v>43274</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -8255,11 +10439,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43266</v>
+        <v>43274</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -8325,11 +10509,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43266</v>
+        <v>43274</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -9045,11 +11229,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:Y62"/>
+  <dimension ref="B1:Y76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49:O61"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I75" sqref="G63:J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -9570,7 +11754,7 @@
       <c r="H23" s="123"/>
       <c r="I23" s="129">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="J23" s="131"/>
       <c r="L23" s="123" t="s">
@@ -9579,7 +11763,7 @@
       <c r="M23" s="123"/>
       <c r="N23" s="129">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="O23" s="131"/>
       <c r="Q23" s="123" t="s">
@@ -9588,7 +11772,7 @@
       <c r="R23" s="123"/>
       <c r="S23" s="129">
         <f ca="1">TODAY()-1</f>
-        <v>43235</v>
+        <v>43243</v>
       </c>
       <c r="T23" s="131"/>
       <c r="V23" s="123" t="s">
@@ -9597,7 +11781,7 @@
       <c r="W23" s="123"/>
       <c r="X23" s="129">
         <f ca="1">TODAY()-1</f>
-        <v>43235</v>
+        <v>43243</v>
       </c>
       <c r="Y23" s="131"/>
     </row>
@@ -10075,13 +12259,13 @@
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="130" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
       <c r="E36" s="130"/>
       <c r="G36" s="130" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H36" s="130"/>
       <c r="I36" s="130"/>
@@ -10173,7 +12357,7 @@
       </c>
       <c r="C39" s="123"/>
       <c r="D39" s="124" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E39" s="125"/>
       <c r="G39" s="123" t="s">
@@ -10245,7 +12429,7 @@
       </c>
       <c r="C41" s="123"/>
       <c r="D41" s="124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E41" s="125"/>
       <c r="G41" s="123" t="s">
@@ -10489,7 +12673,7 @@
       </c>
       <c r="C48" s="126"/>
       <c r="D48" s="127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E48" s="128"/>
       <c r="G48" s="126" t="s">
@@ -10517,7 +12701,7 @@
       </c>
       <c r="T48" s="128"/>
     </row>
-    <row r="49" spans="2:15" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="130" t="s">
         <v>121</v>
       </c>
@@ -10536,8 +12720,14 @@
       <c r="M49" s="130"/>
       <c r="N49" s="130"/>
       <c r="O49" s="130"/>
-    </row>
-    <row r="50" spans="2:15" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="Q49" s="130" t="s">
+        <v>255</v>
+      </c>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
+    </row>
+    <row r="50" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B50" s="123" t="s">
         <v>122</v>
       </c>
@@ -10562,14 +12752,22 @@
         <v>43237</v>
       </c>
       <c r="O50" s="131"/>
-    </row>
-    <row r="51" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q50" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="R50" s="123"/>
+      <c r="S50" s="129">
+        <v>43237</v>
+      </c>
+      <c r="T50" s="131"/>
+    </row>
+    <row r="51" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B51" s="123" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="123"/>
       <c r="D51" s="124" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E51" s="125"/>
       <c r="G51" s="123" t="s">
@@ -10588,14 +12786,22 @@
         <v>4</v>
       </c>
       <c r="O51" s="125"/>
-    </row>
-    <row r="52" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q51" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="R51" s="123"/>
+      <c r="S51" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="T51" s="125"/>
+    </row>
+    <row r="52" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B52" s="123" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="123"/>
       <c r="D52" s="124" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E52" s="125"/>
       <c r="G52" s="123" t="s">
@@ -10614,8 +12820,16 @@
         <v>36</v>
       </c>
       <c r="O52" s="125"/>
-    </row>
-    <row r="53" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q52" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="R52" s="123"/>
+      <c r="S52" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="T52" s="125"/>
+    </row>
+    <row r="53" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B53" s="123" t="s">
         <v>179</v>
       </c>
@@ -10643,8 +12857,17 @@
         <v>1272000</v>
       </c>
       <c r="O53" s="125"/>
-    </row>
-    <row r="54" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q53" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="R53" s="123"/>
+      <c r="S53" s="124">
+        <f>S58*S60</f>
+        <v>1230000</v>
+      </c>
+      <c r="T53" s="125"/>
+    </row>
+    <row r="54" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B54" s="123" t="s">
         <v>131</v>
       </c>
@@ -10669,8 +12892,16 @@
         <v>132</v>
       </c>
       <c r="O54" s="125"/>
-    </row>
-    <row r="55" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q54" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="R54" s="123"/>
+      <c r="S54" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="T54" s="125"/>
+    </row>
+    <row r="55" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B55" s="123" t="s">
         <v>134</v>
       </c>
@@ -10697,8 +12928,17 @@
         <v>43322</v>
       </c>
       <c r="O55" s="125"/>
-    </row>
-    <row r="56" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q55" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="R55" s="123"/>
+      <c r="S55" s="129">
+        <f>S50+85</f>
+        <v>43322</v>
+      </c>
+      <c r="T55" s="125"/>
+    </row>
+    <row r="56" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B56" s="123" t="s">
         <v>136</v>
       </c>
@@ -10723,8 +12963,16 @@
         <v>482</v>
       </c>
       <c r="O56" s="125"/>
-    </row>
-    <row r="57" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q56" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="R56" s="123"/>
+      <c r="S56" s="124">
+        <v>482.5</v>
+      </c>
+      <c r="T56" s="125"/>
+    </row>
+    <row r="57" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B57" s="123" t="s">
         <v>138</v>
       </c>
@@ -10749,8 +12997,16 @@
         <v>480</v>
       </c>
       <c r="O57" s="125"/>
-    </row>
-    <row r="58" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q57" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="R57" s="123"/>
+      <c r="S57" s="124">
+        <v>430</v>
+      </c>
+      <c r="T57" s="125"/>
+    </row>
+    <row r="58" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B58" s="123" t="s">
         <v>140</v>
       </c>
@@ -10775,14 +13031,22 @@
         <v>31.8</v>
       </c>
       <c r="O58" s="125"/>
-    </row>
-    <row r="59" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q58" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="R58" s="123"/>
+      <c r="S58" s="124">
+        <v>12.3</v>
+      </c>
+      <c r="T58" s="125"/>
+    </row>
+    <row r="59" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B59" s="123" t="s">
         <v>142</v>
       </c>
       <c r="C59" s="123"/>
       <c r="D59" s="124" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E59" s="125"/>
       <c r="G59" s="123" t="s">
@@ -10790,7 +13054,7 @@
       </c>
       <c r="H59" s="123"/>
       <c r="I59" s="124" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J59" s="125"/>
       <c r="L59" s="123" t="s">
@@ -10801,8 +13065,16 @@
         <v>202</v>
       </c>
       <c r="O59" s="125"/>
-    </row>
-    <row r="60" spans="2:15" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Q59" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="R59" s="123"/>
+      <c r="S59" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="T59" s="125"/>
+    </row>
+    <row r="60" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B60" s="123" t="s">
         <v>145</v>
       </c>
@@ -10827,8 +13099,16 @@
         <v>40000</v>
       </c>
       <c r="O60" s="125"/>
-    </row>
-    <row r="61" spans="2:15" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="Q60" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="R60" s="123"/>
+      <c r="S60" s="124">
+        <v>100000</v>
+      </c>
+      <c r="T60" s="125"/>
+    </row>
+    <row r="61" spans="2:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B61" s="126" t="s">
         <v>147</v>
       </c>
@@ -10853,10 +13133,149 @@
         <v>207</v>
       </c>
       <c r="O61" s="128"/>
-    </row>
-    <row r="62" spans="2:15" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="Q61" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="R61" s="126"/>
+      <c r="S61" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="T61" s="128"/>
+    </row>
+    <row r="62" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="2:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="130" t="s">
+        <v>256</v>
+      </c>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+    </row>
+    <row r="64" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="G64" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="123"/>
+      <c r="I64" s="129">
+        <v>43237</v>
+      </c>
+      <c r="J64" s="131"/>
+    </row>
+    <row r="65" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G65" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="123"/>
+      <c r="I65" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65" s="125"/>
+    </row>
+    <row r="66" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G66" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="123"/>
+      <c r="I66" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" s="125"/>
+    </row>
+    <row r="67" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G67" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="H67" s="123"/>
+      <c r="I67" s="124">
+        <f>I72*I74</f>
+        <v>1230000</v>
+      </c>
+      <c r="J67" s="125"/>
+    </row>
+    <row r="68" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G68" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="H68" s="123"/>
+      <c r="I68" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" s="125"/>
+    </row>
+    <row r="69" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G69" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="123"/>
+      <c r="I69" s="129">
+        <f>I64+85</f>
+        <v>43322</v>
+      </c>
+      <c r="J69" s="125"/>
+    </row>
+    <row r="70" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G70" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" s="123"/>
+      <c r="I70" s="124">
+        <v>482.5</v>
+      </c>
+      <c r="J70" s="125"/>
+    </row>
+    <row r="71" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G71" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" s="123"/>
+      <c r="I71" s="124">
+        <v>430</v>
+      </c>
+      <c r="J71" s="125"/>
+    </row>
+    <row r="72" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G72" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="H72" s="123"/>
+      <c r="I72" s="124">
+        <v>12.3</v>
+      </c>
+      <c r="J72" s="125"/>
+    </row>
+    <row r="73" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G73" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" s="123"/>
+      <c r="I73" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="J73" s="125"/>
+    </row>
+    <row r="74" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G74" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" s="123"/>
+      <c r="I74" s="124">
+        <v>100000</v>
+      </c>
+      <c r="J74" s="125"/>
+    </row>
+    <row r="75" spans="7:10" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" s="126"/>
+      <c r="I75" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="J75" s="128"/>
+    </row>
+    <row r="76" spans="7:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="401">
+  <mergeCells count="451">
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
     <mergeCell ref="L60:M60"/>
@@ -11258,6 +13677,56 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11268,10 +13737,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11301,13 +13770,13 @@
     <col min="27" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="145" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="145"/>
     </row>
-    <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -11315,7 +13784,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
         <v>193</v>
       </c>
@@ -11326,7 +13795,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -11334,8 +13803,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -11361,7 +13830,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>170</v>
       </c>
@@ -11424,7 +13893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34"/>
       <c r="B8" s="13" t="s">
         <v>172</v>
@@ -11436,12 +13905,12 @@
         <v>203</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E25" ca="1" si="0">TODAY()</f>
-        <v>43236</v>
+        <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
+        <v>43244</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -11461,7 +13930,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-2.9400333487185009</v>
+        <v>-3.6327982022677929</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -11470,11 +13939,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>2.9400333487185009</v>
+        <v>3.6327982022677929</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14910</v>
+        <v>14800</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -11488,18 +13957,18 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>1.9718533525945681E-4</v>
+        <v>2.4545933799106711E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>5.6907216674062511E-3</v>
+        <v>6.9432869970853517E-3</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-1.2158314933456538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1.4376044594581785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="13" t="s">
         <v>172</v>
@@ -11512,31 +13981,32 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43327</v>
+        <v>43791.5</v>
       </c>
       <c r="G9" s="10">
-        <v>11500</v>
+        <v>100</v>
       </c>
       <c r="H9" s="10">
-        <v>91</v>
+        <f>365*1.5</f>
+        <v>547.5</v>
       </c>
       <c r="I9" s="12">
         <f>H9/365</f>
-        <v>0.24931506849315069</v>
+        <v>1.5</v>
       </c>
       <c r="J9" s="12">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="K9" s="9">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="L9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-2.9400333487185009</v>
+        <v>-9.7951575710743981</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
@@ -11545,14 +14015,13 @@
       </c>
       <c r="O9" s="13">
         <f>IF(L9&lt;=0,ABS(L9)+N9,L9-N9)</f>
-        <v>2.9400333487185009</v>
+        <v>9.7951575710743981</v>
       </c>
       <c r="P9" s="11">
-        <f>RTD("wdf.rtq",,D9,"LastPrice")</f>
-        <v>14910</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="R9" s="10">
         <f t="shared" ref="R9" si="7">IF(S9="中金买入",1,-1)</f>
@@ -11563,110 +14032,118 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" ref="T9" si="8">O9/P9</f>
-        <v>1.9718533525945681E-4</v>
+        <v>9.7951575710743977E-2</v>
       </c>
       <c r="U9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>5.6907216674062511E-3</v>
+        <v>-0.48774870742995802</v>
       </c>
       <c r="V9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-1.2158314933456538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+        <v>-0.45967774731490252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="N10" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+    </row>
+    <row r="12" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="34"/>
+      <c r="B12" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" ref="F11" ca="1" si="9">E11+H11</f>
-        <v>43237</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3700</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <f>H11/365</f>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="L11" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-37.213335476649718</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="13">
-        <f t="shared" ref="N11" si="10">M11/10000*I11*P11</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <f>IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>37.213335476649718</v>
-      </c>
-      <c r="P11" s="11">
-        <v>3670</v>
-      </c>
-      <c r="Q11" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" ref="E12:E40" ca="1" si="9">TODAY()</f>
+        <v>43244</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12" ca="1" si="10">E12+H12</f>
+        <v>43325</v>
+      </c>
+      <c r="G12" s="11">
+        <v>480</v>
+      </c>
+      <c r="H12" s="10">
+        <v>81</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" ref="I12:I13" si="11">H12/365</f>
+        <v>0.22191780821917809</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="116">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="L12" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>-43.269485409732511</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="13">
+        <f t="shared" ref="N12" si="12">M12/10000*I12*P12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" ref="O12:O13" si="13">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
+        <v>43.269485409732511</v>
+      </c>
+      <c r="P12" s="121">
+        <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
+        <v>459.5</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="10">
-        <f t="shared" ref="R11" si="11">IF(S11="中金买入",1,-1)</f>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12" si="14">IF(S12="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="14">
-        <f t="shared" ref="T11" si="12">O11/P11</f>
-        <v>1.0139873426880032E-2</v>
-      </c>
-      <c r="U11" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.73945408030340332</v>
-      </c>
-      <c r="V11" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.62348837849458505</v>
-      </c>
-      <c r="W11" s="114">
+      <c r="T12" s="14">
+        <f t="shared" ref="T12" si="15">O12/P12</f>
+        <v>9.4166453557633326E-2</v>
+      </c>
+      <c r="U12" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>0.56414844360119787</v>
+      </c>
+      <c r="V12" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>-0.84768395430526766</v>
+      </c>
+      <c r="W12" s="114">
         <v>37.799999999999997</v>
       </c>
-      <c r="X11" s="115">
-        <f>G11-W11</f>
-        <v>3662.2</v>
-      </c>
-      <c r="Y11" s="6">
-        <f>500*U11</f>
-        <v>369.72704015170166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X12" s="115">
+        <f t="shared" ref="X12:X13" si="16">G12-W12</f>
+        <v>442.2</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" ref="Y12:Y13" si="17">500*U12</f>
+        <v>282.07422180059893</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" ref="Z12:Z13" si="18">1000000/P12/10</f>
+        <v>217.6278563656148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="13" t="s">
         <v>172</v>
@@ -11675,84 +14152,88 @@
         <v>160</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" ref="F13" ca="1" si="13">E13+H13</f>
-        <v>43267</v>
+        <f t="shared" ref="F13" ca="1" si="19">E13+H13</f>
+        <v>43325</v>
       </c>
       <c r="G13" s="11">
-        <f>P13</f>
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="H13" s="10">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I13" s="12">
-        <f>H13/365</f>
-        <v>8.4931506849315067E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.22191780821917809</v>
       </c>
       <c r="J13" s="12">
         <v>0</v>
       </c>
-      <c r="K13" s="117">
-        <v>0.21</v>
+      <c r="K13" s="116">
+        <v>0.36499999999999999</v>
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>2.437015531752337</v>
+        <v>-17.87558512457619</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13">
-        <f t="shared" ref="N13" si="14">M13/10000*I13*P13</f>
+        <f t="shared" ref="N13" si="20">M13/10000*I13*P13</f>
         <v>0</v>
       </c>
       <c r="O13" s="13">
-        <f>IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>2.437015531752337</v>
-      </c>
-      <c r="P13" s="11">
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>17.87558512457619</v>
+      </c>
+      <c r="P13" s="121">
+        <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
+        <v>459.5</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" ref="R13" si="15">IF(S13="中金买入",1,-1)</f>
-        <v>1</v>
+        <f t="shared" ref="R13" si="21">IF(S13="中金买入",1,-1)</f>
+        <v>-1</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="T13" s="14">
-        <f t="shared" ref="T13" si="16">O13/P13</f>
-        <v>2.437015531752337E-2</v>
+        <f t="shared" ref="T13" si="22">O13/P13</f>
+        <v>3.8902252719425878E-2</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-0.48696634446194764</v>
+        <v>0.31709790085869827</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.11601210076558033</v>
+        <v>-0.76911172214587964</v>
       </c>
       <c r="W13" s="114">
         <v>37.799999999999997</v>
       </c>
       <c r="X13" s="115">
-        <f>G13-W13</f>
-        <v>62.2</v>
+        <f t="shared" si="16"/>
+        <v>392.2</v>
       </c>
       <c r="Y13" s="6">
-        <f>500*U13</f>
-        <v>-243.48317223097382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>158.54895042934913</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" si="18"/>
+        <v>217.6278563656148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="13" t="s">
         <v>172</v>
@@ -11761,220 +14242,182 @@
         <v>160</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14" ca="1" si="17">E14+H14</f>
-        <v>43296</v>
+        <f t="shared" ref="F14" ca="1" si="23">E14+H14</f>
+        <v>43325</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" ref="G14:G23" si="18">P14</f>
-        <v>100</v>
+        <v>465</v>
       </c>
       <c r="H14" s="10">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I14" s="12">
-        <f>H14/365</f>
-        <v>0.16438356164383561</v>
+        <f t="shared" ref="I14" si="24">H14/365</f>
+        <v>0.22191780821917809</v>
       </c>
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="117">
-        <v>0.21</v>
+      <c r="K14" s="116">
+        <v>0.36499999999999999</v>
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>3.384539376643886</v>
+        <v>-34.342344338017426</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="13">
-        <f t="shared" ref="N14" si="19">M14/10000*I14*P14</f>
+        <f t="shared" ref="N14" si="25">M14/10000*I14*P14</f>
         <v>0</v>
       </c>
       <c r="O14" s="13">
-        <f>IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>3.384539376643886</v>
-      </c>
-      <c r="P14" s="11">
-        <v>100</v>
+        <f t="shared" ref="O14" si="26">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
+        <v>34.342344338017426</v>
+      </c>
+      <c r="P14" s="121">
+        <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
+        <v>459.5</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" ref="R14" si="20">IF(S14="中金买入",1,-1)</f>
-        <v>1</v>
+        <f t="shared" ref="R14" si="27">IF(S14="中金买入",1,-1)</f>
+        <v>-1</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="T14" s="14">
-        <f t="shared" ref="T14" si="21">O14/P14</f>
-        <v>3.3845393766438858E-2</v>
+        <f t="shared" ref="T14" si="28">O14/P14</f>
+        <v>7.4738507808525409E-2</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.48143617840246122</v>
+        <v>0.49112421069850143</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.16107109168594747</v>
+        <v>-0.85961073771429142</v>
       </c>
       <c r="W14" s="114">
         <v>37.799999999999997</v>
       </c>
       <c r="X14" s="115">
-        <f>G14-W14</f>
-        <v>62.2</v>
+        <f t="shared" ref="X14" si="29">G14-W14</f>
+        <v>427.2</v>
       </c>
       <c r="Y14" s="6">
-        <f>500*U14</f>
-        <v>-240.71808920123061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="X15" s="114"/>
-    </row>
-    <row r="16" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="13" t="s">
+        <f t="shared" ref="Y14" si="30">500*U14</f>
+        <v>245.56210534925071</v>
+      </c>
+      <c r="Z14" s="6">
+        <f t="shared" ref="Z14" si="31">1000000/P14/10</f>
+        <v>217.6278563656148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="K16" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16" ca="1" si="22">E16+H16</f>
-        <v>43267</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="10">
-        <v>31</v>
-      </c>
-      <c r="I16" s="12">
-        <f>H16/365</f>
-        <v>8.4931506849315067E-2</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="117">
-        <v>0.1075</v>
-      </c>
-      <c r="L16" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>1.2476635246627694</v>
-      </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="13">
-        <f t="shared" ref="N16" si="23">M16/10000*I16*P16</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="13">
-        <f>IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
-        <v>1.2476635246627694</v>
-      </c>
-      <c r="P16" s="11">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="10" t="s">
+      <c r="D17" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17:F20" ca="1" si="32">E17+H17</f>
+        <v>43295</v>
+      </c>
+      <c r="G17" s="11">
+        <v>13800</v>
+      </c>
+      <c r="H17" s="10">
+        <v>51</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17:I20" si="33">H17/365</f>
+        <v>0.13972602739726028</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="116">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L17" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>31.37412824265607</v>
+      </c>
+      <c r="M17" s="15">
+        <v>30</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" ref="N17:N20" si="34">M17/10000*I17*P17</f>
+        <v>6.203835616438357</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" ref="O17:O20" si="35">IF(L17&lt;=0,ABS(L17)+N17,L17-N17)</f>
+        <v>25.170292626217712</v>
+      </c>
+      <c r="P17" s="11">
+        <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
+        <v>14800</v>
+      </c>
+      <c r="Q17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R16" s="10">
-        <f t="shared" ref="R16" si="24">IF(S16="中金买入",1,-1)</f>
+      <c r="R17" s="10">
+        <f t="shared" ref="R17:R20" si="36">IF(S17="中金买入",1,-1)</f>
         <v>1</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S17" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T16" s="14">
-        <f t="shared" ref="T16" si="25">O16/P16</f>
-        <v>1.2476635246627694E-2</v>
-      </c>
-      <c r="U16" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-0.49291312001358278</v>
-      </c>
-      <c r="V16" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>0.11605218969397768</v>
-      </c>
-      <c r="W16" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X16" s="115">
-        <f>G16-W16</f>
-        <v>62.2</v>
-      </c>
-      <c r="Y16" s="6">
-        <f>500*U16</f>
-        <v>-246.45656000679139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="X17" s="114"/>
-    </row>
-    <row r="18" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T17" s="14">
+        <f t="shared" ref="T17:T20" si="37">O17/P17</f>
+        <v>1.700695447717413E-3</v>
+      </c>
+      <c r="U17" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>-8.6201553085629712E-2</v>
+      </c>
+      <c r="V17" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>8.6774977524584074</v>
+      </c>
+      <c r="W17" s="114"/>
+      <c r="X17" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="6">
+        <f>X17*U17</f>
+        <v>-34.480621234251885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
       <c r="B18" s="13" t="s">
         <v>172</v>
@@ -11983,84 +14426,83 @@
         <v>160</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F21" ca="1" si="26">E18+H18</f>
-        <v>43267</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>43295</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="18"/>
-        <v>100</v>
+        <v>14000</v>
       </c>
       <c r="H18" s="10">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I18" s="12">
-        <f>H18/365</f>
-        <v>8.4931506849315067E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.13972602739726028</v>
       </c>
       <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K18" s="117">
-        <v>0.16500000000000001</v>
+      <c r="K18" s="116">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>1.9149122565538121</v>
-      </c>
-      <c r="M18" s="15"/>
+        <v>55.539920301929897</v>
+      </c>
+      <c r="M18" s="15">
+        <v>30</v>
+      </c>
       <c r="N18" s="13">
-        <f t="shared" ref="N18:N21" si="27">M18/10000*I18*P18</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>6.203835616438357</v>
       </c>
       <c r="O18" s="13">
-        <f>IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>1.9149122565538121</v>
+        <f t="shared" si="35"/>
+        <v>49.336084685491542</v>
       </c>
       <c r="P18" s="11">
-        <v>100</v>
+        <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
+        <v>14800</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" ref="R18:R21" si="28">IF(S18="中金买入",1,-1)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T18" s="14">
-        <f t="shared" ref="T18:T21" si="29">O18/P18</f>
-        <v>1.9149122565538121E-2</v>
+        <f t="shared" si="37"/>
+        <v>3.3335192355061854E-3</v>
       </c>
       <c r="U18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.48957686527622002</v>
+        <v>-0.13790306159080501</v>
       </c>
       <c r="V18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>0.11603288645868659</v>
-      </c>
-      <c r="W18" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>12.154883528465234</v>
+      </c>
+      <c r="W18" s="114"/>
       <c r="X18" s="115">
-        <f>G18-W18</f>
-        <v>62.2</v>
+        <v>400</v>
       </c>
       <c r="Y18" s="6">
-        <f>500*U18</f>
-        <v>-244.78843263811001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X18*U18</f>
+        <v>-55.161224636322004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
       <c r="B19" s="13" t="s">
         <v>172</v>
@@ -12069,84 +14511,83 @@
         <v>160</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>43264</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>43327</v>
       </c>
       <c r="G19" s="11">
-        <v>3300</v>
+        <v>13800</v>
       </c>
       <c r="H19" s="10">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I19" s="12">
-        <f>H19/365</f>
-        <v>7.6712328767123292E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.22739726027397261</v>
       </c>
       <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="K19" s="9">
-        <v>0.22</v>
+      <c r="K19" s="116">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>3.2531913172629459</v>
-      </c>
-      <c r="M19" s="15"/>
+        <v>61.708254139316068</v>
+      </c>
+      <c r="M19" s="15">
+        <v>30</v>
+      </c>
       <c r="N19" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>10.151013698630138</v>
       </c>
       <c r="O19" s="13">
-        <f>IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
-        <v>3.2531913172629459</v>
+        <f t="shared" si="35"/>
+        <v>51.557240440685931</v>
       </c>
       <c r="P19" s="11">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>3676</v>
+        <v>14880</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S19" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T19" s="14">
-        <f t="shared" si="29"/>
-        <v>8.8498131590395693E-4</v>
+        <f t="shared" si="37"/>
+        <v>3.4648683091858825E-3</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-3.5773034565522721E-2</v>
+        <v>-0.12205516684389295</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>0.80083642874659233</v>
-      </c>
-      <c r="W19" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>14.318583800340548</v>
+      </c>
+      <c r="W19" s="114"/>
       <c r="X19" s="115">
-        <f>G19-W19</f>
-        <v>3262.2</v>
+        <v>400</v>
       </c>
       <c r="Y19" s="6">
-        <f>500*U19</f>
-        <v>-17.886517282761361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X19*U19</f>
+        <v>-48.822066737557179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
       <c r="B20" s="13" t="s">
         <v>172</v>
@@ -12155,84 +14596,83 @@
         <v>160</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>43264</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>43327</v>
       </c>
       <c r="G20" s="11">
-        <v>3350</v>
+        <v>14000</v>
       </c>
       <c r="H20" s="10">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I20" s="12">
-        <f>H20/365</f>
-        <v>7.6712328767123292E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.22739726027397261</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
       </c>
-      <c r="K20" s="9">
-        <v>0.2225</v>
+      <c r="K20" s="116">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>6.2268915821427129</v>
-      </c>
-      <c r="M20" s="15"/>
+        <v>94.006683715169856</v>
+      </c>
+      <c r="M20" s="15">
+        <v>30</v>
+      </c>
       <c r="N20" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>10.151013698630138</v>
       </c>
       <c r="O20" s="13">
-        <f>IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>6.2268915821427129</v>
+        <f t="shared" si="35"/>
+        <v>83.855670016539719</v>
       </c>
       <c r="P20" s="11">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3676</v>
+        <v>14880</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R20" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T20" s="14">
-        <f t="shared" si="29"/>
-        <v>1.6939313335535128E-3</v>
+        <f t="shared" si="37"/>
+        <v>5.6354616946599273E-3</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-6.1962420573991039E-2</v>
+        <v>-0.17116573005750979</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>1.2426300726254027</v>
-      </c>
-      <c r="W20" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>17.977351394847119</v>
+      </c>
+      <c r="W20" s="114"/>
       <c r="X20" s="115">
-        <f>G20-W20</f>
-        <v>3312.2</v>
+        <v>400</v>
       </c>
       <c r="Y20" s="6">
-        <f>500*U20</f>
-        <v>-30.98121028699552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X20*U20</f>
+        <v>-68.466292023003916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
       <c r="B21" s="13" t="s">
         <v>172</v>
@@ -12241,109 +14681,82 @@
         <v>160</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>43264</v>
+        <f t="shared" ref="F21" ca="1" si="38">E21+H21</f>
+        <v>43327</v>
       </c>
       <c r="G21" s="11">
-        <v>3400</v>
+        <v>14000</v>
       </c>
       <c r="H21" s="10">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I21" s="12">
-        <f>H21/365</f>
-        <v>7.6712328767123292E-2</v>
+        <f t="shared" ref="I21" si="39">H21/365</f>
+        <v>0.22739726027397261</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
       </c>
-      <c r="K21" s="9">
-        <v>0.22500000000000001</v>
+      <c r="K21" s="116">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>11.067682576196091</v>
-      </c>
-      <c r="M21" s="15"/>
+        <v>160.63140236371419</v>
+      </c>
+      <c r="M21" s="15">
+        <v>30</v>
+      </c>
       <c r="N21" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" ref="N21" si="40">M21/10000*I21*P21</f>
+        <v>9.9395342465753433</v>
       </c>
       <c r="O21" s="13">
-        <f>IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>11.067682576196091</v>
+        <f t="shared" ref="O21" si="41">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
+        <v>150.69186811713885</v>
       </c>
       <c r="P21" s="11">
-        <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3676</v>
+        <v>14570</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R21" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="R21" si="42">IF(S21="中金买入",1,-1)</f>
         <v>1</v>
       </c>
       <c r="S21" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T21" s="14">
-        <f t="shared" si="29"/>
-        <v>3.0107950424907758E-3</v>
+        <f t="shared" ref="T21" si="43">O21/P21</f>
+        <v>1.0342612773997176E-2</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-9.9488568417882561E-2</v>
+        <v>-0.26277444619609014</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>1.7780891581268463</v>
-      </c>
-      <c r="W21" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>22.591054407461115</v>
+      </c>
+      <c r="W21" s="114"/>
       <c r="X21" s="115">
-        <f>G21-W21</f>
-        <v>3362.2</v>
+        <v>400</v>
       </c>
       <c r="Y21" s="6">
-        <f>500*U21</f>
-        <v>-49.744284208941281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="X22" s="114"/>
-    </row>
-    <row r="23" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X21*U21</f>
+        <v>-105.10977847843606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
       <c r="B23" s="13" t="s">
         <v>172</v>
@@ -12352,45 +14765,45 @@
         <v>160</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" ref="F23" ca="1" si="30">E23+H23</f>
-        <v>43267</v>
+        <f t="shared" ref="F23:F24" ca="1" si="44">E23+H23</f>
+        <v>43276</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="18"/>
+        <f>P23</f>
         <v>100</v>
       </c>
       <c r="H23" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I23" s="12">
-        <f>H23/365</f>
-        <v>8.4931506849315067E-2</v>
+        <f t="shared" ref="I23:I24" si="45">H23/365</f>
+        <v>8.7671232876712329E-2</v>
       </c>
       <c r="J23" s="12">
         <v>0</v>
       </c>
       <c r="K23" s="116">
-        <v>0.14749999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="L23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>1.7118486286586005</v>
+        <v>1.3559821728240848</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="13">
-        <f t="shared" ref="N23" si="31">M23/10000*I23*P23</f>
+        <f t="shared" ref="N23:N24" si="46">M23/10000*I23*P23</f>
         <v>0</v>
       </c>
       <c r="O23" s="13">
-        <f>IF(L23&lt;=0,ABS(L23)+N23,L23-N23)</f>
-        <v>1.7118486286586005</v>
+        <f t="shared" ref="O23:O24" si="47">IF(L23&lt;=0,ABS(L23)+N23,L23-N23)</f>
+        <v>1.3559821728240848</v>
       </c>
       <c r="P23" s="11">
         <v>100</v>
@@ -12399,61 +14812,117 @@
         <v>85</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" ref="R23" si="32">IF(S23="中金买入",1,-1)</f>
+        <f t="shared" ref="R23:R24" si="48">IF(S23="中金买入",1,-1)</f>
         <v>1</v>
       </c>
       <c r="S23" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T23" s="14">
-        <f t="shared" ref="T23" si="33">O23/P23</f>
-        <v>1.7118486286586007E-2</v>
+        <f t="shared" ref="T23:T24" si="49">O23/P23</f>
+        <v>1.3559821728240849E-2</v>
       </c>
       <c r="U23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-0.49059218587288456</v>
+        <v>-0.4923441742175072</v>
       </c>
       <c r="V23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>0.11603962336191032</v>
-      </c>
-      <c r="W23" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>0.11790005794639313</v>
+      </c>
+      <c r="W23" s="114"/>
       <c r="X23" s="115">
-        <f>G23-W23</f>
-        <v>62.2</v>
+        <v>200</v>
       </c>
       <c r="Y23" s="6">
-        <f>500*U23</f>
-        <v>-245.29609293644228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="Y23:Y24" si="50">X23*U23</f>
+        <v>-98.46883484350144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ca="1" si="44"/>
+        <v>43276</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" ref="G24" si="51">P24</f>
+        <v>100</v>
+      </c>
+      <c r="H24" s="10">
+        <v>32</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="45"/>
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="116">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L24" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
+        <v>-2.6526462008723612</v>
+      </c>
       <c r="M24" s="15"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-    </row>
-    <row r="25" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N24" s="13">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <f t="shared" si="47"/>
+        <v>2.6526462008723612</v>
+      </c>
+      <c r="P24" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="48"/>
+        <v>-1</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="14">
+        <f t="shared" si="49"/>
+        <v>2.6526462008723613E-2</v>
+      </c>
+      <c r="U24" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
+        <v>0.48586083977859573</v>
+      </c>
+      <c r="V24" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
+        <v>-0.11785174501013884</v>
+      </c>
+      <c r="W24" s="114"/>
+      <c r="X24" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y24" s="6">
+        <f t="shared" si="50"/>
+        <v>194.34433591143829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
       <c r="B25" s="13" t="s">
         <v>172</v>
@@ -12462,139 +14931,247 @@
         <v>160</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" ref="F25" ca="1" si="34">E25+H25</f>
-        <v>43266</v>
+        <f t="shared" ref="F25:F28" ca="1" si="52">E25+H25</f>
+        <v>43304</v>
       </c>
       <c r="G25" s="11">
-        <v>49000</v>
+        <f>P25</f>
+        <v>100</v>
       </c>
       <c r="H25" s="10">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I25" s="12">
-        <f>H25/365</f>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" ref="I25:I28" si="53">H25/365</f>
+        <v>0.16438356164383561</v>
       </c>
       <c r="J25" s="12">
         <v>0</v>
       </c>
-      <c r="K25" s="9">
-        <v>0.13500000000000001</v>
+      <c r="K25" s="116">
+        <v>0.11799999999999999</v>
       </c>
       <c r="L25" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>143.71277212501172</v>
-      </c>
-      <c r="M25" s="15">
-        <v>30</v>
-      </c>
+        <v>1.9021818418049463</v>
+      </c>
+      <c r="M25" s="15"/>
       <c r="N25" s="13">
-        <f t="shared" ref="N25" si="35">M25/10000*I25*P25</f>
-        <v>12.587671232876712</v>
+        <f t="shared" ref="N25:N28" si="54">M25/10000*I25*P25</f>
+        <v>0</v>
       </c>
       <c r="O25" s="13">
-        <f>IF(L25&lt;=0,ABS(L25)+N25,L25-N25)</f>
-        <v>131.12510089213501</v>
+        <f t="shared" ref="O25:O28" si="55">IF(L25&lt;=0,ABS(L25)+N25,L25-N25)</f>
+        <v>1.9021818418049463</v>
       </c>
       <c r="P25" s="11">
-        <v>51050</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R25" s="10">
-        <f t="shared" ref="R25" si="36">IF(S25="中金买入",1,-1)</f>
+        <f t="shared" ref="R25:R28" si="56">IF(S25="中金买入",1,-1)</f>
         <v>1</v>
       </c>
       <c r="S25" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T25" s="14">
-        <f t="shared" ref="T25" si="37">O25/P25</f>
-        <v>2.5685622114032325E-3</v>
+        <f t="shared" ref="T25:T28" si="57">O25/P25</f>
+        <v>1.9021818418049462E-2</v>
       </c>
       <c r="U25" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>-0.14021665033396857</v>
+        <v>-0.48884797518340406</v>
       </c>
       <c r="V25" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>32.529635749877343</v>
-      </c>
-      <c r="W25" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>0.16117099542144686</v>
+      </c>
+      <c r="W25" s="114"/>
       <c r="X25" s="115">
-        <f>G25-W25</f>
-        <v>48962.2</v>
+        <v>200</v>
       </c>
       <c r="Y25" s="6">
-        <f>500*U25</f>
-        <v>-70.108325166984287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="Y25:Y28" si="58">X25*U25</f>
+        <v>-97.769595036680812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ca="1" si="52"/>
+        <v>43304</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" ref="G26:G28" si="59">P26</f>
+        <v>100</v>
+      </c>
+      <c r="H26" s="10">
+        <v>60</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="53"/>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="116">
+        <v>0.23</v>
+      </c>
+      <c r="L26" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
+        <v>-3.7066530980644856</v>
+      </c>
       <c r="M26" s="15"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-    </row>
-    <row r="27" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N26" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
+        <f t="shared" si="55"/>
+        <v>3.7066530980644856</v>
+      </c>
+      <c r="P26" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="14">
+        <f t="shared" si="57"/>
+        <v>3.7066530980644857E-2</v>
+      </c>
+      <c r="U26" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
+        <v>0.47982560877848357</v>
+      </c>
+      <c r="V26" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
+        <v>-0.16104196917521207</v>
+      </c>
+      <c r="W26" s="114"/>
+      <c r="X26" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="58"/>
+        <v>191.93024351139343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" ca="1" si="52"/>
+        <v>43276</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="59"/>
+        <v>100</v>
+      </c>
+      <c r="H27" s="10">
+        <v>32</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="53"/>
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="116">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="L27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>-1.7096679406089024</v>
+      </c>
       <c r="M27" s="15"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
+      <c r="N27" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="55"/>
+        <v>1.7096679406089024</v>
+      </c>
+      <c r="P27" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="T27" s="14">
-        <f>T28+T29</f>
-        <v>0.14685897438554971</v>
-      </c>
-      <c r="U27" s="12">
-        <f>T27/2</f>
-        <v>7.3429487192774853E-2</v>
-      </c>
-      <c r="V27" s="13"/>
-    </row>
-    <row r="28" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="57"/>
+        <v>1.7096679406089024E-2</v>
+      </c>
+      <c r="U27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>0.49057573932813625</v>
+      </c>
+      <c r="V27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>-0.11788998035212117</v>
+      </c>
+      <c r="W27" s="114"/>
+      <c r="X27" s="115">
+        <v>200</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" si="58"/>
+        <v>98.11514786562725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
       <c r="B28" s="13" t="s">
         <v>172</v>
@@ -12603,200 +15180,164 @@
         <v>160</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E36" ca="1" si="38">TODAY()</f>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" ref="F28:F37" ca="1" si="39">E28+H28</f>
-        <v>43334</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>43276</v>
       </c>
       <c r="G28" s="11">
-        <v>500</v>
+        <f t="shared" si="59"/>
+        <v>100</v>
       </c>
       <c r="H28" s="10">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="I28" s="12">
-        <f>H28/365</f>
-        <v>0.26849315068493151</v>
+        <f t="shared" si="53"/>
+        <v>8.7671232876712329E-2</v>
       </c>
       <c r="J28" s="12">
         <v>0</v>
       </c>
-      <c r="K28" s="117">
-        <v>0.34499999999999997</v>
+      <c r="K28" s="116">
+        <v>0.115</v>
       </c>
       <c r="L28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-43.920920810000382</v>
+        <v>-1.3559821728240848</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="13">
-        <f t="shared" ref="N28:N37" si="40">M28/10000*I28*P28</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O28" s="13">
-        <f>IF(L28&lt;=0,ABS(L28)+N28,L28-N28)</f>
-        <v>43.920920810000382</v>
+        <f t="shared" si="55"/>
+        <v>1.3559821728240848</v>
       </c>
       <c r="P28" s="11">
-        <f>RTD("wdf.rtq",,D28,"LastPrice")</f>
-        <v>483</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R28" s="10">
-        <f t="shared" ref="R28:R37" si="41">IF(S28="中金买入",1,-1)</f>
+        <f t="shared" si="56"/>
         <v>-1</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T28" s="14">
-        <f t="shared" ref="T28:T37" si="42">O28/P28</f>
-        <v>9.0933583457557726E-2</v>
+        <f t="shared" si="57"/>
+        <v>1.3559821728240849E-2</v>
       </c>
       <c r="U28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>0.53856226126356432</v>
+        <v>0.4923441742175072</v>
       </c>
       <c r="V28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-0.98771226110673638</v>
-      </c>
-      <c r="W28" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>-0.11790005794639313</v>
+      </c>
+      <c r="W28" s="114"/>
       <c r="X28" s="115">
-        <f>G28-W28</f>
-        <v>462.2</v>
+        <v>400</v>
       </c>
       <c r="Y28" s="6">
-        <f>500*U28</f>
-        <v>269.28113063178216</v>
-      </c>
-      <c r="Z28" s="119">
-        <f>U28+U29</f>
-        <v>8.2479993602646573E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="34"/>
-      <c r="B29" s="13" t="s">
+        <f t="shared" si="58"/>
+        <v>196.93766968700288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="34"/>
+      <c r="B30" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>43236</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>43334</v>
-      </c>
-      <c r="G29" s="11">
-        <v>500</v>
-      </c>
-      <c r="H29" s="10">
-        <v>98</v>
-      </c>
-      <c r="I29" s="12">
-        <f>H29/365</f>
-        <v>0.26849315068493151</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0</v>
-      </c>
-      <c r="K29" s="117">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="L29" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-27.011963818220124</v>
-      </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="13">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="13">
-        <f>IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
-        <v>27.011963818220124</v>
-      </c>
-      <c r="P29" s="11">
-        <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>483</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R29" s="10">
-        <f t="shared" si="41"/>
-        <v>-1</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T29" s="14">
-        <f t="shared" si="42"/>
-        <v>5.5925390927991973E-2</v>
-      </c>
-      <c r="U29" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.45608226766091775</v>
-      </c>
-      <c r="V29" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.98771226110672217</v>
-      </c>
-      <c r="W29" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X29" s="115">
-        <f>G29-W29</f>
-        <v>462.2</v>
-      </c>
-      <c r="Y29" s="6">
-        <f>500*U29</f>
-        <v>-228.04113383045888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="34"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="13"/>
+      <c r="D30" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" ref="F30:F34" ca="1" si="60">E30+H30</f>
+        <v>43301</v>
+      </c>
+      <c r="G30" s="11">
+        <v>3300</v>
+      </c>
+      <c r="H30" s="10">
+        <v>57</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" ref="I30:I34" si="61">H30/365</f>
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="116">
+        <v>0.18</v>
+      </c>
+      <c r="L30" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
+        <v>9.7907121091538997E-98</v>
+      </c>
       <c r="M30" s="15"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
+      <c r="N30" s="13">
+        <f t="shared" ref="N30:N34" si="62">M30/10000*I30*P30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" ref="O30:O34" si="63">IF(L30&lt;=0,ABS(L30)+N30,L30-N30)</f>
+        <v>9.7907121091538997E-98</v>
+      </c>
+      <c r="P30" s="11">
+        <f>RTD("wdf.rtq",,D30,"LastPrice")</f>
+        <v>14800</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" ref="R30:R34" si="64">IF(S30="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T30" s="14">
+        <f t="shared" ref="T30:T34" si="65">O30/P30</f>
+        <v>6.6153460196985807E-102</v>
+      </c>
+      <c r="U30" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
+        <v>-1.9675486438787383E-99</v>
+      </c>
+      <c r="V30" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
+        <v>4.6364663425357856E-88</v>
+      </c>
       <c r="W30" s="114"/>
-      <c r="X30" s="115"/>
-    </row>
-    <row r="31" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X30" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y30" s="6">
+        <f>X30*U30</f>
+        <v>-7.8701945755149531E-97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
       <c r="B31" s="13" t="s">
         <v>172</v>
@@ -12805,84 +15346,81 @@
         <v>160</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>43266</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>43301</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" ref="G31:G34" si="43">P31</f>
-        <v>100</v>
+        <v>3350</v>
       </c>
       <c r="H31" s="10">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I31" s="12">
-        <f>H31/365</f>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" si="61"/>
+        <v>0.15616438356164383</v>
       </c>
       <c r="J31" s="12">
         <v>0</v>
       </c>
-      <c r="K31" s="117">
-        <v>0.215</v>
+      <c r="K31" s="116">
+        <v>0.18</v>
       </c>
       <c r="L31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>2.4545962454477035</v>
+        <v>8.5134559021761884E-96</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O31" s="13">
-        <f>IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
-        <v>2.4545962454477035</v>
+        <f t="shared" si="63"/>
+        <v>8.5134559021761884E-96</v>
       </c>
       <c r="P31" s="11">
-        <v>100</v>
+        <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
+        <v>14800</v>
       </c>
       <c r="Q31" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R31" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="S31" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T31" s="14">
-        <f t="shared" si="42"/>
-        <v>2.4545962454477033E-2</v>
+        <f t="shared" si="65"/>
+        <v>5.752335069037965E-100</v>
       </c>
       <c r="U31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-0.48690579229031528</v>
+        <v>-1.6938500332838515E-97</v>
       </c>
       <c r="V31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>0.1141310863072178</v>
-      </c>
-      <c r="W31" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>2.5581937670600144E-86</v>
+      </c>
+      <c r="W31" s="114"/>
       <c r="X31" s="115">
-        <f>G31-W31</f>
-        <v>62.2</v>
+        <v>400</v>
       </c>
       <c r="Y31" s="6">
-        <f>500*U31</f>
-        <v>-243.45289614515764</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X31*U31</f>
+        <v>-6.775400133135406E-95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
       <c r="B32" s="13" t="s">
         <v>172</v>
@@ -12891,110 +15429,164 @@
         <v>160</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>43266</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>43301</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="43"/>
-        <v>100</v>
+        <v>3400</v>
       </c>
       <c r="H32" s="10">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I32" s="12">
-        <f>H32/365</f>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" si="61"/>
+        <v>0.15616438356164383</v>
       </c>
       <c r="J32" s="12">
         <v>0</v>
       </c>
-      <c r="K32" s="117">
-        <v>0.28499999999999998</v>
+      <c r="K32" s="116">
+        <v>0.18</v>
       </c>
       <c r="L32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-3.2533772011772371</v>
+        <v>1.3738886122580167E-94</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O32" s="13">
-        <f>IF(L32&lt;=0,ABS(L32)+N32,L32-N32)</f>
-        <v>3.2533772011772371</v>
+        <f t="shared" si="63"/>
+        <v>1.3738886122580167E-94</v>
       </c>
       <c r="P32" s="11">
-        <v>100</v>
+        <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
+        <v>14880</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R32" s="10">
-        <f t="shared" si="41"/>
-        <v>-1</v>
+        <f t="shared" si="64"/>
+        <v>1</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T32" s="14">
-        <f t="shared" si="42"/>
-        <v>3.253377201177237E-2</v>
+        <f t="shared" si="65"/>
+        <v>9.2331223942071012E-99</v>
       </c>
       <c r="U32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>0.4829118835409929</v>
+        <v>-2.7016933123290246E-96</v>
       </c>
       <c r="V32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-0.1140900534253646</v>
-      </c>
-      <c r="W32" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>3.1116547378135225E-85</v>
+      </c>
+      <c r="W32" s="114"/>
       <c r="X32" s="115">
-        <f>G32-W32</f>
-        <v>62.2</v>
+        <v>400</v>
       </c>
       <c r="Y32" s="6">
-        <f>500*U32</f>
-        <v>241.45594177049645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X32*U32</f>
+        <v>-1.0806773249316099E-93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" ca="1" si="60"/>
+        <v>43301</v>
+      </c>
+      <c r="G33" s="11">
+        <v>3450</v>
+      </c>
+      <c r="H33" s="10">
+        <v>57</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="61"/>
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="116">
+        <v>0.18</v>
+      </c>
+      <c r="L33" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
+        <v>9.7809079797696768E-93</v>
+      </c>
       <c r="M33" s="15"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
+      <c r="N33" s="13">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="13">
+        <f t="shared" si="63"/>
+        <v>9.7809079797696768E-93</v>
+      </c>
+      <c r="P33" s="11">
+        <f>RTD("wdf.rtq",,D33,"LastPrice")</f>
+        <v>14880</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R33" s="10">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T33" s="14">
+        <f t="shared" si="65"/>
+        <v>6.5731908466194067E-97</v>
+      </c>
+      <c r="U33" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
+        <v>-1.9044953731591477E-94</v>
+      </c>
+      <c r="V33" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
+        <v>1.4346795169884489E-83</v>
+      </c>
       <c r="W33" s="114"/>
-      <c r="X33" s="115"/>
-    </row>
-    <row r="34" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X33" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y33" s="6">
+        <f>X33*U33</f>
+        <v>-7.6179814926365907E-92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="34"/>
       <c r="B34" s="13" t="s">
         <v>172</v>
@@ -13003,110 +15595,80 @@
         <v>160</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>43266</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>43301</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" si="43"/>
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="H34" s="10">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I34" s="12">
-        <f>H34/365</f>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" si="61"/>
+        <v>0.15616438356164383</v>
       </c>
       <c r="J34" s="12">
         <v>0</v>
       </c>
-      <c r="K34" s="117">
-        <v>0.36</v>
+      <c r="K34" s="116">
+        <v>0.18</v>
       </c>
       <c r="L34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-4.1088485325048723</v>
+        <v>2.5275324401046921E-88</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O34" s="13">
-        <f>IF(L34&lt;=0,ABS(L34)+N34,L34-N34)</f>
-        <v>4.1088485325048723</v>
+        <f t="shared" si="63"/>
+        <v>2.5275324401046921E-88</v>
       </c>
       <c r="P34" s="11">
-        <v>100</v>
+        <v>14570</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R34" s="10">
-        <f t="shared" si="41"/>
-        <v>-1</v>
+        <f t="shared" si="64"/>
+        <v>1</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T34" s="14">
-        <f t="shared" si="42"/>
-        <v>4.1088485325048725E-2</v>
+        <f t="shared" si="65"/>
+        <v>1.7347511599894934E-92</v>
       </c>
       <c r="U34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>0.47863452434313558</v>
+        <v>-4.9052749761641461E-90</v>
       </c>
       <c r="V34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-0.11403336440540457</v>
-      </c>
-      <c r="W34" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>1.3147545182399271E-79</v>
+      </c>
+      <c r="W34" s="114"/>
       <c r="X34" s="115">
-        <f>G34-W34</f>
-        <v>62.2</v>
+        <v>400</v>
       </c>
       <c r="Y34" s="6">
-        <f>500*U34</f>
-        <v>239.31726217156779</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="115"/>
-    </row>
-    <row r="36" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X34*U34</f>
+        <v>-1.9621099904656584E-87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="34"/>
       <c r="B36" s="13" t="s">
         <v>172</v>
@@ -13115,86 +15677,81 @@
         <v>160</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>43266</v>
+        <f t="shared" ref="F36:F40" ca="1" si="66">E36+H36</f>
+        <v>43273</v>
       </c>
       <c r="G36" s="11">
-        <v>12105</v>
+        <v>3300</v>
       </c>
       <c r="H36" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I36" s="12">
-        <f>H36/365</f>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" ref="I36:I40" si="67">H36/365</f>
+        <v>7.9452054794520555E-2</v>
       </c>
       <c r="J36" s="12">
         <v>0</v>
       </c>
-      <c r="K36" s="117">
-        <v>0.3</v>
+      <c r="K36" s="116">
+        <v>0.18</v>
       </c>
       <c r="L36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-161.94895267658558</v>
-      </c>
-      <c r="M36" s="15">
-        <v>70</v>
-      </c>
+        <v>1.7066803146460334E-191</v>
+      </c>
+      <c r="M36" s="15"/>
       <c r="N36" s="13">
-        <f t="shared" si="40"/>
-        <v>6.5963013698630135</v>
+        <f t="shared" ref="N36:N40" si="68">M36/10000*I36*P36</f>
+        <v>0</v>
       </c>
       <c r="O36" s="13">
-        <f>IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
-        <v>168.54525404644858</v>
+        <f t="shared" ref="O36:O40" si="69">IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
+        <v>1.7066803146460334E-191</v>
       </c>
       <c r="P36" s="11">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>11465</v>
+        <v>14800</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R36" s="10">
-        <f t="shared" si="41"/>
-        <v>-1</v>
+        <f t="shared" ref="R36:R40" si="70">IF(S36="中金买入",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T36" s="14">
-        <f t="shared" si="42"/>
-        <v>1.4700850767243661E-2</v>
+        <f t="shared" ref="T36:T40" si="71">O36/P36</f>
+        <v>1.1531623747608334E-195</v>
       </c>
       <c r="U36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.27761927115079743</v>
+        <v>-6.7321238088912429E-193</v>
       </c>
       <c r="V36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-11.007241788228839</v>
-      </c>
-      <c r="W36" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>2.967718007487279E-172</v>
+      </c>
+      <c r="W36" s="114"/>
       <c r="X36" s="115">
-        <f>G36-W36</f>
-        <v>12067.2</v>
+        <v>400</v>
       </c>
       <c r="Y36" s="6">
-        <f>500*U36</f>
-        <v>-138.80963557539872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X36*U36</f>
+        <v>-2.6928495235564972E-190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="34"/>
       <c r="B37" s="13" t="s">
         <v>172</v>
@@ -13203,86 +15760,81 @@
         <v>160</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E37" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>43326</v>
+        <f t="shared" ca="1" si="66"/>
+        <v>43273</v>
       </c>
       <c r="G37" s="11">
-        <v>12105</v>
+        <v>3350</v>
       </c>
       <c r="H37" s="10">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I37" s="12">
-        <f>H37/365</f>
-        <v>0.24657534246575341</v>
+        <f t="shared" si="67"/>
+        <v>7.9452054794520555E-2</v>
       </c>
       <c r="J37" s="12">
         <v>0</v>
       </c>
-      <c r="K37" s="117">
-        <v>0.31</v>
+      <c r="K37" s="116">
+        <v>0.18</v>
       </c>
       <c r="L37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-445.26639211946213</v>
-      </c>
-      <c r="M37" s="15">
-        <v>70</v>
-      </c>
+        <v>1.0773320755272907E-187</v>
+      </c>
+      <c r="M37" s="15"/>
       <c r="N37" s="13">
-        <f t="shared" si="40"/>
-        <v>19.788904109589041</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
       </c>
       <c r="O37" s="13">
-        <f>IF(L37&lt;=0,ABS(L37)+N37,L37-N37)</f>
-        <v>465.05529622905118</v>
+        <f t="shared" si="69"/>
+        <v>1.0773320755272907E-187</v>
       </c>
       <c r="P37" s="11">
         <f>RTD("wdf.rtq",,D37,"LastPrice")</f>
-        <v>11465</v>
+        <v>14800</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R37" s="10">
-        <f t="shared" si="41"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T37" s="14">
-        <f t="shared" si="42"/>
-        <v>4.0563043718190243E-2</v>
+        <f t="shared" si="71"/>
+        <v>7.2792707805898018E-192</v>
       </c>
       <c r="U37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-0.38938458139909926</v>
+        <v>-4.2071888884478116E-189</v>
       </c>
       <c r="V37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-21.755013424618028</v>
-      </c>
-      <c r="W37" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>7.6621544338714229E-169</v>
+      </c>
+      <c r="W37" s="114"/>
       <c r="X37" s="115">
-        <f>G37-W37</f>
-        <v>12067.2</v>
+        <v>400</v>
       </c>
       <c r="Y37" s="6">
-        <f>500*U37</f>
-        <v>-194.69229069954963</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X37*U37</f>
+        <v>-1.6828755553791247E-186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="34"/>
       <c r="B38" s="13" t="s">
         <v>172</v>
@@ -13291,86 +15843,164 @@
         <v>160</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E38" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" ref="F38" ca="1" si="44">E38+H38</f>
-        <v>43336</v>
+        <f t="shared" ca="1" si="66"/>
+        <v>43273</v>
       </c>
       <c r="G38" s="11">
-        <v>12105</v>
+        <v>3400</v>
       </c>
       <c r="H38" s="10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I38" s="12">
-        <f>H38/365</f>
-        <v>0.27397260273972601</v>
+        <f t="shared" si="67"/>
+        <v>7.9452054794520555E-2</v>
       </c>
       <c r="J38" s="12">
         <v>0</v>
       </c>
-      <c r="K38" s="117">
-        <v>0.315</v>
+      <c r="K38" s="116">
+        <v>0.18</v>
       </c>
       <c r="L38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-1687.1425868254883</v>
-      </c>
-      <c r="M38" s="15">
-        <v>70</v>
-      </c>
+        <v>2.4938626080778527E-185</v>
+      </c>
+      <c r="M38" s="15"/>
       <c r="N38" s="13">
-        <f t="shared" ref="N38" si="45">M38/10000*I38*P38</f>
-        <v>25.842465753424658</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
       </c>
       <c r="O38" s="13">
-        <f>IF(L38&lt;=0,ABS(L38)+N38,L38-N38)</f>
-        <v>1712.9850525789129</v>
+        <f t="shared" si="69"/>
+        <v>2.4938626080778527E-185</v>
       </c>
       <c r="P38" s="11">
         <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
-        <v>13475</v>
+        <v>14880</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R38" s="10">
-        <f t="shared" ref="R38" si="46">IF(S38="中金买入",1,-1)</f>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T38" s="14">
-        <f t="shared" ref="T38" si="47">O38/P38</f>
-        <v>0.12712319499657981</v>
+        <f t="shared" si="71"/>
+        <v>1.6759829355361913E-189</v>
       </c>
       <c r="U38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-0.76393829021981219</v>
+        <v>-9.6254383859624513E-187</v>
       </c>
       <c r="V38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-21.391939918006756</v>
-      </c>
-      <c r="W38" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>1.0175099644301373E-166</v>
+      </c>
+      <c r="W38" s="114"/>
       <c r="X38" s="115">
-        <f>G38-W38</f>
-        <v>12067.2</v>
+        <v>400</v>
       </c>
       <c r="Y38" s="6">
-        <f>500*U38</f>
-        <v>-381.96914510990609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>X38*U38</f>
+        <v>-3.8501753543849805E-184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="34"/>
+      <c r="B39" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" ca="1" si="66"/>
+        <v>43273</v>
+      </c>
+      <c r="G39" s="11">
+        <v>3450</v>
+      </c>
+      <c r="H39" s="10">
+        <v>29</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" si="67"/>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+      <c r="K39" s="116">
+        <v>0.18</v>
+      </c>
+      <c r="L39" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>1.0630220952692441E-181</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="13">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" si="69"/>
+        <v>1.0630220952692441E-181</v>
+      </c>
+      <c r="P39" s="11">
+        <f>RTD("wdf.rtq",,D39,"LastPrice")</f>
+        <v>14880</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T39" s="14">
+        <f t="shared" si="71"/>
+        <v>7.1439656940137372E-186</v>
+      </c>
+      <c r="U39" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>-4.0624754213178721E-183</v>
+      </c>
+      <c r="V39" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>1.8466963411534914E-163</v>
+      </c>
+      <c r="W39" s="114"/>
+      <c r="X39" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y39" s="6">
+        <f>X39*U39</f>
+        <v>-1.6249901685271488E-180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="34"/>
       <c r="B40" s="13" t="s">
         <v>172</v>
@@ -13379,815 +16009,78 @@
         <v>160</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E40" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43244</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" ref="F40:F41" ca="1" si="48">E40+H40</f>
-        <v>43268</v>
+        <f t="shared" ca="1" si="66"/>
+        <v>43273</v>
       </c>
       <c r="G40" s="11">
-        <v>15800</v>
+        <v>3500</v>
       </c>
       <c r="H40" s="10">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I40" s="12">
-        <f>H40/365</f>
-        <v>8.7671232876712329E-2</v>
+        <f t="shared" si="67"/>
+        <v>7.9452054794520555E-2</v>
       </c>
       <c r="J40" s="12">
         <v>0</v>
       </c>
-      <c r="K40" s="117">
-        <v>7.4999999999999997E-2</v>
+      <c r="K40" s="116">
+        <v>0.18</v>
       </c>
       <c r="L40" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>80.25741457624008</v>
+        <v>4.7869790501171855E-173</v>
       </c>
       <c r="M40" s="15"/>
       <c r="N40" s="13">
-        <f t="shared" ref="N40:N41" si="49">M40/10000*I40*P40</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="O40" s="13">
-        <f>IF(L40&lt;=0,ABS(L40)+N40,L40-N40)</f>
-        <v>80.25741457624008</v>
+        <f t="shared" si="69"/>
+        <v>4.7869790501171855E-173</v>
       </c>
       <c r="P40" s="11">
-        <v>15660</v>
+        <v>14570</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R40" s="10">
-        <f t="shared" ref="R40:R41" si="50">IF(S40="中金买入",1,-1)</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="S40" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T40" s="14">
-        <f t="shared" ref="T40:T41" si="51">O40/P40</f>
-        <v>5.1249945450983448E-3</v>
+        <f t="shared" si="71"/>
+        <v>3.2855038092774092E-177</v>
       </c>
       <c r="U40" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>0.34777539817696379</v>
+        <v>-1.8232045573439186E-174</v>
       </c>
       <c r="V40" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>17.092202688625548</v>
-      </c>
-      <c r="W40" s="114">
-        <v>37.799999999999997</v>
-      </c>
+        <v>1.0839493699415516E-155</v>
+      </c>
+      <c r="W40" s="114"/>
       <c r="X40" s="115">
-        <f>G40-W40</f>
-        <v>15762.2</v>
+        <v>400</v>
       </c>
       <c r="Y40" s="6">
-        <f>500*U40</f>
-        <v>173.8876990884819</v>
-      </c>
-      <c r="Z40" s="6">
-        <f>638*U40</f>
-        <v>221.8807040369029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="34"/>
-      <c r="B41" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" ca="1" si="48"/>
-        <v>43268</v>
-      </c>
-      <c r="G41" s="11">
-        <v>15900</v>
-      </c>
-      <c r="H41" s="10">
-        <v>32</v>
-      </c>
-      <c r="I41" s="12">
-        <f>H41/365</f>
-        <v>8.7671232876712329E-2</v>
-      </c>
-      <c r="J41" s="12">
-        <v>0</v>
-      </c>
-      <c r="K41" s="117">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="L41" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
-        <v>46.897010797428266</v>
-      </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="13">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="13">
-        <f>IF(L41&lt;=0,ABS(L41)+N41,L41-N41)</f>
-        <v>46.897010797428266</v>
-      </c>
-      <c r="P41" s="11">
-        <v>15660</v>
-      </c>
-      <c r="Q41" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R41" s="10">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="S41" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T41" s="14">
-        <f t="shared" si="51"/>
-        <v>2.9947005617770284E-3</v>
-      </c>
-      <c r="U41" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
-        <v>0.24067686988473724</v>
-      </c>
-      <c r="V41" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
-        <v>14.365814386063903</v>
-      </c>
-      <c r="W41" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X41" s="115">
-        <f>G41-W41</f>
-        <v>15862.2</v>
-      </c>
-      <c r="Y41" s="6">
-        <f>500*U41</f>
-        <v>120.33843494236862</v>
-      </c>
-      <c r="Z41" s="6">
-        <f>638*U41</f>
-        <v>153.55184298646236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="34"/>
-      <c r="B42" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" ref="F42" ca="1" si="52">E42+H42</f>
-        <v>43268</v>
-      </c>
-      <c r="G42" s="11">
-        <v>15660</v>
-      </c>
-      <c r="H42" s="10">
-        <v>32</v>
-      </c>
-      <c r="I42" s="12">
-        <f>H42/365</f>
-        <v>8.7671232876712329E-2</v>
-      </c>
-      <c r="J42" s="12">
-        <v>0</v>
-      </c>
-      <c r="K42" s="117">
-        <v>0.08</v>
-      </c>
-      <c r="L42" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>147.7232016030157</v>
-      </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="13">
-        <f t="shared" ref="N42" si="53">M42/10000*I42*P42</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="13">
-        <f>IF(L42&lt;=0,ABS(L42)+N42,L42-N42)</f>
-        <v>147.7232016030157</v>
-      </c>
-      <c r="P42" s="11">
-        <v>15660</v>
-      </c>
-      <c r="Q42" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R42" s="10">
-        <f t="shared" ref="R42" si="54">IF(S42="中金买入",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="S42" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T42" s="14">
-        <f t="shared" ref="T42" si="55">O42/P42</f>
-        <v>9.433154636207898E-3</v>
-      </c>
-      <c r="U42" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>0.50384063320052519</v>
-      </c>
-      <c r="V42" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>18.464530067423766</v>
-      </c>
-      <c r="W42" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X42" s="115">
-        <f>G42-W42</f>
-        <v>15622.2</v>
-      </c>
-      <c r="Y42" s="6">
-        <f>500*U42</f>
-        <v>251.92031660026259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-    </row>
-    <row r="44" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="34"/>
-      <c r="B44" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" ref="F44" ca="1" si="56">E44+H44</f>
-        <v>43266</v>
-      </c>
-      <c r="G44" s="11">
-        <v>480</v>
-      </c>
-      <c r="H44" s="10">
-        <v>30</v>
-      </c>
-      <c r="I44" s="12">
-        <f>H44/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="J44" s="12">
-        <v>0</v>
-      </c>
-      <c r="K44" s="117">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="L44" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-17.91152955692263</v>
-      </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="13">
-        <f t="shared" ref="N44" si="57">M44/10000*I44*P44</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="13">
-        <f>IF(L44&lt;=0,ABS(L44)+N44,L44-N44)</f>
-        <v>17.91152955692263</v>
-      </c>
-      <c r="P44" s="149">
-        <f>RTD("wdf.rtq",,D44,"LastPrice")</f>
-        <v>483</v>
-      </c>
-      <c r="Q44" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R44" s="10">
-        <f t="shared" ref="R44" si="58">IF(S44="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S44" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T44" s="14">
-        <f t="shared" ref="T44" si="59">O44/P44</f>
-        <v>3.7083912126133808E-2</v>
-      </c>
-      <c r="U44" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>0.45459160735674686</v>
-      </c>
-      <c r="V44" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-0.54805470172583171</v>
-      </c>
-      <c r="W44" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X44" s="115">
-        <f>G44-W44</f>
-        <v>442.2</v>
-      </c>
-      <c r="Y44" s="6">
-        <f>500*U44</f>
-        <v>227.29580367837343</v>
-      </c>
-      <c r="Z44" s="6">
-        <f>1000000/P44/10</f>
-        <v>207.03933747412006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="34"/>
-      <c r="B45" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" ref="F45:F47" ca="1" si="60">E45+H45</f>
-        <v>43294</v>
-      </c>
-      <c r="G45" s="11">
-        <v>480</v>
-      </c>
-      <c r="H45" s="10">
-        <v>58</v>
-      </c>
-      <c r="I45" s="12">
-        <f>H45/365</f>
-        <v>0.15890410958904111</v>
-      </c>
-      <c r="J45" s="12">
-        <v>0</v>
-      </c>
-      <c r="K45" s="117">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="L45" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-25.415248406449365</v>
-      </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="13">
-        <f t="shared" ref="N45:N47" si="61">M45/10000*I45*P45</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="13">
-        <f>IF(L45&lt;=0,ABS(L45)+N45,L45-N45)</f>
-        <v>25.415248406449365</v>
-      </c>
-      <c r="P45" s="149">
-        <f>RTD("wdf.rtq",,D45,"LastPrice")</f>
-        <v>483</v>
-      </c>
-      <c r="Q45" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R45" s="10">
-        <f t="shared" ref="R45:R47" si="62">IF(S45="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T45" s="14">
-        <f t="shared" ref="T45:T47" si="63">O45/P45</f>
-        <v>5.2619561918114628E-2</v>
-      </c>
-      <c r="U45" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>0.45293989307992888</v>
-      </c>
-      <c r="V45" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-0.76066274995633876</v>
-      </c>
-      <c r="W45" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X45" s="115">
-        <f>G45-W45</f>
-        <v>442.2</v>
-      </c>
-      <c r="Y45" s="6">
-        <f>500*U45</f>
-        <v>226.46994653996444</v>
-      </c>
-      <c r="Z45" s="6">
-        <f>1000000/P45/10</f>
-        <v>207.03933747412006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="34"/>
-      <c r="B46" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" ca="1" si="60"/>
-        <v>43322</v>
-      </c>
-      <c r="G46" s="11">
-        <v>480</v>
-      </c>
-      <c r="H46" s="10">
-        <v>86</v>
-      </c>
-      <c r="I46" s="12">
-        <f>H46/365</f>
-        <v>0.23561643835616439</v>
-      </c>
-      <c r="J46" s="12">
-        <v>0</v>
-      </c>
-      <c r="K46" s="117">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="L46" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-31.201898791525934</v>
-      </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="13">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="13">
-        <f>IF(L46&lt;=0,ABS(L46)+N46,L46-N46)</f>
-        <v>31.201898791525934</v>
-      </c>
-      <c r="P46" s="149">
-        <f>RTD("wdf.rtq",,D46,"LastPrice")</f>
-        <v>483</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R46" s="10">
-        <f t="shared" si="62"/>
-        <v>-1</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T46" s="14">
-        <f t="shared" si="63"/>
-        <v>6.4600204537320779E-2</v>
-      </c>
-      <c r="U46" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>0.44934052966709714</v>
-      </c>
-      <c r="V46" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-0.92402256344915656</v>
-      </c>
-      <c r="W46" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X46" s="115">
-        <f>G46-W46</f>
-        <v>442.2</v>
-      </c>
-      <c r="Y46" s="6">
-        <f>500*U46</f>
-        <v>224.67026483354857</v>
-      </c>
-      <c r="Z46" s="6">
-        <f>1000000/P46/10</f>
-        <v>207.03933747412006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="34"/>
-      <c r="B47" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" ca="1" si="60"/>
-        <v>43266</v>
-      </c>
-      <c r="G47" s="11">
-        <v>480</v>
-      </c>
-      <c r="H47" s="10">
-        <v>30</v>
-      </c>
-      <c r="I47" s="12">
-        <f>H47/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="J47" s="12">
-        <v>0</v>
-      </c>
-      <c r="K47" s="117">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="L47" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-20.906602101146518</v>
-      </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="13">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="13">
-        <f>IF(L47&lt;=0,ABS(L47)+N47,L47-N47)</f>
-        <v>20.906602101146518</v>
-      </c>
-      <c r="P47" s="149">
-        <f>RTD("wdf.rtq",,D47,"LastPrice")</f>
-        <v>483</v>
-      </c>
-      <c r="Q47" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R47" s="10">
-        <f t="shared" si="62"/>
-        <v>-1</v>
-      </c>
-      <c r="S47" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T47" s="14">
-        <f t="shared" si="63"/>
-        <v>4.3284890478564222E-2</v>
-      </c>
-      <c r="U47" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-0.5437659073848522</v>
-      </c>
-      <c r="V47" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-0.54805470172587434</v>
-      </c>
-      <c r="W47" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X47" s="115">
-        <f>G47-W47</f>
-        <v>442.2</v>
-      </c>
-      <c r="Y47" s="6">
-        <f>500*U47</f>
-        <v>-271.8829536924261</v>
-      </c>
-      <c r="Z47" s="6">
-        <f>1000000/P47/10</f>
-        <v>207.03933747412006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="34"/>
-      <c r="B48" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" ref="F48:F49" ca="1" si="64">E48+H48</f>
-        <v>43294</v>
-      </c>
-      <c r="G48" s="11">
-        <v>480</v>
-      </c>
-      <c r="H48" s="10">
-        <v>58</v>
-      </c>
-      <c r="I48" s="12">
-        <f>H48/365</f>
-        <v>0.15890410958904111</v>
-      </c>
-      <c r="J48" s="12">
-        <v>0</v>
-      </c>
-      <c r="K48" s="117">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="L48" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q48,$P48,$G48,$I48,$C$3,$J48,$K48,$C$4)*R48</f>
-        <v>-28.405729294146767</v>
-      </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="13">
-        <f t="shared" ref="N48:N49" si="65">M48/10000*I48*P48</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="13">
-        <f>IF(L48&lt;=0,ABS(L48)+N48,L48-N48)</f>
-        <v>28.405729294146767</v>
-      </c>
-      <c r="P48" s="149">
-        <f>RTD("wdf.rtq",,D48,"LastPrice")</f>
-        <v>483</v>
-      </c>
-      <c r="Q48" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R48" s="10">
-        <f t="shared" ref="R48:R49" si="66">IF(S48="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T48" s="14">
-        <f t="shared" ref="T48:T49" si="67">O48/P48</f>
-        <v>5.8811033735293512E-2</v>
-      </c>
-      <c r="U48" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q48,$P48,$G48,$I48,$C$3,$J48,$K48,$C$4)*R48</f>
-        <v>-0.54388706948742538</v>
-      </c>
-      <c r="V48" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q48,$P48,$G48,$I48,$C$3,$J48,$K48,$C$4)*R48</f>
-        <v>-0.76066274995636718</v>
-      </c>
-      <c r="W48" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X48" s="115">
-        <f>G48-W48</f>
-        <v>442.2</v>
-      </c>
-      <c r="Y48" s="6">
-        <f>500*U48</f>
-        <v>-271.94353474371269</v>
-      </c>
-      <c r="Z48" s="6">
-        <f>1000000/P48/10</f>
-        <v>207.03933747412006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="34"/>
-      <c r="B49" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43236</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" ca="1" si="64"/>
-        <v>43322</v>
-      </c>
-      <c r="G49" s="11">
-        <v>480</v>
-      </c>
-      <c r="H49" s="10">
-        <v>86</v>
-      </c>
-      <c r="I49" s="12">
-        <f>H49/365</f>
-        <v>0.23561643835616439</v>
-      </c>
-      <c r="J49" s="12">
-        <v>0</v>
-      </c>
-      <c r="K49" s="117">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="L49" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>-34.18779506202867</v>
-      </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="13">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="13">
-        <f>IF(L49&lt;=0,ABS(L49)+N49,L49-N49)</f>
-        <v>34.18779506202867</v>
-      </c>
-      <c r="P49" s="149">
-        <f>RTD("wdf.rtq",,D49,"LastPrice")</f>
-        <v>483</v>
-      </c>
-      <c r="Q49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R49" s="10">
-        <f t="shared" si="66"/>
-        <v>-1</v>
-      </c>
-      <c r="S49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T49" s="14">
-        <f t="shared" si="67"/>
-        <v>7.0782184393434103E-2</v>
-      </c>
-      <c r="U49" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>-0.54595822716549947</v>
-      </c>
-      <c r="V49" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>-0.92402256344917078</v>
-      </c>
-      <c r="W49" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X49" s="115">
-        <f>G49-W49</f>
-        <v>442.2</v>
-      </c>
-      <c r="Y49" s="6">
-        <f>500*U49</f>
-        <v>-272.97911358274973</v>
-      </c>
-      <c r="Z49" s="6">
-        <f>1000000/P49/10</f>
-        <v>207.03933747412006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
+        <f>X40*U40</f>
+        <v>-7.2928182293756742E-172</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14198,24 +16091,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S11 S13:S38 S40:S42 S44:S49</xm:sqref>
+          <xm:sqref>S8:S9 S12:S14 S17:S21 S23:S28 S30:S34 S36:S40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q11 Q13:Q38 Q40:Q42 Q44:Q49</xm:sqref>
+          <xm:sqref>Q8:Q9 Q12:Q14 Q17:Q21 Q23:Q28 Q30:Q34 Q36:Q40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C11 C13:C38 C40:C42 C44:C49</xm:sqref>
+          <xm:sqref>C8:C9 C12:C14 C17:C21 C23:C28 C30:C34 C36:C40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14228,7 +16121,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -14403,11 +16298,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43266</v>
+        <v>43274</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -14471,11 +16366,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43266</v>
+        <v>43274</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -14542,11 +16437,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43266</v>
+        <v>43274</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -14610,15 +16505,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43251</v>
+        <v>43259</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>463</v>
+        <v>439.5</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -14635,17 +16530,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-4.1370355219784756</v>
+        <v>-3.6953310893291729</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>4.1370355219784756</v>
+        <v>3.6953310893291729</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>483</v>
+        <v>459.5</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -14660,11 +16555,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.23379653503710074</v>
+        <v>0.22280524386673051</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.29986074674286556</v>
+        <v>-0.27765156822788839</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -14680,15 +16575,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43251</v>
+        <v>43259</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>513</v>
+        <v>489.5</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -14707,17 +16602,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.3216683234488471</v>
+        <v>2.0043266499227457</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.3216683234488471</v>
+        <v>2.0043266499227457</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>483</v>
+        <v>459.5</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -14732,11 +16627,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.15958844651748905</v>
+        <v>0.14756502293877816</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.23767183636049083</v>
+        <v>0.21467643550595383</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14753,15 +16648,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43251</v>
+        <v>43259</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>463|513</v>
+        <v>439.5|489.5</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -14775,7 +16670,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.8153671985296285</v>
+        <v>-1.6910044394064272</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -14786,11 +16681,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.8153671985296285</v>
+        <v>1.6910044394064272</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>483</v>
+        <v>459.5</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -14799,15 +16694,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.7585242205582371E-3</v>
+        <v>3.6800967125275889E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.39338498155458979</v>
+        <v>0.37037026680550866</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2188910382374729E-2</v>
+        <v>-6.2975132721934557E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -14823,11 +16718,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -14848,17 +16743,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-324.10208685547741</v>
+        <v>-264.99503799563013</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>324.10208685547741</v>
+        <v>264.99503799563013</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3676</v>
+        <v>3583</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -14873,11 +16768,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.66694546073904348</v>
+        <v>-0.60325754676568977</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.6113815612193321</v>
+        <v>-6.8481106493269408</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -14894,11 +16789,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -14920,17 +16815,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>56.437363925289446</v>
+        <v>76.235044072163987</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>56.437363925289446</v>
+        <v>76.235044072163987</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3676</v>
+        <v>3583</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -14945,11 +16840,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.18709528804947695</v>
+        <v>-0.24017272089054131</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.9227365407869002</v>
+        <v>5.54997133642172</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14966,11 +16861,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -14988,7 +16883,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-267.66472293018796</v>
+        <v>-188.75999392346614</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -14999,11 +16894,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>267.66472293018796</v>
+        <v>188.75999392346614</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3676</v>
+        <v>3583</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -15012,15 +16907,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>7.2814124844991279E-2</v>
+        <v>5.2682108267782905E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.85404074878852043</v>
+        <v>-0.84343026765623108</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.6886450204324319</v>
+        <v>-1.2981393129052208</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -15033,17 +16928,17 @@
         <v>160</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43267</v>
-      </c>
-      <c r="G18" s="120">
+        <v>43275</v>
+      </c>
+      <c r="G18" s="118">
         <v>3000</v>
       </c>
       <c r="H18" s="44">
@@ -15061,17 +16956,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>72.841299852743532</v>
+        <v>36.865888585146422</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>72.841299852743532</v>
+        <v>36.865888585146422</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -15086,11 +16981,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.58087919164790947</v>
+        <v>-0.36797165250845865</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.3717179704422051</v>
+        <v>3.3390155930551373</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15107,13 +17002,13 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43267</v>
-      </c>
-      <c r="G19" s="121">
+        <v>43275</v>
+      </c>
+      <c r="G19" s="119">
         <v>3280</v>
       </c>
       <c r="H19" s="52">
@@ -15133,17 +17028,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-1.7803247079495179</v>
+        <v>-5.7594555040135731</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>1.7803247079495179</v>
+        <v>5.7594555040135731</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -15158,11 +17053,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-3.0055904444736825E-2</v>
+        <v>-8.1034409575408972E-2</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.58997327601485239</v>
+        <v>-1.3297967727293809</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15179,11 +17074,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43267</v>
+        <v>43275</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -15201,7 +17096,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>71.060975144794014</v>
+        <v>31.106433081132849</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -15212,26 +17107,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>71.060975144794014</v>
+        <v>31.106433081132849</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>2.3942377070348388E-2</v>
+        <v>1.0218933338085693E-2</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.61093509609264629</v>
+        <v>-0.44900606208386762</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>2.7817446944273527</v>
+        <v>2.0092188203257564</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -15243,17 +17138,17 @@
         <v>160</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43328</v>
-      </c>
-      <c r="G21" s="120">
+        <v>43336</v>
+      </c>
+      <c r="G21" s="118">
         <v>3000</v>
       </c>
       <c r="H21" s="44">
@@ -15271,17 +17166,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>111.8851298515433</v>
+        <v>76.018850235218224</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>111.8851298515433</v>
+        <v>76.018850235218224</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -15296,11 +17191,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.53448129547177814</v>
+        <v>-0.41030808733921731</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.8887725963980984</v>
+        <v>5.9188650250603132</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15317,13 +17212,13 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43328</v>
-      </c>
-      <c r="G22" s="121">
+        <v>43336</v>
+      </c>
+      <c r="G22" s="119">
         <v>3280</v>
       </c>
       <c r="H22" s="52">
@@ -15343,17 +17238,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-19.007865903608945</v>
+        <v>-32.578408131203901</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>19.007865903608945</v>
+        <v>32.578408131203901</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -15368,11 +17263,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.1436436745109404</v>
+        <v>-0.21627755661484116</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-3.3654862375489643</v>
+        <v>-4.4675671702050863</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15389,11 +17284,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43328</v>
+        <v>43336</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -15411,7 +17306,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>92.877263947934352</v>
+        <v>43.440442104014323</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -15422,26 +17317,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>92.877263947934352</v>
+        <v>43.440442104014323</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>3.1292878688657128E-2</v>
+        <v>1.4270841689886441E-2</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.67812496998271854</v>
+        <v>-0.62658564395405847</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>2.5232863588491341</v>
+        <v>1.4512978548552269</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -15454,17 +17349,17 @@
         <v>160</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43267</v>
-      </c>
-      <c r="G26" s="120">
+        <v>43275</v>
+      </c>
+      <c r="G26" s="118">
         <v>2950</v>
       </c>
       <c r="H26" s="44">
@@ -15482,17 +17377,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>46.427632963922406</v>
+        <v>20.865115200904825</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>46.427632963922406</v>
+        <v>20.865115200904825</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -15507,11 +17402,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.4381492630500361</v>
+        <v>-0.24279669835323148</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>3.4042494278372715</v>
+        <v>2.7709580236397073</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15528,13 +17423,13 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43267</v>
-      </c>
-      <c r="G27" s="121">
+        <v>43275</v>
+      </c>
+      <c r="G27" s="119">
         <v>3350</v>
       </c>
       <c r="H27" s="52">
@@ -15554,17 +17449,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.59044039065349097</v>
+        <v>-2.2348132162403687</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>0.59044039065349097</v>
+        <v>2.2348132162403687</v>
       </c>
       <c r="P27" s="94">
         <f>P26</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -15579,11 +17474,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-1.1232160533936053E-2</v>
+        <v>-3.5886378623928294E-2</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.2566534332896655</v>
+        <v>-0.69986489494451831</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15600,11 +17495,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43267</v>
+        <v>43275</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -15622,7 +17517,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>45.837192573268915</v>
+        <v>18.630301984664456</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -15633,26 +17528,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>45.837192573268915</v>
+        <v>18.630301984664456</v>
       </c>
       <c r="P28" s="111">
         <f>P27</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>1.5443798036815672E-2</v>
+        <v>6.1203357374061945E-3</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.44938142358397215</v>
+        <v>-0.27868307697715977</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>3.147595994547606</v>
+        <v>2.071093128695189</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -15664,17 +17559,17 @@
         <v>160</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43328</v>
-      </c>
-      <c r="G29" s="120">
+        <v>43336</v>
+      </c>
+      <c r="G29" s="118">
         <v>2950</v>
       </c>
       <c r="H29" s="44">
@@ -15692,17 +17587,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>85.638187399283424</v>
+        <v>55.958236900354336</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>85.638187399283424</v>
+        <v>55.958236900354336</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -15717,11 +17612,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.45158647047855993</v>
+        <v>-0.33168391313438406</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>5.8750321612307062</v>
+        <v>5.5273432564957261</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15738,13 +17633,13 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43328</v>
-      </c>
-      <c r="G30" s="121">
+        <v>43336</v>
+      </c>
+      <c r="G30" s="119">
         <v>3350</v>
       </c>
       <c r="H30" s="52">
@@ -15764,17 +17659,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-11.846470389664887</v>
+        <v>-21.298958049117687</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>11.846470389664887</v>
+        <v>21.298958049117687</v>
       </c>
       <c r="P30" s="94">
         <f>P29</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -15789,11 +17684,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-9.7243616997388926E-2</v>
+        <v>-0.15432579757259646</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-2.555823560899924</v>
+        <v>-3.6209907417562022</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15810,11 +17705,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43328</v>
+        <v>43336</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -15832,7 +17727,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>73.791717009618537</v>
+        <v>34.65927885123665</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -15843,26 +17738,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>73.791717009618537</v>
+        <v>34.65927885123665</v>
       </c>
       <c r="P31" s="111">
         <f>P30</f>
-        <v>2968</v>
+        <v>3044</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>2.4862438345558808E-2</v>
+        <v>1.1386096863086942E-2</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.54883008747594886</v>
+        <v>-0.48600971070698051</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>3.3192086003307821</v>
+        <v>1.9063525147395239</v>
       </c>
     </row>
   </sheetData>
@@ -16218,11 +18113,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -16300,11 +18195,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -16382,11 +18277,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -16464,11 +18359,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43419</v>
+        <v>43427</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -16546,11 +18441,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43419</v>
+        <v>43427</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -16628,11 +18523,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43419</v>
+        <v>43427</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -17486,11 +19381,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43266</v>
+        <v>43274</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -17572,11 +19467,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43416</v>
+        <v>43424</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -17684,11 +19579,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -17771,11 +19666,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -17858,11 +19753,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -17945,11 +19840,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43419</v>
+        <v>43427</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -18032,11 +19927,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43419</v>
+        <v>43427</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -18119,11 +20014,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43419</v>
+        <v>43427</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>

--- a/PricerAndQutation/OptionPricer_v2_20180516.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180516.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="277">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -941,10 +941,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成交回报4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>jm1809</t>
   </si>
   <si>
@@ -967,6 +963,61 @@
   </si>
   <si>
     <t>oi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb1810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰长城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看涨期权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交回报-跨式leg1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交回报-跨式leg2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu1808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1901</t>
+  </si>
+  <si>
+    <t>c1901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000万</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N.P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer(%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1344,7 +1395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1514,6 +1565,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1529,7 +1595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1758,6 +1824,12 @@
     <xf numFmtId="14" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1767,22 +1839,22 @@
     <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1790,12 +1862,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1806,6 +1872,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1833,16 +1901,24 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>14880</v>
+        <v>51790</v>
+        <stp/>
+        <stp>cu1808</stp>
+        <stp>LastPrice</stp>
+        <tr r="P58" s="1"/>
+      </tp>
+      <tp>
+        <v>14870</v>
         <stp/>
         <stp>al1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P20" s="1"/>
         <tr r="P19" s="1"/>
-        <tr r="P20" s="1"/>
-        <tr r="P32" s="1"/>
+        <tr r="P39" s="1"/>
         <tr r="P38" s="1"/>
         <tr r="P33" s="1"/>
-        <tr r="P39" s="1"/>
+        <tr r="P32" s="1"/>
+        <tr r="P40" s="1"/>
       </tp>
       <tp>
         <v>14800</v>
@@ -1850,15 +1926,15 @@
         <stp>al1808</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
+        <tr r="P17" s="1"/>
         <tr r="P18" s="1"/>
-        <tr r="P17" s="1"/>
-        <tr r="P30" s="1"/>
-        <tr r="P36" s="1"/>
         <tr r="P31" s="1"/>
         <tr r="P37" s="1"/>
+        <tr r="P36" s="1"/>
+        <tr r="P30" s="1"/>
       </tp>
       <tp>
-        <v>459.5</v>
+        <v>466.5</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
@@ -1866,19 +1942,20 @@
         <tr r="P12" s="1"/>
         <tr r="P13" s="1"/>
         <tr r="P14" s="1"/>
+        <tr r="P47" s="1"/>
       </tp>
       <tp>
-        <v>3044</v>
+        <v>3069</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P21" s="9"/>
         <tr r="P18" s="9"/>
-        <tr r="P21" s="9"/>
         <tr r="P29" s="9"/>
         <tr r="P26" s="9"/>
       </tp>
       <tp>
-        <v>3583</v>
+        <v>3649</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
@@ -1889,8 +1966,8 @@
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
+        <tr r="H8" s="8"/>
         <tr r="H8" s="7"/>
-        <tr r="H8" s="8"/>
       </tp>
     </main>
   </volType>
@@ -2185,10 +2262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:V169"/>
+  <dimension ref="B1:V176"/>
   <sheetViews>
     <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171:V183"/>
+      <selection activeCell="P183" sqref="P183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9190,7 +9267,7 @@
         <v>160</v>
       </c>
       <c r="C151" s="92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D151" s="93">
         <v>43242</v>
@@ -9704,7 +9781,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D161" s="93">
         <v>43243</v>
@@ -9757,7 +9834,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D162" s="93">
         <v>43243</v>
@@ -10065,7 +10142,7 @@
         <v>160</v>
       </c>
       <c r="C168" s="92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D168" s="93">
         <v>43244</v>
@@ -10159,6 +10236,363 @@
         <v>-1</v>
       </c>
       <c r="R169" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B170" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E170" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G170" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I170" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J170" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K170" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L170" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M170" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N170" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O170" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P170" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q170" s="33"/>
+      <c r="R170" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B171" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="D171" s="93">
+        <v>43248</v>
+      </c>
+      <c r="E171" s="93">
+        <v>43279</v>
+      </c>
+      <c r="F171" s="92">
+        <v>52000</v>
+      </c>
+      <c r="G171" s="92">
+        <v>31</v>
+      </c>
+      <c r="H171" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I171" s="92">
+        <v>0</v>
+      </c>
+      <c r="J171" s="92">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="K171" s="92">
+        <v>-779.63573658485257</v>
+      </c>
+      <c r="L171" s="92"/>
+      <c r="M171" s="92">
+        <v>0</v>
+      </c>
+      <c r="N171" s="99">
+        <v>779.63573658485257</v>
+      </c>
+      <c r="O171" s="92">
+        <v>51370</v>
+      </c>
+      <c r="P171" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q171" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R171" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B172" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E172" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G172" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J172" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K172" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L172" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M172" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N172" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O172" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P172" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q172" s="33"/>
+      <c r="R172" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B173" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C173" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D173" s="93">
+        <v>43249</v>
+      </c>
+      <c r="E173" s="93">
+        <v>43280</v>
+      </c>
+      <c r="F173" s="92">
+        <v>495</v>
+      </c>
+      <c r="G173" s="92">
+        <v>31</v>
+      </c>
+      <c r="H173" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I173" s="92">
+        <v>0</v>
+      </c>
+      <c r="J173" s="92">
+        <v>0.26</v>
+      </c>
+      <c r="K173" s="92">
+        <v>3.1948957210646256</v>
+      </c>
+      <c r="L173" s="92"/>
+      <c r="M173" s="92">
+        <v>0</v>
+      </c>
+      <c r="N173" s="99">
+        <v>3.1948957210646256</v>
+      </c>
+      <c r="O173" s="92">
+        <v>460</v>
+      </c>
+      <c r="P173" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q173" s="92">
+        <v>1</v>
+      </c>
+      <c r="R173" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B174" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C174" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D174" s="93">
+        <v>43249</v>
+      </c>
+      <c r="E174" s="93">
+        <v>43280</v>
+      </c>
+      <c r="F174" s="92">
+        <v>500</v>
+      </c>
+      <c r="G174" s="92">
+        <v>31</v>
+      </c>
+      <c r="H174" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I174" s="92">
+        <v>0</v>
+      </c>
+      <c r="J174" s="92">
+        <v>0.26</v>
+      </c>
+      <c r="K174" s="92">
+        <v>2.4860394008728051</v>
+      </c>
+      <c r="L174" s="92"/>
+      <c r="M174" s="92">
+        <v>0</v>
+      </c>
+      <c r="N174" s="99">
+        <v>2.4860394008728051</v>
+      </c>
+      <c r="O174" s="92">
+        <v>460</v>
+      </c>
+      <c r="P174" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q174" s="92">
+        <v>1</v>
+      </c>
+      <c r="R174" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B175" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E175" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G175" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I175" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J175" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K175" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L175" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M175" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N175" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O175" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P175" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q175" s="33"/>
+      <c r="R175" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B176" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="D176" s="93">
+        <v>43249</v>
+      </c>
+      <c r="E176" s="93">
+        <v>43371</v>
+      </c>
+      <c r="F176" s="92">
+        <v>100</v>
+      </c>
+      <c r="G176" s="92">
+        <v>122</v>
+      </c>
+      <c r="H176" s="92">
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="I176" s="92">
+        <v>0</v>
+      </c>
+      <c r="J176" s="92">
+        <v>0.1125</v>
+      </c>
+      <c r="K176" s="92">
+        <v>-2.5770111518076675</v>
+      </c>
+      <c r="L176" s="92"/>
+      <c r="M176" s="92">
+        <v>0</v>
+      </c>
+      <c r="N176" s="99">
+        <v>2.5770111518076675</v>
+      </c>
+      <c r="O176" s="92">
+        <v>100</v>
+      </c>
+      <c r="P176" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q176" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R176" s="92" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10366,11 +10800,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43274</v>
+        <v>43279</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -10439,11 +10873,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43274</v>
+        <v>43279</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -10509,11 +10943,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43274</v>
+        <v>43279</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -11229,11 +11663,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:Y76"/>
+  <dimension ref="B1:Y90"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I75" sqref="G63:J75"/>
+      <pane ySplit="17" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -11248,71 +11682,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="G3" s="143" t="s">
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="G3" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="L3" s="139" t="s">
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="Q3" s="143" t="s">
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="Q3" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="G4" s="140" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="G4" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="L4" s="140" t="s">
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="L4" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="Q4" s="140" t="s">
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="Q4" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="137" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="137"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="144"/>
       <c r="G5" s="137" t="s">
         <v>123</v>
       </c>
@@ -11337,252 +11771,252 @@
         <v>124</v>
       </c>
       <c r="C6" s="137"/>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="136"/>
+      <c r="E6" s="139"/>
       <c r="G6" s="137" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="137"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
       <c r="L6" s="137" t="s">
         <v>124</v>
       </c>
       <c r="M6" s="137"/>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="136"/>
+      <c r="O6" s="139"/>
       <c r="Q6" s="137" t="s">
         <v>126</v>
       </c>
       <c r="R6" s="137"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="136"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="139"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="137" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="137"/>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="136"/>
+      <c r="E7" s="139"/>
       <c r="G7" s="137" t="s">
         <v>128</v>
       </c>
       <c r="H7" s="137"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
       <c r="L7" s="137" t="s">
         <v>127</v>
       </c>
       <c r="M7" s="137"/>
-      <c r="N7" s="135" t="s">
+      <c r="N7" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="136"/>
+      <c r="O7" s="139"/>
       <c r="Q7" s="137" t="s">
         <v>128</v>
       </c>
       <c r="R7" s="137"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="136"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="139"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="137" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="137"/>
-      <c r="D8" s="135">
+      <c r="D8" s="138">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="136"/>
+      <c r="E8" s="139"/>
       <c r="G8" s="137" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="137"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
       <c r="L8" s="137" t="s">
         <v>129</v>
       </c>
       <c r="M8" s="137"/>
-      <c r="N8" s="135">
+      <c r="N8" s="138">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="136"/>
+      <c r="O8" s="139"/>
       <c r="Q8" s="137" t="s">
         <v>130</v>
       </c>
       <c r="R8" s="137"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="136"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="139"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="137" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="137"/>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="136"/>
+      <c r="E9" s="139"/>
       <c r="G9" s="137" t="s">
         <v>133</v>
       </c>
       <c r="H9" s="137"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="139"/>
       <c r="L9" s="137" t="s">
         <v>131</v>
       </c>
       <c r="M9" s="137"/>
-      <c r="N9" s="135" t="s">
+      <c r="N9" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="136"/>
+      <c r="O9" s="139"/>
       <c r="Q9" s="137" t="s">
         <v>133</v>
       </c>
       <c r="R9" s="137"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="136"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="139"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="137" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="137"/>
-      <c r="D10" s="135">
+      <c r="D10" s="138">
         <v>43084</v>
       </c>
-      <c r="E10" s="136"/>
+      <c r="E10" s="139"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="136"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
       <c r="L10" s="137" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="137"/>
-      <c r="N10" s="135">
+      <c r="N10" s="138">
         <v>43084</v>
       </c>
-      <c r="O10" s="136"/>
+      <c r="O10" s="139"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="136"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="139"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="137" t="s">
         <v>136</v>
       </c>
       <c r="C11" s="137"/>
-      <c r="D11" s="135">
+      <c r="D11" s="138">
         <v>3935</v>
       </c>
-      <c r="E11" s="136"/>
+      <c r="E11" s="139"/>
       <c r="G11" s="137" t="s">
         <v>137</v>
       </c>
       <c r="H11" s="137"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="136"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
       <c r="L11" s="137" t="s">
         <v>136</v>
       </c>
       <c r="M11" s="137"/>
-      <c r="N11" s="135">
+      <c r="N11" s="138">
         <v>3935</v>
       </c>
-      <c r="O11" s="136"/>
+      <c r="O11" s="139"/>
       <c r="Q11" s="137" t="s">
         <v>137</v>
       </c>
       <c r="R11" s="137"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="136"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="139"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="137" t="s">
         <v>138</v>
       </c>
       <c r="C12" s="137"/>
-      <c r="D12" s="135">
+      <c r="D12" s="138">
         <v>3800</v>
       </c>
-      <c r="E12" s="136"/>
+      <c r="E12" s="139"/>
       <c r="G12" s="137" t="s">
         <v>139</v>
       </c>
       <c r="H12" s="137"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
       <c r="L12" s="137" t="s">
         <v>163</v>
       </c>
       <c r="M12" s="137"/>
-      <c r="N12" s="135">
+      <c r="N12" s="138">
         <v>3800</v>
       </c>
-      <c r="O12" s="136"/>
+      <c r="O12" s="139"/>
       <c r="Q12" s="137" t="s">
         <v>167</v>
       </c>
       <c r="R12" s="137"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="136"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="139"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="137" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="137"/>
-      <c r="D13" s="135">
+      <c r="D13" s="138">
         <v>61</v>
       </c>
-      <c r="E13" s="136"/>
+      <c r="E13" s="139"/>
       <c r="G13" s="137" t="s">
         <v>141</v>
       </c>
       <c r="H13" s="137"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="139"/>
       <c r="L13" s="137" t="s">
         <v>164</v>
       </c>
       <c r="M13" s="137"/>
-      <c r="N13" s="135">
+      <c r="N13" s="138">
         <v>3800</v>
       </c>
-      <c r="O13" s="136"/>
+      <c r="O13" s="139"/>
       <c r="Q13" s="137" t="s">
         <v>168</v>
       </c>
       <c r="R13" s="137"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="136"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="139"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="137" t="s">
         <v>142</v>
       </c>
       <c r="C14" s="137"/>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="136"/>
+      <c r="E14" s="139"/>
       <c r="G14" s="137" t="s">
         <v>144</v>
       </c>
@@ -11593,40 +12027,40 @@
         <v>140</v>
       </c>
       <c r="M14" s="137"/>
-      <c r="N14" s="135">
+      <c r="N14" s="138">
         <v>61</v>
       </c>
-      <c r="O14" s="136"/>
+      <c r="O14" s="139"/>
       <c r="Q14" s="137" t="s">
         <v>141</v>
       </c>
       <c r="R14" s="137"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="136"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="139"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="137" t="s">
         <v>145</v>
       </c>
       <c r="C15" s="137"/>
-      <c r="D15" s="135">
+      <c r="D15" s="138">
         <v>5000</v>
       </c>
-      <c r="E15" s="136"/>
+      <c r="E15" s="139"/>
       <c r="G15" s="137" t="s">
         <v>146</v>
       </c>
       <c r="H15" s="137"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="136"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
       <c r="L15" s="137" t="s">
         <v>142</v>
       </c>
       <c r="M15" s="137"/>
-      <c r="N15" s="135" t="s">
+      <c r="N15" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="136"/>
+      <c r="O15" s="139"/>
       <c r="Q15" s="137" t="s">
         <v>144</v>
       </c>
@@ -11635,50 +12069,50 @@
       <c r="T15" s="107"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="133" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="G16" s="132" t="s">
+      <c r="E16" s="136"/>
+      <c r="G16" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="132"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
       <c r="L16" s="137" t="s">
         <v>145</v>
       </c>
       <c r="M16" s="137"/>
-      <c r="N16" s="135">
+      <c r="N16" s="138">
         <v>5000</v>
       </c>
-      <c r="O16" s="136"/>
+      <c r="O16" s="139"/>
       <c r="Q16" s="137" t="s">
         <v>146</v>
       </c>
       <c r="R16" s="137"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="136"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="139"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="132" t="s">
+      <c r="L17" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="132"/>
-      <c r="N17" s="133" t="s">
+      <c r="M17" s="134"/>
+      <c r="N17" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="134"/>
-      <c r="Q17" s="132" t="s">
+      <c r="O17" s="136"/>
+      <c r="Q17" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="132"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="136"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="108" t="s">
@@ -11720,24 +12154,24 @@
       <c r="H22" s="130"/>
       <c r="I22" s="130"/>
       <c r="J22" s="130"/>
-      <c r="L22" s="140" t="s">
+      <c r="L22" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="140"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
       <c r="Q22" s="130" t="s">
         <v>188</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="130"/>
       <c r="T22" s="130"/>
-      <c r="V22" s="140" t="s">
+      <c r="V22" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="140"/>
-      <c r="X22" s="140"/>
-      <c r="Y22" s="140"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="133"/>
+      <c r="Y22" s="133"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B23" s="123" t="s">
@@ -11754,7 +12188,7 @@
       <c r="H23" s="123"/>
       <c r="I23" s="129">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="J23" s="131"/>
       <c r="L23" s="123" t="s">
@@ -11763,7 +12197,7 @@
       <c r="M23" s="123"/>
       <c r="N23" s="129">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="O23" s="131"/>
       <c r="Q23" s="123" t="s">
@@ -11772,7 +12206,7 @@
       <c r="R23" s="123"/>
       <c r="S23" s="129">
         <f ca="1">TODAY()-1</f>
-        <v>43243</v>
+        <v>43248</v>
       </c>
       <c r="T23" s="131"/>
       <c r="V23" s="123" t="s">
@@ -11781,7 +12215,7 @@
       <c r="W23" s="123"/>
       <c r="X23" s="129">
         <f ca="1">TODAY()-1</f>
-        <v>43243</v>
+        <v>43248</v>
       </c>
       <c r="Y23" s="131"/>
     </row>
@@ -12513,7 +12947,7 @@
       <c r="L43" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="144"/>
+      <c r="M43" s="132"/>
       <c r="N43" s="124">
         <v>14535</v>
       </c>
@@ -12950,7 +13384,7 @@
       <c r="G56" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="144"/>
+      <c r="H56" s="132"/>
       <c r="I56" s="124">
         <v>14730</v>
       </c>
@@ -13145,11 +13579,17 @@
     <row r="62" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="2:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G63" s="130" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H63" s="130"/>
       <c r="I63" s="130"/>
       <c r="J63" s="130"/>
+      <c r="L63" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="M63" s="130"/>
+      <c r="N63" s="130"/>
+      <c r="O63" s="130"/>
     </row>
     <row r="64" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="G64" s="123" t="s">
@@ -13157,21 +13597,37 @@
       </c>
       <c r="H64" s="123"/>
       <c r="I64" s="129">
-        <v>43237</v>
+        <v>43248</v>
       </c>
       <c r="J64" s="131"/>
-    </row>
-    <row r="65" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L64" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="M64" s="123"/>
+      <c r="N64" s="129">
+        <v>43248</v>
+      </c>
+      <c r="O64" s="131"/>
+    </row>
+    <row r="65" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G65" s="123" t="s">
         <v>124</v>
       </c>
       <c r="H65" s="123"/>
       <c r="I65" s="124" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="J65" s="125"/>
-    </row>
-    <row r="66" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L65" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="M65" s="123"/>
+      <c r="N65" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="O65" s="125"/>
+    </row>
+    <row r="66" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G66" s="123" t="s">
         <v>127</v>
       </c>
@@ -13180,19 +13636,36 @@
         <v>36</v>
       </c>
       <c r="J66" s="125"/>
-    </row>
-    <row r="67" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L66" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="M66" s="123"/>
+      <c r="N66" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="O66" s="125"/>
+    </row>
+    <row r="67" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G67" s="123" t="s">
         <v>179</v>
       </c>
       <c r="H67" s="123"/>
       <c r="I67" s="124">
         <f>I72*I74</f>
-        <v>1230000</v>
+        <v>244200.00000000003</v>
       </c>
       <c r="J67" s="125"/>
-    </row>
-    <row r="68" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L67" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="M67" s="123"/>
+      <c r="N67" s="124">
+        <f>N72*N74</f>
+        <v>244200.00000000003</v>
+      </c>
+      <c r="O67" s="125"/>
+    </row>
+    <row r="68" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G68" s="123" t="s">
         <v>131</v>
       </c>
@@ -13201,49 +13674,94 @@
         <v>132</v>
       </c>
       <c r="J68" s="125"/>
-    </row>
-    <row r="69" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L68" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="M68" s="123"/>
+      <c r="N68" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="O68" s="125"/>
+    </row>
+    <row r="69" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G69" s="123" t="s">
         <v>134</v>
       </c>
       <c r="H69" s="123"/>
       <c r="I69" s="129">
-        <f>I64+85</f>
-        <v>43322</v>
+        <f>I64+79</f>
+        <v>43327</v>
       </c>
       <c r="J69" s="125"/>
-    </row>
-    <row r="70" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L69" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="M69" s="123"/>
+      <c r="N69" s="129">
+        <f>N64+79</f>
+        <v>43327</v>
+      </c>
+      <c r="O69" s="125"/>
+    </row>
+    <row r="70" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G70" s="123" t="s">
         <v>136</v>
       </c>
       <c r="H70" s="123"/>
       <c r="I70" s="124">
-        <v>482.5</v>
+        <v>456.5</v>
       </c>
       <c r="J70" s="125"/>
-    </row>
-    <row r="71" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L70" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="M70" s="123"/>
+      <c r="N70" s="124">
+        <v>456.5</v>
+      </c>
+      <c r="O70" s="125"/>
+    </row>
+    <row r="71" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G71" s="123" t="s">
         <v>138</v>
       </c>
       <c r="H71" s="123"/>
       <c r="I71" s="124">
-        <v>430</v>
+        <v>456.5</v>
       </c>
       <c r="J71" s="125"/>
-    </row>
-    <row r="72" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L71" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="M71" s="123"/>
+      <c r="N71" s="124">
+        <v>456.5</v>
+      </c>
+      <c r="O71" s="125"/>
+    </row>
+    <row r="72" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G72" s="123" t="s">
         <v>140</v>
       </c>
       <c r="H72" s="123"/>
       <c r="I72" s="124">
-        <v>12.3</v>
+        <v>24.42</v>
       </c>
       <c r="J72" s="125"/>
-    </row>
-    <row r="73" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L72" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="M72" s="123"/>
+      <c r="N72" s="124">
+        <v>24.42</v>
+      </c>
+      <c r="O72" s="125"/>
+      <c r="Q72" s="100">
+        <f>N72/N71</f>
+        <v>5.349397590361446E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G73" s="123" t="s">
         <v>142</v>
       </c>
@@ -13252,18 +13770,34 @@
         <v>202</v>
       </c>
       <c r="J73" s="125"/>
-    </row>
-    <row r="74" spans="7:10" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="L73" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="M73" s="123"/>
+      <c r="N73" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="O73" s="125"/>
+    </row>
+    <row r="74" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G74" s="123" t="s">
         <v>145</v>
       </c>
       <c r="H74" s="123"/>
       <c r="I74" s="124">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="J74" s="125"/>
-    </row>
-    <row r="75" spans="7:10" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L74" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="M74" s="123"/>
+      <c r="N74" s="124">
+        <v>10000</v>
+      </c>
+      <c r="O74" s="125"/>
+    </row>
+    <row r="75" spans="7:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G75" s="126" t="s">
         <v>147</v>
       </c>
@@ -13272,208 +13806,561 @@
         <v>207</v>
       </c>
       <c r="J75" s="128"/>
-    </row>
-    <row r="76" spans="7:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="L75" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="M75" s="126"/>
+      <c r="N75" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="O75" s="128"/>
+    </row>
+    <row r="76" spans="7:17" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="7:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G77" s="130" t="s">
+        <v>267</v>
+      </c>
+      <c r="H77" s="130"/>
+      <c r="I77" s="130"/>
+      <c r="J77" s="130"/>
+      <c r="L77" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="M77" s="130"/>
+      <c r="N77" s="130"/>
+      <c r="O77" s="130"/>
+    </row>
+    <row r="78" spans="7:17" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="G78" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="H78" s="123"/>
+      <c r="I78" s="129">
+        <v>43248</v>
+      </c>
+      <c r="J78" s="131"/>
+      <c r="L78" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="M78" s="123"/>
+      <c r="N78" s="129">
+        <v>43248</v>
+      </c>
+      <c r="O78" s="131"/>
+    </row>
+    <row r="79" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G79" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="123"/>
+      <c r="I79" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="J79" s="125"/>
+      <c r="L79" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="M79" s="123"/>
+      <c r="N79" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="O79" s="125"/>
+    </row>
+    <row r="80" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G80" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80" s="123"/>
+      <c r="I80" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" s="125"/>
+      <c r="L80" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="M80" s="123"/>
+      <c r="N80" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="O80" s="125"/>
+    </row>
+    <row r="81" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G81" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="H81" s="123"/>
+      <c r="I81" s="124">
+        <f>I86*I88</f>
+        <v>244200.00000000003</v>
+      </c>
+      <c r="J81" s="125"/>
+      <c r="L81" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="M81" s="123"/>
+      <c r="N81" s="124">
+        <f>N86*N88</f>
+        <v>244200.00000000003</v>
+      </c>
+      <c r="O81" s="125"/>
+    </row>
+    <row r="82" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G82" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="H82" s="123"/>
+      <c r="I82" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="J82" s="125"/>
+      <c r="L82" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="M82" s="123"/>
+      <c r="N82" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="O82" s="125"/>
+    </row>
+    <row r="83" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G83" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="H83" s="123"/>
+      <c r="I83" s="129">
+        <f>I78+31</f>
+        <v>43279</v>
+      </c>
+      <c r="J83" s="125"/>
+      <c r="L83" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="M83" s="123"/>
+      <c r="N83" s="129">
+        <f>N78+31</f>
+        <v>43279</v>
+      </c>
+      <c r="O83" s="125"/>
+    </row>
+    <row r="84" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G84" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="H84" s="123"/>
+      <c r="I84" s="124">
+        <v>456.5</v>
+      </c>
+      <c r="J84" s="125"/>
+      <c r="L84" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="M84" s="123"/>
+      <c r="N84" s="124">
+        <v>456.5</v>
+      </c>
+      <c r="O84" s="125"/>
+      <c r="P84" s="100">
+        <f>N84*3.5/100</f>
+        <v>15.977499999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G85" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H85" s="123"/>
+      <c r="I85" s="124">
+        <v>456.5</v>
+      </c>
+      <c r="J85" s="125"/>
+      <c r="L85" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="M85" s="123"/>
+      <c r="N85" s="124">
+        <v>456.5</v>
+      </c>
+      <c r="O85" s="125"/>
+    </row>
+    <row r="86" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G86" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="H86" s="123"/>
+      <c r="I86" s="124">
+        <v>24.42</v>
+      </c>
+      <c r="J86" s="125"/>
+      <c r="L86" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="M86" s="123"/>
+      <c r="N86" s="124">
+        <v>24.42</v>
+      </c>
+      <c r="O86" s="125"/>
+    </row>
+    <row r="87" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G87" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" s="123"/>
+      <c r="I87" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="J87" s="125"/>
+      <c r="L87" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="M87" s="123"/>
+      <c r="N87" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="O87" s="125"/>
+    </row>
+    <row r="88" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G88" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="H88" s="123"/>
+      <c r="I88" s="124">
+        <v>10000</v>
+      </c>
+      <c r="J88" s="125"/>
+      <c r="L88" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="M88" s="123"/>
+      <c r="N88" s="124">
+        <v>10000</v>
+      </c>
+      <c r="O88" s="125"/>
+    </row>
+    <row r="89" spans="7:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89" s="126"/>
+      <c r="I89" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="J89" s="128"/>
+      <c r="L89" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="M89" s="126"/>
+      <c r="N89" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="O89" s="128"/>
+    </row>
+    <row r="90" spans="7:16" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="451">
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+  <mergeCells count="526">
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -13498,235 +14385,204 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13737,10 +14593,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -13751,7 +14607,7 @@
     <col min="4" max="4" width="13.875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="6"/>
     <col min="7" max="7" width="9.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="6" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
@@ -13906,11 +14762,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -13981,11 +14837,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43791.5</v>
+        <v>43796.5</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -14065,12 +14921,12 @@
         <v>202</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" ref="E12:E40" ca="1" si="9">TODAY()</f>
-        <v>43244</v>
+        <f t="shared" ref="E12:E49" ca="1" si="9">TODAY()</f>
+        <v>43249</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12" ca="1" si="10">E12+H12</f>
-        <v>43325</v>
+        <v>43330</v>
       </c>
       <c r="G12" s="11">
         <v>480</v>
@@ -14090,7 +14946,7 @@
       </c>
       <c r="L12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-43.269485409732511</v>
+        <v>-39.441791149393424</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="13">
@@ -14099,11 +14955,11 @@
       </c>
       <c r="O12" s="13">
         <f t="shared" ref="O12:O13" si="13">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
-        <v>43.269485409732511</v>
+        <v>39.441791149393424</v>
       </c>
       <c r="P12" s="121">
         <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
-        <v>459.5</v>
+        <v>466.5</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>85</v>
@@ -14117,15 +14973,15 @@
       </c>
       <c r="T12" s="14">
         <f t="shared" ref="T12" si="15">O12/P12</f>
-        <v>9.4166453557633326E-2</v>
+        <v>8.4548319720028769E-2</v>
       </c>
       <c r="U12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.56414844360119787</v>
+        <v>0.52950290563700264</v>
       </c>
       <c r="V12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-0.84768395430526766</v>
+        <v>-0.87003684499805445</v>
       </c>
       <c r="W12" s="114">
         <v>37.799999999999997</v>
@@ -14136,11 +14992,11 @@
       </c>
       <c r="Y12" s="6">
         <f t="shared" ref="Y12:Y13" si="17">500*U12</f>
-        <v>282.07422180059893</v>
+        <v>264.75145281850132</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" ref="Z12:Z13" si="18">1000000/P12/10</f>
-        <v>217.6278563656148</v>
+        <v>214.36227224008576</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14156,11 +15012,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="19">E13+H13</f>
-        <v>43325</v>
+        <v>43330</v>
       </c>
       <c r="G13" s="11">
         <v>430</v>
@@ -14180,7 +15036,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-17.87558512457619</v>
+        <v>-15.763958166656721</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13">
@@ -14189,11 +15045,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" si="13"/>
-        <v>17.87558512457619</v>
+        <v>15.763958166656721</v>
       </c>
       <c r="P13" s="121">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>459.5</v>
+        <v>466.5</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>85</v>
@@ -14207,15 +15063,15 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13" si="22">O13/P13</f>
-        <v>3.8902252719425878E-2</v>
+        <v>3.3791978921021912E-2</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.31709790085869827</v>
+        <v>0.28653211339246809</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-0.76911172214587964</v>
+        <v>-0.7461843561411996</v>
       </c>
       <c r="W13" s="114">
         <v>37.799999999999997</v>
@@ -14226,11 +15082,11 @@
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="17"/>
-        <v>158.54895042934913</v>
+        <v>143.26605669623405</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="18"/>
-        <v>217.6278563656148</v>
+        <v>214.36227224008576</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14246,11 +15102,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14" ca="1" si="23">E14+H14</f>
-        <v>43325</v>
+        <v>43330</v>
       </c>
       <c r="G14" s="11">
         <v>465</v>
@@ -14270,7 +15126,7 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-34.342344338017426</v>
+        <v>-31.026858944103111</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="13">
@@ -14279,11 +15135,11 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" ref="O14" si="26">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>34.342344338017426</v>
+        <v>31.026858944103111</v>
       </c>
       <c r="P14" s="121">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>459.5</v>
+        <v>466.5</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>85</v>
@@ -14297,15 +15153,15 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" ref="T14" si="28">O14/P14</f>
-        <v>7.4738507808525409E-2</v>
+        <v>6.6509879837305705E-2</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.49112421069850143</v>
+        <v>0.45627616415657712</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.85961073771429142</v>
+        <v>-0.86805903558749264</v>
       </c>
       <c r="W14" s="114">
         <v>37.799999999999997</v>
@@ -14316,11 +15172,11 @@
       </c>
       <c r="Y14" s="6">
         <f t="shared" ref="Y14" si="30">500*U14</f>
-        <v>245.56210534925071</v>
+        <v>228.13808207828856</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" ref="Z14" si="31">1000000/P14/10</f>
-        <v>217.6278563656148</v>
+        <v>214.36227224008576</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
@@ -14329,7 +15185,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="K16" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14345,11 +15201,11 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ref="F17:F20" ca="1" si="32">E17+H17</f>
-        <v>43295</v>
+        <v>43300</v>
       </c>
       <c r="G17" s="11">
         <v>13800</v>
@@ -14430,11 +15286,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="32"/>
-        <v>43295</v>
+        <v>43300</v>
       </c>
       <c r="G18" s="11">
         <v>14000</v>
@@ -14511,15 +15367,15 @@
         <v>160</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="32"/>
-        <v>43327</v>
+        <v>43332</v>
       </c>
       <c r="G19" s="11">
         <v>13800</v>
@@ -14539,22 +15395,22 @@
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>61.708254139316068</v>
+        <v>62.939023511497453</v>
       </c>
       <c r="M19" s="15">
         <v>30</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="34"/>
-        <v>10.151013698630138</v>
+        <v>10.144191780821918</v>
       </c>
       <c r="O19" s="13">
         <f t="shared" si="35"/>
-        <v>51.557240440685931</v>
+        <v>52.794831730675533</v>
       </c>
       <c r="P19" s="11">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>14880</v>
+        <v>14870</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -14568,15 +15424,15 @@
       </c>
       <c r="T19" s="14">
         <f t="shared" si="37"/>
-        <v>3.4648683091858825E-3</v>
+        <v>3.5504258056943869E-3</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.12205516684389295</v>
+        <v>-0.12410291332116685</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>14.318583800340548</v>
+        <v>14.476775740855715</v>
       </c>
       <c r="W19" s="114"/>
       <c r="X19" s="115">
@@ -14584,7 +15440,7 @@
       </c>
       <c r="Y19" s="6">
         <f>X19*U19</f>
-        <v>-48.822066737557179</v>
+        <v>-49.641165328466741</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14596,15 +15452,15 @@
         <v>160</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="32"/>
-        <v>43327</v>
+        <v>43332</v>
       </c>
       <c r="G20" s="11">
         <v>14000</v>
@@ -14624,22 +15480,22 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>94.006683715169856</v>
+        <v>95.731156067495704</v>
       </c>
       <c r="M20" s="15">
         <v>30</v>
       </c>
       <c r="N20" s="13">
         <f t="shared" si="34"/>
-        <v>10.151013698630138</v>
+        <v>10.144191780821918</v>
       </c>
       <c r="O20" s="13">
         <f t="shared" si="35"/>
-        <v>83.855670016539719</v>
+        <v>85.586964286673791</v>
       </c>
       <c r="P20" s="11">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>14880</v>
+        <v>14870</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -14653,15 +15509,15 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" si="37"/>
-        <v>5.6354616946599273E-3</v>
+        <v>5.7556801806774574E-3</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.17116573005750979</v>
+        <v>-0.17373308469359472</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>17.977351394847119</v>
+        <v>18.136778332194353</v>
       </c>
       <c r="W20" s="114"/>
       <c r="X20" s="115">
@@ -14669,7 +15525,7 @@
       </c>
       <c r="Y20" s="6">
         <f>X20*U20</f>
-        <v>-68.466292023003916</v>
+        <v>-69.493233877437888</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14681,15 +15537,15 @@
         <v>160</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21" ca="1" si="38">E21+H21</f>
-        <v>43327</v>
+        <v>43332</v>
       </c>
       <c r="G21" s="11">
         <v>14000</v>
@@ -14765,15 +15621,15 @@
         <v>160</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23:F24" ca="1" si="44">E23+H23</f>
-        <v>43276</v>
+        <v>43281</v>
       </c>
       <c r="G23" s="11">
         <f>P23</f>
@@ -14848,15 +15704,15 @@
         <v>160</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>43276</v>
+        <v>43281</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" ref="G24" si="51">P24</f>
@@ -14931,15 +15787,15 @@
         <v>160</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25:F28" ca="1" si="52">E25+H25</f>
-        <v>43304</v>
+        <v>43309</v>
       </c>
       <c r="G25" s="11">
         <f>P25</f>
@@ -15014,15 +15870,15 @@
         <v>160</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43304</v>
+        <v>43309</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" ref="G26:G28" si="59">P26</f>
@@ -15097,15 +15953,15 @@
         <v>160</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43276</v>
+        <v>43281</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="59"/>
@@ -15184,11 +16040,11 @@
       </c>
       <c r="E28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43276</v>
+        <v>43281</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="59"/>
@@ -15267,11 +16123,11 @@
       </c>
       <c r="E30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30:F34" ca="1" si="60">E30+H30</f>
-        <v>43301</v>
+        <v>43306</v>
       </c>
       <c r="G30" s="11">
         <v>3300</v>
@@ -15350,11 +16206,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43301</v>
+        <v>43306</v>
       </c>
       <c r="G31" s="11">
         <v>3350</v>
@@ -15429,15 +16285,15 @@
         <v>160</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43301</v>
+        <v>43306</v>
       </c>
       <c r="G32" s="11">
         <v>3400</v>
@@ -15457,7 +16313,7 @@
       </c>
       <c r="L32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>1.3738886122580167E-94</v>
+        <v>1.6724882824148738E-94</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="13">
@@ -15466,11 +16322,11 @@
       </c>
       <c r="O32" s="13">
         <f t="shared" si="63"/>
-        <v>1.3738886122580167E-94</v>
+        <v>1.6724882824148738E-94</v>
       </c>
       <c r="P32" s="11">
         <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
-        <v>14880</v>
+        <v>14870</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>85</v>
@@ -15484,15 +16340,15 @@
       </c>
       <c r="T32" s="14">
         <f t="shared" si="65"/>
-        <v>9.2331223942071012E-99</v>
+        <v>1.1247399343744949E-98</v>
       </c>
       <c r="U32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-2.7016933123290246E-96</v>
+        <v>-3.2896011668969591E-96</v>
       </c>
       <c r="V32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>3.1116547378135225E-85</v>
+        <v>3.7125633686058108E-85</v>
       </c>
       <c r="W32" s="114"/>
       <c r="X32" s="115">
@@ -15500,7 +16356,7 @@
       </c>
       <c r="Y32" s="6">
         <f>X32*U32</f>
-        <v>-1.0806773249316099E-93</v>
+        <v>-1.3158404667587836E-93</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15512,15 +16368,15 @@
         <v>160</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43301</v>
+        <v>43306</v>
       </c>
       <c r="G33" s="11">
         <v>3450</v>
@@ -15540,7 +16396,7 @@
       </c>
       <c r="L33" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>9.7809079797696768E-93</v>
+        <v>1.188371440107945E-92</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="13">
@@ -15549,11 +16405,11 @@
       </c>
       <c r="O33" s="13">
         <f t="shared" si="63"/>
-        <v>9.7809079797696768E-93</v>
+        <v>1.188371440107945E-92</v>
       </c>
       <c r="P33" s="11">
         <f>RTD("wdf.rtq",,D33,"LastPrice")</f>
-        <v>14880</v>
+        <v>14870</v>
       </c>
       <c r="Q33" s="10" t="s">
         <v>85</v>
@@ -15567,15 +16423,15 @@
       </c>
       <c r="T33" s="14">
         <f t="shared" si="65"/>
-        <v>6.5731908466194067E-97</v>
+        <v>7.9917379966909544E-97</v>
       </c>
       <c r="U33" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-1.9044953731591477E-94</v>
+        <v>-2.314443789497791E-94</v>
       </c>
       <c r="V33" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>1.4346795169884489E-83</v>
+        <v>1.7087761526585159E-83</v>
       </c>
       <c r="W33" s="114"/>
       <c r="X33" s="115">
@@ -15583,7 +16439,7 @@
       </c>
       <c r="Y33" s="6">
         <f>X33*U33</f>
-        <v>-7.6179814926365907E-92</v>
+        <v>-9.2577751579911639E-92</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15595,15 +16451,15 @@
         <v>160</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43301</v>
+        <v>43306</v>
       </c>
       <c r="G34" s="11">
         <v>3500</v>
@@ -15681,11 +16537,11 @@
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ref="F36:F40" ca="1" si="66">E36+H36</f>
-        <v>43273</v>
+        <v>43278</v>
       </c>
       <c r="G36" s="11">
         <v>3300</v>
@@ -15764,11 +16620,11 @@
       </c>
       <c r="E37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" ca="1" si="66"/>
-        <v>43273</v>
+        <v>43278</v>
       </c>
       <c r="G37" s="11">
         <v>3350</v>
@@ -15843,15 +16699,15 @@
         <v>160</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ca="1" si="66"/>
-        <v>43273</v>
+        <v>43278</v>
       </c>
       <c r="G38" s="11">
         <v>3400</v>
@@ -15871,7 +16727,7 @@
       </c>
       <c r="L38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>2.4938626080778527E-185</v>
+        <v>3.6687093675766382E-185</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="13">
@@ -15880,11 +16736,11 @@
       </c>
       <c r="O38" s="13">
         <f t="shared" si="69"/>
-        <v>2.4938626080778527E-185</v>
+        <v>3.6687093675766382E-185</v>
       </c>
       <c r="P38" s="11">
         <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
-        <v>14880</v>
+        <v>14870</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>85</v>
@@ -15898,15 +16754,15 @@
       </c>
       <c r="T38" s="14">
         <f t="shared" si="71"/>
-        <v>1.6759829355361913E-189</v>
+        <v>2.4671885457811958E-189</v>
       </c>
       <c r="U38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-9.6254383859624513E-187</v>
+        <v>-1.4163028723396565E-186</v>
       </c>
       <c r="V38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>1.0175099644301373E-166</v>
+        <v>1.4388738659377798E-166</v>
       </c>
       <c r="W38" s="114"/>
       <c r="X38" s="115">
@@ -15914,7 +16770,7 @@
       </c>
       <c r="Y38" s="6">
         <f>X38*U38</f>
-        <v>-3.8501753543849805E-184</v>
+        <v>-5.6652114893586261E-184</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15926,15 +16782,15 @@
         <v>160</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E39" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" ca="1" si="66"/>
-        <v>43273</v>
+        <v>43278</v>
       </c>
       <c r="G39" s="11">
         <v>3450</v>
@@ -15954,7 +16810,7 @@
       </c>
       <c r="L39" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>1.0630220952692441E-181</v>
+        <v>1.5578700883401713E-181</v>
       </c>
       <c r="M39" s="15"/>
       <c r="N39" s="13">
@@ -15963,11 +16819,11 @@
       </c>
       <c r="O39" s="13">
         <f t="shared" si="69"/>
-        <v>1.0630220952692441E-181</v>
+        <v>1.5578700883401713E-181</v>
       </c>
       <c r="P39" s="11">
         <f>RTD("wdf.rtq",,D39,"LastPrice")</f>
-        <v>14880</v>
+        <v>14870</v>
       </c>
       <c r="Q39" s="10" t="s">
         <v>85</v>
@@ -15981,15 +16837,15 @@
       </c>
       <c r="T39" s="14">
         <f t="shared" si="71"/>
-        <v>7.1439656940137372E-186</v>
+        <v>1.0476597769604379E-185</v>
       </c>
       <c r="U39" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-4.0624754213178721E-183</v>
+        <v>-5.954873212773896E-183</v>
       </c>
       <c r="V39" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>1.8466963411534914E-163</v>
+        <v>2.6025399369025921E-163</v>
       </c>
       <c r="W39" s="114"/>
       <c r="X39" s="115">
@@ -15997,7 +16853,7 @@
       </c>
       <c r="Y39" s="6">
         <f>X39*U39</f>
-        <v>-1.6249901685271488E-180</v>
+        <v>-2.3819492851095584E-180</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16009,15 +16865,15 @@
         <v>160</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E40" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ca="1" si="66"/>
-        <v>43273</v>
+        <v>43278</v>
       </c>
       <c r="G40" s="11">
         <v>3500</v>
@@ -16037,7 +16893,7 @@
       </c>
       <c r="L40" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>4.7869790501171855E-173</v>
+        <v>5.4106093896831062E-178</v>
       </c>
       <c r="M40" s="15"/>
       <c r="N40" s="13">
@@ -16046,10 +16902,11 @@
       </c>
       <c r="O40" s="13">
         <f t="shared" si="69"/>
-        <v>4.7869790501171855E-173</v>
+        <v>5.4106093896831062E-178</v>
       </c>
       <c r="P40" s="11">
-        <v>14570</v>
+        <f>RTD("wdf.rtq",,D40,"LastPrice")</f>
+        <v>14870</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>85</v>
@@ -16063,15 +16920,15 @@
       </c>
       <c r="T40" s="14">
         <f t="shared" si="71"/>
-        <v>3.2855038092774092E-177</v>
+        <v>3.6386075250054514E-182</v>
       </c>
       <c r="U40" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>-1.8232045573439186E-174</v>
+        <v>-2.0478871421738034E-179</v>
       </c>
       <c r="V40" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>1.0839493699415516E-155</v>
+        <v>3.930141900509481E-160</v>
       </c>
       <c r="W40" s="114"/>
       <c r="X40" s="115">
@@ -16079,7 +16936,1457 @@
       </c>
       <c r="Y40" s="6">
         <f>X40*U40</f>
-        <v>-7.2928182293756742E-172</v>
+        <v>-8.1915485686952137E-177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="34"/>
+      <c r="B42" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43249</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" ref="F42" ca="1" si="72">E42+H42</f>
+        <v>43280</v>
+      </c>
+      <c r="G42" s="11">
+        <v>100</v>
+      </c>
+      <c r="H42" s="10">
+        <v>31</v>
+      </c>
+      <c r="I42" s="12">
+        <f t="shared" ref="I42" si="73">H42/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="116">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L42" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
+        <v>-1.6248178755542781</v>
+      </c>
+      <c r="M42" s="15"/>
+      <c r="N42" s="13">
+        <f t="shared" ref="N42" si="74">M42/10000*I42*P42</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="13">
+        <f t="shared" ref="O42" si="75">IF(L42&lt;=0,ABS(L42)+N42,L42-N42)</f>
+        <v>1.6248178755542781</v>
+      </c>
+      <c r="P42" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R42" s="10">
+        <f t="shared" ref="R42" si="76">IF(S42="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="14">
+        <f t="shared" ref="T42" si="77">O42/P42</f>
+        <v>1.6248178755542783E-2</v>
+      </c>
+      <c r="U42" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
+        <v>-0.50727547083901925</v>
+      </c>
+      <c r="V42" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
+        <v>-0.11604227973412407</v>
+      </c>
+      <c r="W42" s="114"/>
+      <c r="X42" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y42" s="6">
+        <f t="shared" ref="Y42:Y47" si="78">X42*U42</f>
+        <v>-202.9101883356077</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="34"/>
+      <c r="B43" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43249</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" ref="F43:F44" ca="1" si="79">E43+H43</f>
+        <v>43280</v>
+      </c>
+      <c r="G43" s="11">
+        <v>100</v>
+      </c>
+      <c r="H43" s="10">
+        <v>31</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" ref="I43:I44" si="80">H43/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+      <c r="K43" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="L43" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>-2.3210008445530406</v>
+      </c>
+      <c r="M43" s="15"/>
+      <c r="N43" s="13">
+        <f t="shared" ref="N43:N44" si="81">M43/10000*I43*P43</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="13">
+        <f t="shared" ref="O43:O44" si="82">IF(L43&lt;=0,ABS(L43)+N43,L43-N43)</f>
+        <v>2.3210008445530406</v>
+      </c>
+      <c r="P43" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" ref="R43:R44" si="83">IF(S43="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="14">
+        <f t="shared" ref="T43:T44" si="84">O43/P43</f>
+        <v>2.3210008445530405E-2</v>
+      </c>
+      <c r="U43" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>-0.51075639300677267</v>
+      </c>
+      <c r="V43" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>-0.11601715057671669</v>
+      </c>
+      <c r="W43" s="114"/>
+      <c r="X43" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y43" s="6">
+        <f t="shared" si="78"/>
+        <v>-204.30255720270907</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="34"/>
+      <c r="B44" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43249</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" ca="1" si="79"/>
+        <v>43310</v>
+      </c>
+      <c r="G44" s="11">
+        <v>100</v>
+      </c>
+      <c r="H44" s="10">
+        <v>61</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" si="80"/>
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+      <c r="K44" s="116">
+        <v>0.33</v>
+      </c>
+      <c r="L44" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
+        <v>-5.3599611443800299</v>
+      </c>
+      <c r="M44" s="15"/>
+      <c r="N44" s="13">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="13">
+        <f t="shared" si="82"/>
+        <v>5.3599611443800299</v>
+      </c>
+      <c r="P44" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44" s="10">
+        <f t="shared" si="83"/>
+        <v>-1</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="14">
+        <f t="shared" si="84"/>
+        <v>5.35996114438003E-2</v>
+      </c>
+      <c r="U44" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
+        <v>-0.52513135540372957</v>
+      </c>
+      <c r="V44" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
+        <v>-0.16217676403383763</v>
+      </c>
+      <c r="W44" s="114"/>
+      <c r="X44" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y44" s="6">
+        <f t="shared" si="78"/>
+        <v>-210.05254216149183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="34"/>
+      <c r="B45" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43249</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" ref="F45:F46" ca="1" si="85">E45+H45</f>
+        <v>43328</v>
+      </c>
+      <c r="G45" s="11">
+        <v>100</v>
+      </c>
+      <c r="H45" s="10">
+        <v>79</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" ref="I45:I46" si="86">H45/365</f>
+        <v>0.21643835616438356</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0</v>
+      </c>
+      <c r="K45" s="116">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L45" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
+        <v>-5.3550796250769608</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="13">
+        <f t="shared" ref="N45:N46" si="87">M45/10000*I45*P45</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="13">
+        <f t="shared" ref="O45:O46" si="88">IF(L45&lt;=0,ABS(L45)+N45,L45-N45)</f>
+        <v>5.3550796250769608</v>
+      </c>
+      <c r="P45" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R45" s="10">
+        <f t="shared" ref="R45:R46" si="89">IF(S45="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="14">
+        <f t="shared" ref="T45:T46" si="90">O45/P45</f>
+        <v>5.3550796250769611E-2</v>
+      </c>
+      <c r="U45" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
+        <v>-0.52461568502515377</v>
+      </c>
+      <c r="V45" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
+        <v>-0.18437782004841807</v>
+      </c>
+      <c r="W45" s="114"/>
+      <c r="X45" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y45" s="6">
+        <f t="shared" si="78"/>
+        <v>-209.84627401006151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="34"/>
+      <c r="B46" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43249</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" ca="1" si="85"/>
+        <v>43280</v>
+      </c>
+      <c r="G46" s="11">
+        <v>100</v>
+      </c>
+      <c r="H46" s="10">
+        <v>31</v>
+      </c>
+      <c r="I46" s="12">
+        <f t="shared" si="86"/>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="116">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="L46" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
+        <v>-4.0953403847968275</v>
+      </c>
+      <c r="M46" s="15"/>
+      <c r="N46" s="13">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="13">
+        <f t="shared" si="88"/>
+        <v>4.0953403847968275</v>
+      </c>
+      <c r="P46" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R46" s="10">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="14">
+        <f t="shared" si="90"/>
+        <v>4.0953403847968278E-2</v>
+      </c>
+      <c r="U46" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
+        <v>-0.51962809811776367</v>
+      </c>
+      <c r="V46" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
+        <v>-0.11591298547194029</v>
+      </c>
+      <c r="W46" s="114"/>
+      <c r="X46" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y46" s="6">
+        <f t="shared" si="78"/>
+        <v>-207.85123924710547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="34"/>
+      <c r="B47" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43249</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" ref="F47" ca="1" si="91">E47+H47</f>
+        <v>43328</v>
+      </c>
+      <c r="G47" s="11">
+        <v>500</v>
+      </c>
+      <c r="H47" s="10">
+        <v>79</v>
+      </c>
+      <c r="I47" s="12">
+        <f t="shared" ref="I47" si="92">H47/365</f>
+        <v>0.21643835616438356</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+      <c r="K47" s="116">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="L47" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
+        <v>-12.773875315220238</v>
+      </c>
+      <c r="M47" s="15"/>
+      <c r="N47" s="13">
+        <f t="shared" ref="N47" si="93">M47/10000*I47*P47</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="13">
+        <f t="shared" ref="O47" si="94">IF(L47&lt;=0,ABS(L47)+N47,L47-N47)</f>
+        <v>12.773875315220238</v>
+      </c>
+      <c r="P47" s="11">
+        <f>RTD("wdf.rtq",,D47,"LastPrice")</f>
+        <v>466.5</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" s="10">
+        <f t="shared" ref="R47" si="95">IF(S47="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="14">
+        <f t="shared" ref="T47" si="96">O47/P47</f>
+        <v>2.7382369378821516E-2</v>
+      </c>
+      <c r="U47" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
+        <v>-0.32832587634885613</v>
+      </c>
+      <c r="V47" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
+        <v>-0.78222803612783309</v>
+      </c>
+      <c r="W47" s="114"/>
+      <c r="X47" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y47" s="6">
+        <f t="shared" si="78"/>
+        <v>-131.33035053954245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="34"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="114"/>
+      <c r="X48" s="115"/>
+    </row>
+    <row r="49" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="34"/>
+      <c r="B49" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43249</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" ref="F49" ca="1" si="97">E49+H49</f>
+        <v>43252</v>
+      </c>
+      <c r="G49" s="11">
+        <v>3500</v>
+      </c>
+      <c r="H49" s="10">
+        <v>3</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" ref="I49" si="98">H49/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="J49" s="12">
+        <v>0</v>
+      </c>
+      <c r="K49" s="116">
+        <v>0.18</v>
+      </c>
+      <c r="L49" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
+        <v>51.897508079609906</v>
+      </c>
+      <c r="M49" s="15"/>
+      <c r="N49" s="13">
+        <f t="shared" ref="N49" si="99">M49/10000*I49*P49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="13">
+        <f t="shared" ref="O49" si="100">IF(L49&lt;=0,ABS(L49)+N49,L49-N49)</f>
+        <v>51.897508079609906</v>
+      </c>
+      <c r="P49" s="11">
+        <v>3455</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R49" s="10">
+        <f t="shared" ref="R49" si="101">IF(S49="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S49" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T49" s="14">
+        <f t="shared" ref="T49" si="102">O49/P49</f>
+        <v>1.5020986419568713E-2</v>
+      </c>
+      <c r="U49" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
+        <v>-0.78359314570661809</v>
+      </c>
+      <c r="V49" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
+        <v>0.91751940353401551</v>
+      </c>
+      <c r="W49" s="114"/>
+      <c r="X49" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y49" s="6">
+        <f>X49*U49</f>
+        <v>-313.43725828264724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="34"/>
+      <c r="B52" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" ref="E52:E64" ca="1" si="103">TODAY()</f>
+        <v>43249</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" ref="F52:F55" ca="1" si="104">E52+H52</f>
+        <v>43279</v>
+      </c>
+      <c r="G52" s="11">
+        <v>3500</v>
+      </c>
+      <c r="H52" s="10">
+        <v>30</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" ref="I52:I55" si="105">H52/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="116">
+        <v>0.18</v>
+      </c>
+      <c r="L52" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
+        <v>96.164182921139854</v>
+      </c>
+      <c r="M52" s="15"/>
+      <c r="N52" s="13">
+        <f t="shared" ref="N52:N55" si="106">M52/10000*I52*P52</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="13">
+        <f t="shared" ref="O52:O55" si="107">IF(L52&lt;=0,ABS(L52)+N52,L52-N52)</f>
+        <v>96.164182921139854</v>
+      </c>
+      <c r="P52" s="11">
+        <v>3455</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R52" s="10">
+        <f t="shared" ref="R52:R55" si="108">IF(S52="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T52" s="14">
+        <f t="shared" ref="T52:T55" si="109">O52/P52</f>
+        <v>2.7833338037956543E-2</v>
+      </c>
+      <c r="U52" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
+        <v>-0.58802798674832957</v>
+      </c>
+      <c r="V52" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
+        <v>3.8461616398250271</v>
+      </c>
+      <c r="W52" s="114"/>
+      <c r="X52" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y52" s="6">
+        <f>X52*U52</f>
+        <v>-235.21119469933183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="34"/>
+      <c r="B53" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43249</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" ca="1" si="104"/>
+        <v>43252</v>
+      </c>
+      <c r="G53" s="11">
+        <v>3500</v>
+      </c>
+      <c r="H53" s="10">
+        <v>3</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" si="105"/>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="116">
+        <v>0.18</v>
+      </c>
+      <c r="L53" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
+        <v>51.897508079609906</v>
+      </c>
+      <c r="M53" s="15"/>
+      <c r="N53" s="13">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="13">
+        <f t="shared" si="107"/>
+        <v>51.897508079609906</v>
+      </c>
+      <c r="P53" s="11">
+        <v>3455</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R53" s="10">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="S53" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T53" s="14">
+        <f t="shared" si="109"/>
+        <v>1.5020986419568713E-2</v>
+      </c>
+      <c r="U53" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
+        <v>-0.78359314570661809</v>
+      </c>
+      <c r="V53" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
+        <v>0.91751940353401551</v>
+      </c>
+      <c r="W53" s="114"/>
+      <c r="X53" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y53" s="6">
+        <f>X53*U53</f>
+        <v>-313.43725828264724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="34"/>
+      <c r="B54" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E54" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43249</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" ca="1" si="104"/>
+        <v>43252</v>
+      </c>
+      <c r="G54" s="11">
+        <v>3500</v>
+      </c>
+      <c r="H54" s="10">
+        <v>3</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="105"/>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="116">
+        <v>0.18</v>
+      </c>
+      <c r="L54" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
+        <v>51.897508079609906</v>
+      </c>
+      <c r="M54" s="15"/>
+      <c r="N54" s="13">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="13">
+        <f t="shared" si="107"/>
+        <v>51.897508079609906</v>
+      </c>
+      <c r="P54" s="11">
+        <v>3455</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R54" s="10">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="S54" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T54" s="14">
+        <f t="shared" si="109"/>
+        <v>1.5020986419568713E-2</v>
+      </c>
+      <c r="U54" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
+        <v>-0.78359314570661809</v>
+      </c>
+      <c r="V54" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
+        <v>0.91751940353401551</v>
+      </c>
+      <c r="W54" s="114"/>
+      <c r="X54" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="6">
+        <f>X54*U54</f>
+        <v>-313.43725828264724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="34"/>
+      <c r="B55" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43249</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" ca="1" si="104"/>
+        <v>43252</v>
+      </c>
+      <c r="G55" s="11">
+        <v>3500</v>
+      </c>
+      <c r="H55" s="10">
+        <v>3</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" si="105"/>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
+      <c r="K55" s="116">
+        <v>0.18</v>
+      </c>
+      <c r="L55" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
+        <v>51.897508079609906</v>
+      </c>
+      <c r="M55" s="15"/>
+      <c r="N55" s="13">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="13">
+        <f t="shared" si="107"/>
+        <v>51.897508079609906</v>
+      </c>
+      <c r="P55" s="11">
+        <v>3455</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T55" s="14">
+        <f t="shared" si="109"/>
+        <v>1.5020986419568713E-2</v>
+      </c>
+      <c r="U55" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
+        <v>-0.78359314570661809</v>
+      </c>
+      <c r="V55" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
+        <v>0.91751940353401551</v>
+      </c>
+      <c r="W55" s="114"/>
+      <c r="X55" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y55" s="6">
+        <f>X55*U55</f>
+        <v>-313.43725828264724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="34"/>
+      <c r="B57" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43249</v>
+      </c>
+      <c r="F57" s="8">
+        <f t="shared" ref="F57:F58" ca="1" si="110">E57+H57</f>
+        <v>43280</v>
+      </c>
+      <c r="G57" s="11">
+        <v>49500</v>
+      </c>
+      <c r="H57" s="10">
+        <v>31</v>
+      </c>
+      <c r="I57" s="12">
+        <f t="shared" ref="I57:I58" si="111">H57/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+      <c r="K57" s="116">
+        <v>0.12</v>
+      </c>
+      <c r="L57" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q57,$P57,$G57,$I57,$C$3,$J57,$K57,$C$4)*R57</f>
+        <v>77.925951704030922</v>
+      </c>
+      <c r="M57" s="15">
+        <v>30</v>
+      </c>
+      <c r="N57" s="13">
+        <f t="shared" ref="N57:N58" si="112">M57/10000*I57*P57</f>
+        <v>13.206000000000001</v>
+      </c>
+      <c r="O57" s="13">
+        <f t="shared" ref="O57:O58" si="113">IF(L57&lt;=0,ABS(L57)+N57,L57-N57)</f>
+        <v>64.719951704030919</v>
+      </c>
+      <c r="P57" s="11">
+        <v>51830</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R57" s="10">
+        <f t="shared" ref="R57:R58" si="114">IF(S57="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S57" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T57" s="14">
+        <f t="shared" ref="T57:T58" si="115">O57/P57</f>
+        <v>1.2486967336297688E-3</v>
+      </c>
+      <c r="U57" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q57,$P57,$G57,$I57,$C$3,$J57,$K57,$C$4)*R57</f>
+        <v>-9.1154060874032439E-2</v>
+      </c>
+      <c r="V57" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q57,$P57,$G57,$I57,$C$3,$J57,$K57,$C$4)*R57</f>
+        <v>24.688430214238906</v>
+      </c>
+      <c r="W57" s="114"/>
+      <c r="X57" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y57" s="6">
+        <f>X57*U57</f>
+        <v>-36.461624349612975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="34"/>
+      <c r="B58" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E58" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43249</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" ca="1" si="110"/>
+        <v>43276</v>
+      </c>
+      <c r="G58" s="11">
+        <v>49500</v>
+      </c>
+      <c r="H58" s="10">
+        <v>27</v>
+      </c>
+      <c r="I58" s="12">
+        <f t="shared" si="111"/>
+        <v>7.3972602739726029E-2</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="116">
+        <v>0.12</v>
+      </c>
+      <c r="L58" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
+        <v>62.435395250229703</v>
+      </c>
+      <c r="M58" s="15">
+        <v>30</v>
+      </c>
+      <c r="N58" s="13">
+        <f t="shared" si="112"/>
+        <v>11.493123287671233</v>
+      </c>
+      <c r="O58" s="13">
+        <f t="shared" si="113"/>
+        <v>50.942271962558472</v>
+      </c>
+      <c r="P58" s="11">
+        <f>RTD("wdf.rtq",,D58,"LastPrice")</f>
+        <v>51790</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R58" s="10">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="S58" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T58" s="14">
+        <f t="shared" si="115"/>
+        <v>9.8363143391694296E-4</v>
+      </c>
+      <c r="U58" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
+        <v>-8.0342065348304459E-2</v>
+      </c>
+      <c r="V58" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
+        <v>20.950838925416747</v>
+      </c>
+      <c r="W58" s="114"/>
+      <c r="X58" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y58" s="6">
+        <f>X58*U58</f>
+        <v>-32.136826139321784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="34"/>
+      <c r="B60" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E60" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43249</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" ref="F60:F61" ca="1" si="116">E60+H60</f>
+        <v>43280</v>
+      </c>
+      <c r="G60" s="11">
+        <v>495</v>
+      </c>
+      <c r="H60" s="10">
+        <v>31</v>
+      </c>
+      <c r="I60" s="12">
+        <f t="shared" ref="I60:I61" si="117">H60/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+      <c r="K60" s="116">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L60" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
+        <v>3.7281121224938403</v>
+      </c>
+      <c r="M60" s="15"/>
+      <c r="N60" s="13">
+        <f t="shared" ref="N60:N61" si="118">M60/10000*I60*P60</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="13">
+        <f t="shared" ref="O60:O61" si="119">IF(L60&lt;=0,ABS(L60)+N60,L60-N60)</f>
+        <v>3.7281121224938403</v>
+      </c>
+      <c r="P60" s="11">
+        <v>460</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R60" s="10">
+        <f t="shared" ref="R60:R61" si="120">IF(S60="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T60" s="14">
+        <f t="shared" ref="T60:T61" si="121">O60/P60</f>
+        <v>8.104591570638784E-3</v>
+      </c>
+      <c r="U60" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
+        <v>0.19048202664535552</v>
+      </c>
+      <c r="V60" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
+        <v>0.36396854316031835</v>
+      </c>
+      <c r="W60" s="114"/>
+      <c r="X60" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="6">
+        <f>X60*U60</f>
+        <v>76.192810658142207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="34"/>
+      <c r="B61" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43249</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" ca="1" si="116"/>
+        <v>43280</v>
+      </c>
+      <c r="G61" s="11">
+        <v>500</v>
+      </c>
+      <c r="H61" s="10">
+        <v>31</v>
+      </c>
+      <c r="I61" s="12">
+        <f t="shared" si="117"/>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="116">
+        <v>0.26</v>
+      </c>
+      <c r="L61" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
+        <v>2.4860394008728051</v>
+      </c>
+      <c r="M61" s="15"/>
+      <c r="N61" s="13">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="13">
+        <f t="shared" si="119"/>
+        <v>2.4860394008728051</v>
+      </c>
+      <c r="P61" s="11">
+        <v>460</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R61" s="10">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="S61" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T61" s="14">
+        <f t="shared" si="121"/>
+        <v>5.4044334801582718E-3</v>
+      </c>
+      <c r="U61" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
+        <v>0.14374994525425677</v>
+      </c>
+      <c r="V61" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
+        <v>0.30343996845244092</v>
+      </c>
+      <c r="W61" s="114"/>
+      <c r="X61" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y61" s="6">
+        <f>X61*U61</f>
+        <v>57.499978101702709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="34"/>
+      <c r="B63" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E63" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43249</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" ref="F63" ca="1" si="122">E63+H63</f>
+        <v>43371</v>
+      </c>
+      <c r="G63" s="11">
+        <v>100</v>
+      </c>
+      <c r="H63" s="10">
+        <v>122</v>
+      </c>
+      <c r="I63" s="12">
+        <f t="shared" ref="I63" si="123">H63/365</f>
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+      <c r="K63" s="116">
+        <v>0.1125</v>
+      </c>
+      <c r="L63" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q63,$P63,$G63,$I63,$C$3,$J63,$K63,$C$4)*R63</f>
+        <v>-2.5770111518076675</v>
+      </c>
+      <c r="M63" s="15"/>
+      <c r="N63" s="13">
+        <f t="shared" ref="N63" si="124">M63/10000*I63*P63</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="13">
+        <f t="shared" ref="O63" si="125">IF(L63&lt;=0,ABS(L63)+N63,L63-N63)</f>
+        <v>2.5770111518076675</v>
+      </c>
+      <c r="P63" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R63" s="10">
+        <f t="shared" ref="R63" si="126">IF(S63="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="14">
+        <f t="shared" ref="T63" si="127">O63/P63</f>
+        <v>2.5770111518076674E-2</v>
+      </c>
+      <c r="U63" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q63,$P63,$G63,$I63,$C$3,$J63,$K63,$C$4)*R63</f>
+        <v>0.48378364093615289</v>
+      </c>
+      <c r="V63" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q63,$P63,$G63,$I63,$C$3,$J63,$K63,$C$4)*R63</f>
+        <v>-0.22898659852072001</v>
+      </c>
+      <c r="W63" s="114"/>
+      <c r="X63" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y63" s="6">
+        <f>X63*U63</f>
+        <v>193.51345637446116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="34"/>
+      <c r="B64" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43249</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" ref="F64" ca="1" si="128">E64+H64</f>
+        <v>43371</v>
+      </c>
+      <c r="G64" s="11">
+        <v>100</v>
+      </c>
+      <c r="H64" s="10">
+        <v>122</v>
+      </c>
+      <c r="I64" s="12">
+        <f t="shared" ref="I64" si="129">H64/365</f>
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="116">
+        <v>0.115</v>
+      </c>
+      <c r="L64" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q64,$P64,$G64,$I64,$C$3,$J64,$K64,$C$4)*R64</f>
+        <v>-2.6342572034049425</v>
+      </c>
+      <c r="M64" s="15"/>
+      <c r="N64" s="13">
+        <f t="shared" ref="N64" si="130">M64/10000*I64*P64</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="13">
+        <f t="shared" ref="O64" si="131">IF(L64&lt;=0,ABS(L64)+N64,L64-N64)</f>
+        <v>2.6342572034049425</v>
+      </c>
+      <c r="P64" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R64" s="10">
+        <f t="shared" ref="R64" si="132">IF(S64="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="14">
+        <f t="shared" ref="T64" si="133">O64/P64</f>
+        <v>2.6342572034049425E-2</v>
+      </c>
+      <c r="U64" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q64,$P64,$G64,$I64,$C$3,$J64,$K64,$C$4)*R64</f>
+        <v>0.48349741034741101</v>
+      </c>
+      <c r="V64" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q64,$P64,$G64,$I64,$C$3,$J64,$K64,$C$4)*R64</f>
+        <v>-0.22898115722805912</v>
+      </c>
+      <c r="W64" s="114"/>
+      <c r="X64" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y64" s="6">
+        <f>X64*U64</f>
+        <v>193.3989641389644</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H72" s="148" t="s">
+        <v>275</v>
+      </c>
+      <c r="I72" s="148" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H73" s="148" t="s">
+        <v>273</v>
+      </c>
+      <c r="I73" s="149">
+        <v>2.5770111518076675</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H74" s="148" t="s">
+        <v>274</v>
+      </c>
+      <c r="I74" s="149">
+        <v>2.6342572034049425</v>
       </c>
     </row>
   </sheetData>
@@ -16091,24 +18398,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S12:S14 S17:S21 S23:S28 S30:S34 S36:S40</xm:sqref>
+          <xm:sqref>S8:S9 S12:S14 S17:S21 S23:S28 S30:S34 S36:S40 S52:S55 S42:S49 S57:S58 S60:S61 S63:S64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q12:Q14 Q17:Q21 Q23:Q28 Q30:Q34 Q36:Q40</xm:sqref>
+          <xm:sqref>Q8:Q9 Q12:Q14 Q17:Q21 Q23:Q28 Q30:Q34 Q36:Q40 Q52:Q55 Q42:Q49 Q57:Q58 Q60:Q61 Q63:Q64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C12:C14 C17:C21 C23:C28 C30:C34 C36:C40</xm:sqref>
+          <xm:sqref>C8:C9 C12:C14 C17:C21 C23:C28 C30:C34 C36:C40 C52:C55 C42:C49 C57:C58 C60:C61 C63:C64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16138,7 +18445,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -16298,11 +18605,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43274</v>
+        <v>43279</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -16366,11 +18673,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43274</v>
+        <v>43279</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -16437,11 +18744,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43274</v>
+        <v>43279</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -16505,15 +18812,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43259</v>
+        <v>43264</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>439.5</v>
+        <v>446.5</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -16530,17 +18837,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.6953310893291729</v>
+        <v>-3.8256949920485681</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.6953310893291729</v>
+        <v>3.8256949920485681</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>459.5</v>
+        <v>466.5</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -16555,11 +18862,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.22280524386673051</v>
+        <v>0.2261658707304548</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.27765156822788839</v>
+        <v>-0.2842866947926268</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16575,15 +18882,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43259</v>
+        <v>43264</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>489.5</v>
+        <v>496.5</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -16602,17 +18909,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.0043266499227457</v>
+        <v>2.0970742245447838</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.0043266499227457</v>
+        <v>2.0970742245447838</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>459.5</v>
+        <v>466.5</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -16627,11 +18934,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.14756502293877816</v>
+        <v>0.15120286735736954</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.21467643550595383</v>
+        <v>0.22151930030676681</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16648,15 +18955,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43259</v>
+        <v>43264</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>439.5|489.5</v>
+        <v>446.5|496.5</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -16670,7 +18977,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.6910044394064272</v>
+        <v>-1.7286207675037844</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -16681,11 +18988,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.6910044394064272</v>
+        <v>1.7286207675037844</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>459.5</v>
+        <v>466.5</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -16694,15 +19001,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.6800967125275889E-3</v>
+        <v>3.7055107556351217E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.37037026680550866</v>
+        <v>0.37736873808782434</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2975132721934557E-2</v>
+        <v>-6.2767394485859995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -16718,11 +19025,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -16743,17 +19050,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-264.99503799563013</v>
+        <v>-306.33528467337419</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>264.99503799563013</v>
+        <v>306.33528467337419</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3583</v>
+        <v>3649</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -16768,11 +19075,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.60325754676568977</v>
+        <v>-0.64903081386091799</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.8481106493269408</v>
+        <v>-6.6987095521620859</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16789,11 +19096,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -16815,17 +19122,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>76.235044072163987</v>
+        <v>61.682638762463284</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>76.235044072163987</v>
+        <v>61.682638762463284</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3583</v>
+        <v>3649</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -16840,11 +19147,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.24017272089054131</v>
+        <v>-0.20157061297254586</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>5.54997133642172</v>
+        <v>5.1131144113212486</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16861,11 +19168,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -16883,7 +19190,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-188.75999392346614</v>
+        <v>-244.65264591091091</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -16894,11 +19201,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>188.75999392346614</v>
+        <v>244.65264591091091</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3583</v>
+        <v>3649</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -16907,15 +19214,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>5.2682108267782905E-2</v>
+        <v>6.7046491069035596E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.84343026765623108</v>
+        <v>-0.85060142683346385</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.2981393129052208</v>
+        <v>-1.5855951408408373</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -16932,11 +19239,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43275</v>
+        <v>43280</v>
       </c>
       <c r="G18" s="118">
         <v>3000</v>
@@ -16956,17 +19263,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>36.865888585146422</v>
+        <v>28.47514229249407</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>36.865888585146422</v>
+        <v>28.47514229249407</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -16981,11 +19288,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.36797165250845865</v>
+        <v>-0.304163798062973</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.3390155930551373</v>
+        <v>3.1247752831368985</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -17002,11 +19309,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43275</v>
+        <v>43280</v>
       </c>
       <c r="G19" s="119">
         <v>3280</v>
@@ -17028,17 +19335,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-5.7594555040135731</v>
+        <v>-8.0999931008180965</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>5.7594555040135731</v>
+        <v>8.0999931008180965</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -17053,11 +19360,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-8.1034409575408972E-2</v>
+        <v>-0.10706418142092389</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-1.3297967727293809</v>
+        <v>-1.6466976191764502</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17074,11 +19381,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43275</v>
+        <v>43280</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -17096,7 +19403,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>31.106433081132849</v>
+        <v>20.375149191675973</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -17107,26 +19414,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>31.106433081132849</v>
+        <v>20.375149191675973</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>1.0218933338085693E-2</v>
+        <v>6.6390189611195746E-3</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.44900606208386762</v>
+        <v>-0.41122797948389689</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>2.0092188203257564</v>
+        <v>1.4780776639604483</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -17142,11 +19449,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43336</v>
+        <v>43341</v>
       </c>
       <c r="G21" s="118">
         <v>3000</v>
@@ -17166,17 +19473,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>76.018850235218224</v>
+        <v>66.250694074335343</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>76.018850235218224</v>
+        <v>66.250694074335343</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -17191,11 +19498,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.41030808733921731</v>
+        <v>-0.37137734700536384</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.9188650250603132</v>
+        <v>5.8037515783958042</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -17212,11 +19519,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43336</v>
+        <v>43341</v>
       </c>
       <c r="G22" s="119">
         <v>3280</v>
@@ -17238,17 +19545,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-32.578408131203901</v>
+        <v>-38.324529592060344</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>32.578408131203901</v>
+        <v>38.324529592060344</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -17263,11 +19570,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.21627755661484116</v>
+        <v>-0.24367886139771144</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-4.4675671702050863</v>
+        <v>-4.8150897197007225</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17284,11 +19591,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43336</v>
+        <v>43341</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -17306,7 +19613,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>43.440442104014323</v>
+        <v>27.926164482274999</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -17317,26 +19624,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>43.440442104014323</v>
+        <v>27.926164482274999</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>1.4270841689886441E-2</v>
+        <v>9.0994345005783635E-3</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.62658564395405847</v>
+        <v>-0.61505620840307529</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>1.4512978548552269</v>
+        <v>0.98866185869508172</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -17353,11 +19660,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43275</v>
+        <v>43280</v>
       </c>
       <c r="G26" s="118">
         <v>2950</v>
@@ -17377,17 +19684,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>20.865115200904825</v>
+        <v>15.452792993471803</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>20.865115200904825</v>
+        <v>15.452792993471803</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -17402,11 +19709,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.24279669835323148</v>
+        <v>-0.1914343787461803</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>2.7709580236397073</v>
+        <v>2.4341048400944487</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -17423,11 +19730,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43275</v>
+        <v>43280</v>
       </c>
       <c r="G27" s="119">
         <v>3350</v>
@@ -17449,17 +19756,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-2.2348132162403687</v>
+        <v>-3.3009641074661431</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>2.2348132162403687</v>
+        <v>3.3009641074661431</v>
       </c>
       <c r="P27" s="94">
         <f>P26</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -17474,11 +19781,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-3.5886378623928294E-2</v>
+        <v>-5.0017476104358138E-2</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.69986489494451831</v>
+        <v>-0.92210880237026771</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17495,11 +19802,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43275</v>
+        <v>43280</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -17517,7 +19824,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>18.630301984664456</v>
+        <v>12.15182888600566</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -17528,26 +19835,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>18.630301984664456</v>
+        <v>12.15182888600566</v>
       </c>
       <c r="P28" s="111">
         <f>P27</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>6.1203357374061945E-3</v>
+        <v>3.9595402039770801E-3</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.27868307697715977</v>
+        <v>-0.24145185485053844</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>2.071093128695189</v>
+        <v>1.511996037724181</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -17563,11 +19870,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43336</v>
+        <v>43341</v>
       </c>
       <c r="G29" s="118">
         <v>2950</v>
@@ -17587,17 +19894,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>55.958236900354336</v>
+        <v>48.120185264126235</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>55.958236900354336</v>
+        <v>48.120185264126235</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -17612,11 +19919,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.33168391313438406</v>
+        <v>-0.29570321242999853</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>5.5273432564957261</v>
+        <v>5.3052588474392337</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -17633,11 +19940,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43336</v>
+        <v>43341</v>
       </c>
       <c r="G30" s="119">
         <v>3350</v>
@@ -17659,17 +19966,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-21.298958049117687</v>
+        <v>-25.434059277512233</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>21.298958049117687</v>
+        <v>25.434059277512233</v>
       </c>
       <c r="P30" s="94">
         <f>P29</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -17684,11 +19991,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.15432579757259646</v>
+        <v>-0.17677995743952124</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-3.6209907417562022</v>
+        <v>-3.9859163213976103</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17705,11 +20012,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43336</v>
+        <v>43341</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -17727,7 +20034,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>34.65927885123665</v>
+        <v>22.686125986614002</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -17738,26 +20045,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>34.65927885123665</v>
+        <v>22.686125986614002</v>
       </c>
       <c r="P31" s="111">
         <f>P30</f>
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>1.1386096863086942E-2</v>
+        <v>7.3920254110830894E-3</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.48600971070698051</v>
+        <v>-0.47248316986951977</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>1.9063525147395239</v>
+        <v>1.3193425260416234</v>
       </c>
     </row>
   </sheetData>
@@ -18113,11 +20420,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -18195,11 +20502,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -18277,11 +20584,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -18359,11 +20666,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43427</v>
+        <v>43432</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -18441,11 +20748,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43427</v>
+        <v>43432</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -18523,11 +20830,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43427</v>
+        <v>43432</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -19381,11 +21688,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43274</v>
+        <v>43279</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -19467,11 +21774,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43424</v>
+        <v>43429</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -19579,11 +21886,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -19666,11 +21973,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -19753,11 +22060,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -19840,11 +22147,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43427</v>
+        <v>43432</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -19927,11 +22234,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43427</v>
+        <v>43432</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -20014,11 +22321,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43427</v>
+        <v>43432</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>

--- a/PricerAndQutation/OptionPricer_v2_20180516.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180516.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="274">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -999,25 +999,13 @@
   </si>
   <si>
     <t>c1901</t>
-  </si>
-  <si>
-    <t>c1901</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5000万</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1亿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N.P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offer(%)</t>
+    <t>al1810</t>
+  </si>
+  <si>
+    <t>cf809</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1794,6 +1782,8 @@
     <xf numFmtId="181" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="6" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1824,12 +1814,6 @@
     <xf numFmtId="14" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1839,22 +1823,22 @@
     <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,6 +1846,12 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1872,8 +1862,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1901,40 +1889,43 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>51790</v>
+        <v>50930</v>
         <stp/>
         <stp>cu1808</stp>
         <stp>LastPrice</stp>
         <tr r="P58" s="1"/>
       </tp>
-      <tp>
-        <v>14870</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>al1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P19" s="1"/>
         <tr r="P20" s="1"/>
-        <tr r="P19" s="1"/>
+        <tr r="P33" s="1"/>
         <tr r="P39" s="1"/>
+        <tr r="P32" s="1"/>
         <tr r="P38" s="1"/>
-        <tr r="P33" s="1"/>
-        <tr r="P32" s="1"/>
         <tr r="P40" s="1"/>
+        <tr r="P67" s="1"/>
       </tp>
-      <tp>
-        <v>14800</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
+        <tr r="P18" s="1"/>
         <tr r="P17" s="1"/>
-        <tr r="P18" s="1"/>
         <tr r="P31" s="1"/>
+        <tr r="P30" s="1"/>
+        <tr r="P36" s="1"/>
         <tr r="P37" s="1"/>
-        <tr r="P36" s="1"/>
-        <tr r="P30" s="1"/>
+        <tr r="P68" s="1"/>
+        <tr r="P66" s="1"/>
       </tp>
-      <tp>
-        <v>466.5</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
@@ -1945,24 +1936,25 @@
         <tr r="P47" s="1"/>
       </tp>
       <tp>
-        <v>3069</v>
+        <v>3045</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P18" s="9"/>
         <tr r="P21" s="9"/>
-        <tr r="P18" s="9"/>
         <tr r="P29" s="9"/>
         <tr r="P26" s="9"/>
       </tp>
-      <tp>
-        <v>3649</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="9"/>
+        <tr r="P49" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -2262,10 +2254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:V176"/>
+  <dimension ref="B1:V186"/>
   <sheetViews>
     <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P183" sqref="P183"/>
+      <selection activeCell="O189" sqref="O189:O190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2293,11 +2285,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
     </row>
     <row r="2" spans="2:18" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:18" ht="13.5" x14ac:dyDescent="0.15">
@@ -10550,50 +10542,576 @@
         <v>160</v>
       </c>
       <c r="C176" s="92" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D176" s="93">
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="E176" s="93">
-        <v>43371</v>
+        <v>43280</v>
       </c>
       <c r="F176" s="92">
-        <v>100</v>
+        <v>49500</v>
       </c>
       <c r="G176" s="92">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="H176" s="92">
-        <v>0.33424657534246577</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="I176" s="92">
         <v>0</v>
       </c>
       <c r="J176" s="92">
-        <v>0.1125</v>
+        <v>0.12</v>
       </c>
       <c r="K176" s="92">
-        <v>-2.5770111518076675</v>
-      </c>
-      <c r="L176" s="92"/>
+        <v>116.15780886073208</v>
+      </c>
+      <c r="L176" s="92">
+        <v>30</v>
+      </c>
       <c r="M176" s="92">
-        <v>0</v>
+        <v>12.681369863013698</v>
       </c>
       <c r="N176" s="99">
-        <v>2.5770111518076675</v>
+        <v>103.47643899771838</v>
       </c>
       <c r="O176" s="92">
-        <v>100</v>
+        <v>51430</v>
       </c>
       <c r="P176" s="92" t="s">
         <v>85</v>
       </c>
       <c r="Q176" s="92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R176" s="92" t="s">
-        <v>20</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B177" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D177" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E177" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G177" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I177" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J177" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K177" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L177" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M177" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N177" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O177" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P177" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q177" s="33"/>
+      <c r="R177" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B178" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C178" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D178" s="93">
+        <v>43250</v>
+      </c>
+      <c r="E178" s="93">
+        <v>43294</v>
+      </c>
+      <c r="F178" s="92">
+        <v>14500</v>
+      </c>
+      <c r="G178" s="92">
+        <v>44</v>
+      </c>
+      <c r="H178" s="92">
+        <v>0.12054794520547946</v>
+      </c>
+      <c r="I178" s="92">
+        <v>0</v>
+      </c>
+      <c r="J178" s="92">
+        <v>0.13</v>
+      </c>
+      <c r="K178" s="92">
+        <v>148.1957993354099</v>
+      </c>
+      <c r="L178" s="92">
+        <v>30</v>
+      </c>
+      <c r="M178" s="92">
+        <v>5.3432876712328774</v>
+      </c>
+      <c r="N178" s="99">
+        <v>142.85251166417703</v>
+      </c>
+      <c r="O178" s="92">
+        <v>14775</v>
+      </c>
+      <c r="P178" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q178" s="92">
+        <v>1</v>
+      </c>
+      <c r="R178" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B179" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C179" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="D179" s="93">
+        <v>43250</v>
+      </c>
+      <c r="E179" s="93">
+        <v>43325</v>
+      </c>
+      <c r="F179" s="92">
+        <v>14500</v>
+      </c>
+      <c r="G179" s="92">
+        <v>75</v>
+      </c>
+      <c r="H179" s="92">
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="I179" s="92">
+        <v>0</v>
+      </c>
+      <c r="J179" s="92">
+        <v>0.13</v>
+      </c>
+      <c r="K179" s="92">
+        <v>197.0015228979737</v>
+      </c>
+      <c r="L179" s="92">
+        <v>30</v>
+      </c>
+      <c r="M179" s="92">
+        <v>9.1541095890410951</v>
+      </c>
+      <c r="N179" s="99">
+        <v>187.8474133089326</v>
+      </c>
+      <c r="O179" s="92">
+        <v>14850</v>
+      </c>
+      <c r="P179" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q179" s="92">
+        <v>1</v>
+      </c>
+      <c r="R179" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B180" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C180" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="D180" s="93">
+        <v>43250</v>
+      </c>
+      <c r="E180" s="93">
+        <v>43356</v>
+      </c>
+      <c r="F180" s="92">
+        <v>14500</v>
+      </c>
+      <c r="G180" s="92">
+        <v>106</v>
+      </c>
+      <c r="H180" s="92">
+        <v>0.29041095890410956</v>
+      </c>
+      <c r="I180" s="92">
+        <v>0</v>
+      </c>
+      <c r="J180" s="92">
+        <v>0.13</v>
+      </c>
+      <c r="K180" s="92">
+        <v>231.7094428625951</v>
+      </c>
+      <c r="L180" s="92">
+        <v>30</v>
+      </c>
+      <c r="M180" s="92">
+        <v>13.003150684931507</v>
+      </c>
+      <c r="N180" s="99">
+        <v>218.70629217766358</v>
+      </c>
+      <c r="O180" s="92">
+        <v>14925</v>
+      </c>
+      <c r="P180" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q180" s="92">
+        <v>1</v>
+      </c>
+      <c r="R180" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B181" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E181" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G181" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I181" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J181" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K181" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L181" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M181" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N181" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O181" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P181" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q181" s="33"/>
+      <c r="R181" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B182" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C182" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="D182" s="93">
+        <v>43250</v>
+      </c>
+      <c r="E182" s="93">
+        <v>43280</v>
+      </c>
+      <c r="F182" s="92">
+        <v>49500</v>
+      </c>
+      <c r="G182" s="92">
+        <v>30</v>
+      </c>
+      <c r="H182" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I182" s="92">
+        <v>0</v>
+      </c>
+      <c r="J182" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="K182" s="92">
+        <v>171.01217245503904</v>
+      </c>
+      <c r="L182" s="92">
+        <v>30</v>
+      </c>
+      <c r="M182" s="92">
+        <v>12.592602739726027</v>
+      </c>
+      <c r="N182" s="99">
+        <v>158.419569715313</v>
+      </c>
+      <c r="O182" s="92">
+        <v>51070</v>
+      </c>
+      <c r="P182" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q182" s="92">
+        <v>1</v>
+      </c>
+      <c r="R182" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B183" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E183" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G183" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J183" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K183" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L183" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M183" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N183" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O183" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P183" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q183" s="33"/>
+      <c r="R183" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B184" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C184" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D184" s="93">
+        <v>43250</v>
+      </c>
+      <c r="E184" s="93">
+        <v>43294</v>
+      </c>
+      <c r="F184" s="92">
+        <v>14500</v>
+      </c>
+      <c r="G184" s="92">
+        <v>44</v>
+      </c>
+      <c r="H184" s="92">
+        <v>0.12054794520547946</v>
+      </c>
+      <c r="I184" s="92">
+        <v>0</v>
+      </c>
+      <c r="J184" s="92">
+        <v>0.13</v>
+      </c>
+      <c r="K184" s="92">
+        <v>151.51897168068444</v>
+      </c>
+      <c r="L184" s="92">
+        <v>30</v>
+      </c>
+      <c r="M184" s="92">
+        <v>5.3396712328767126</v>
+      </c>
+      <c r="N184" s="99">
+        <v>146.17930044780772</v>
+      </c>
+      <c r="O184" s="92">
+        <v>14765</v>
+      </c>
+      <c r="P184" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q184" s="92">
+        <v>1</v>
+      </c>
+      <c r="R184" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B185" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C185" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="D185" s="93">
+        <v>43250</v>
+      </c>
+      <c r="E185" s="93">
+        <v>43325</v>
+      </c>
+      <c r="F185" s="92">
+        <v>14500</v>
+      </c>
+      <c r="G185" s="92">
+        <v>75</v>
+      </c>
+      <c r="H185" s="92">
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="I185" s="92">
+        <v>0</v>
+      </c>
+      <c r="J185" s="92">
+        <v>0.13</v>
+      </c>
+      <c r="K185" s="92">
+        <v>203.69858170859607</v>
+      </c>
+      <c r="L185" s="92">
+        <v>30</v>
+      </c>
+      <c r="M185" s="92">
+        <v>9.1417808219178074</v>
+      </c>
+      <c r="N185" s="99">
+        <v>194.55680088667825</v>
+      </c>
+      <c r="O185" s="92">
+        <v>14830</v>
+      </c>
+      <c r="P185" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q185" s="92">
+        <v>1</v>
+      </c>
+      <c r="R185" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="186" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B186" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C186" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D186" s="93">
+        <v>43250</v>
+      </c>
+      <c r="E186" s="93">
+        <v>43294</v>
+      </c>
+      <c r="F186" s="92">
+        <v>15200</v>
+      </c>
+      <c r="G186" s="92">
+        <v>44</v>
+      </c>
+      <c r="H186" s="92">
+        <v>0.12054794520547946</v>
+      </c>
+      <c r="I186" s="92">
+        <v>0</v>
+      </c>
+      <c r="J186" s="92">
+        <v>0.13</v>
+      </c>
+      <c r="K186" s="92">
+        <v>105.96230614958267</v>
+      </c>
+      <c r="L186" s="92">
+        <v>30</v>
+      </c>
+      <c r="M186" s="92">
+        <v>5.3396712328767126</v>
+      </c>
+      <c r="N186" s="99">
+        <v>100.62263491670596</v>
+      </c>
+      <c r="O186" s="92">
+        <v>14765</v>
+      </c>
+      <c r="P186" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q186" s="92">
+        <v>1</v>
+      </c>
+      <c r="R186" s="92" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -10658,10 +11176,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="147"/>
+      <c r="C1" s="149"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -10791,20 +11309,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -10816,32 +11334,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24" t="e">
+      <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24" t="e">
+      <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R8" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="S8" s="26" t="e">
         <f>R8/H8</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U8" s="24" t="e">
+      <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -10873,11 +11391,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -10943,11 +11461,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -11682,10 +12200,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="142"/>
+      <c r="C1" s="140"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11695,62 +12213,62 @@
       <c r="C3" s="141"/>
       <c r="D3" s="141"/>
       <c r="E3" s="141"/>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
       <c r="L3" s="141" t="s">
         <v>165</v>
       </c>
       <c r="M3" s="141"/>
       <c r="N3" s="141"/>
       <c r="O3" s="141"/>
-      <c r="Q3" s="140" t="s">
+      <c r="Q3" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="G4" s="133" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="G4" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="L4" s="133" t="s">
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="L4" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="Q4" s="133" t="s">
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="Q4" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="137"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="143"/>
       <c r="E5" s="144"/>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="137"/>
+      <c r="H5" s="139"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104"/>
       <c r="L5" s="101" t="s">
@@ -11759,312 +12277,312 @@
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
       <c r="O5" s="104"/>
-      <c r="Q5" s="137" t="s">
+      <c r="Q5" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="137"/>
+      <c r="R5" s="139"/>
       <c r="S5" s="103"/>
       <c r="T5" s="104"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138" t="s">
+      <c r="C6" s="139"/>
+      <c r="D6" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="G6" s="137" t="s">
+      <c r="E6" s="138"/>
+      <c r="G6" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
-      <c r="L6" s="137" t="s">
+      <c r="H6" s="139"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
+      <c r="L6" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="137"/>
-      <c r="N6" s="138" t="s">
+      <c r="M6" s="139"/>
+      <c r="N6" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="139"/>
-      <c r="Q6" s="137" t="s">
+      <c r="O6" s="138"/>
+      <c r="Q6" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="137"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="138"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="G7" s="137" t="s">
+      <c r="E7" s="138"/>
+      <c r="G7" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
-      <c r="L7" s="137" t="s">
+      <c r="H7" s="139"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
+      <c r="L7" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="137"/>
-      <c r="N7" s="138" t="s">
+      <c r="M7" s="139"/>
+      <c r="N7" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="139"/>
-      <c r="Q7" s="137" t="s">
+      <c r="O7" s="138"/>
+      <c r="Q7" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="137"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="138"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138">
+      <c r="C8" s="139"/>
+      <c r="D8" s="137">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="G8" s="137" t="s">
+      <c r="E8" s="138"/>
+      <c r="G8" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="139"/>
-      <c r="L8" s="137" t="s">
+      <c r="H8" s="139"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
+      <c r="L8" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="137"/>
-      <c r="N8" s="138">
+      <c r="M8" s="139"/>
+      <c r="N8" s="137">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="139"/>
-      <c r="Q8" s="137" t="s">
+      <c r="O8" s="138"/>
+      <c r="Q8" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="137"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="138"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="138" t="s">
+      <c r="C9" s="139"/>
+      <c r="D9" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="G9" s="137" t="s">
+      <c r="E9" s="138"/>
+      <c r="G9" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="139"/>
-      <c r="L9" s="137" t="s">
+      <c r="H9" s="139"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
+      <c r="L9" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="137"/>
-      <c r="N9" s="138" t="s">
+      <c r="M9" s="139"/>
+      <c r="N9" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="139"/>
-      <c r="Q9" s="137" t="s">
+      <c r="O9" s="138"/>
+      <c r="Q9" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="137"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="139"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="138"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138">
+      <c r="C10" s="139"/>
+      <c r="D10" s="137">
         <v>43084</v>
       </c>
-      <c r="E10" s="139"/>
+      <c r="E10" s="138"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
-      <c r="L10" s="137" t="s">
+      <c r="I10" s="137"/>
+      <c r="J10" s="138"/>
+      <c r="L10" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="137"/>
-      <c r="N10" s="138">
+      <c r="M10" s="139"/>
+      <c r="N10" s="137">
         <v>43084</v>
       </c>
-      <c r="O10" s="139"/>
+      <c r="O10" s="138"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="139"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="138"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138">
+      <c r="C11" s="139"/>
+      <c r="D11" s="137">
         <v>3935</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="G11" s="137" t="s">
+      <c r="E11" s="138"/>
+      <c r="G11" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
-      <c r="L11" s="137" t="s">
+      <c r="H11" s="139"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
+      <c r="L11" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="137"/>
-      <c r="N11" s="138">
+      <c r="M11" s="139"/>
+      <c r="N11" s="137">
         <v>3935</v>
       </c>
-      <c r="O11" s="139"/>
-      <c r="Q11" s="137" t="s">
+      <c r="O11" s="138"/>
+      <c r="Q11" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="137"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="139"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="138"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="138">
+      <c r="C12" s="139"/>
+      <c r="D12" s="137">
         <v>3800</v>
       </c>
-      <c r="E12" s="139"/>
-      <c r="G12" s="137" t="s">
+      <c r="E12" s="138"/>
+      <c r="G12" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="137"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
-      <c r="L12" s="137" t="s">
+      <c r="H12" s="139"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138"/>
+      <c r="L12" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="137"/>
-      <c r="N12" s="138">
+      <c r="M12" s="139"/>
+      <c r="N12" s="137">
         <v>3800</v>
       </c>
-      <c r="O12" s="139"/>
-      <c r="Q12" s="137" t="s">
+      <c r="O12" s="138"/>
+      <c r="Q12" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="137"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="139"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="138"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="138">
+      <c r="C13" s="139"/>
+      <c r="D13" s="137">
         <v>61</v>
       </c>
-      <c r="E13" s="139"/>
-      <c r="G13" s="137" t="s">
+      <c r="E13" s="138"/>
+      <c r="G13" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="139"/>
-      <c r="L13" s="137" t="s">
+      <c r="H13" s="139"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
+      <c r="L13" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="137"/>
-      <c r="N13" s="138">
+      <c r="M13" s="139"/>
+      <c r="N13" s="137">
         <v>3800</v>
       </c>
-      <c r="O13" s="139"/>
-      <c r="Q13" s="137" t="s">
+      <c r="O13" s="138"/>
+      <c r="Q13" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="137"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="138"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="138" t="s">
+      <c r="C14" s="139"/>
+      <c r="D14" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="G14" s="137" t="s">
+      <c r="E14" s="138"/>
+      <c r="G14" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="137"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="106"/>
       <c r="J14" s="107"/>
-      <c r="L14" s="137" t="s">
+      <c r="L14" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="137"/>
-      <c r="N14" s="138">
+      <c r="M14" s="139"/>
+      <c r="N14" s="137">
         <v>61</v>
       </c>
-      <c r="O14" s="139"/>
-      <c r="Q14" s="137" t="s">
+      <c r="O14" s="138"/>
+      <c r="Q14" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="137"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="138"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138">
+      <c r="C15" s="139"/>
+      <c r="D15" s="137">
         <v>5000</v>
       </c>
-      <c r="E15" s="139"/>
-      <c r="G15" s="137" t="s">
+      <c r="E15" s="138"/>
+      <c r="G15" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="139"/>
-      <c r="L15" s="137" t="s">
+      <c r="H15" s="139"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="138"/>
+      <c r="L15" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="137"/>
-      <c r="N15" s="138" t="s">
+      <c r="M15" s="139"/>
+      <c r="N15" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="139"/>
-      <c r="Q15" s="137" t="s">
+      <c r="O15" s="138"/>
+      <c r="Q15" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="137"/>
+      <c r="R15" s="139"/>
       <c r="S15" s="106"/>
       <c r="T15" s="107"/>
     </row>
@@ -12083,20 +12601,20 @@
       <c r="H16" s="134"/>
       <c r="I16" s="135"/>
       <c r="J16" s="136"/>
-      <c r="L16" s="137" t="s">
+      <c r="L16" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="137"/>
-      <c r="N16" s="138">
+      <c r="M16" s="139"/>
+      <c r="N16" s="137">
         <v>5000</v>
       </c>
-      <c r="O16" s="139"/>
-      <c r="Q16" s="137" t="s">
+      <c r="O16" s="138"/>
+      <c r="Q16" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="137"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="138"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L17" s="134" t="s">
@@ -12142,2151 +12660,2193 @@
       <c r="Y21" s="109"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="G22" s="130" t="s">
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="G22" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="L22" s="133" t="s">
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="L22" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="Q22" s="130" t="s">
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="Q22" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="R22" s="130"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
-      <c r="V22" s="133" t="s">
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="V22" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
+      <c r="W22" s="142"/>
+      <c r="X22" s="142"/>
+      <c r="Y22" s="142"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="129">
+      <c r="C23" s="125"/>
+      <c r="D23" s="131">
         <v>43209</v>
       </c>
-      <c r="E23" s="131"/>
-      <c r="G23" s="123" t="s">
+      <c r="E23" s="133"/>
+      <c r="G23" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="123"/>
-      <c r="I23" s="129">
+      <c r="H23" s="125"/>
+      <c r="I23" s="131">
         <f ca="1">TODAY()</f>
+        <v>43250</v>
+      </c>
+      <c r="J23" s="133"/>
+      <c r="L23" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="125"/>
+      <c r="N23" s="131">
+        <f ca="1">TODAY()</f>
+        <v>43250</v>
+      </c>
+      <c r="O23" s="133"/>
+      <c r="Q23" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="R23" s="125"/>
+      <c r="S23" s="131">
+        <f ca="1">TODAY()-1</f>
         <v>43249</v>
       </c>
-      <c r="J23" s="131"/>
-      <c r="L23" s="123" t="s">
+      <c r="T23" s="133"/>
+      <c r="V23" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="123"/>
-      <c r="N23" s="129">
-        <f ca="1">TODAY()</f>
+      <c r="W23" s="125"/>
+      <c r="X23" s="131">
+        <f ca="1">TODAY()-1</f>
         <v>43249</v>
       </c>
-      <c r="O23" s="131"/>
-      <c r="Q23" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="R23" s="123"/>
-      <c r="S23" s="129">
-        <f ca="1">TODAY()-1</f>
-        <v>43248</v>
-      </c>
-      <c r="T23" s="131"/>
-      <c r="V23" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="W23" s="123"/>
-      <c r="X23" s="129">
-        <f ca="1">TODAY()-1</f>
-        <v>43248</v>
-      </c>
-      <c r="Y23" s="131"/>
+      <c r="Y23" s="133"/>
     </row>
     <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="124" t="s">
+      <c r="C24" s="125"/>
+      <c r="D24" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="125"/>
-      <c r="G24" s="123" t="s">
+      <c r="E24" s="127"/>
+      <c r="G24" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="123"/>
-      <c r="I24" s="124" t="s">
+      <c r="H24" s="125"/>
+      <c r="I24" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="125"/>
-      <c r="L24" s="123" t="s">
+      <c r="J24" s="127"/>
+      <c r="L24" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="123"/>
-      <c r="N24" s="124" t="s">
+      <c r="M24" s="125"/>
+      <c r="N24" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="125"/>
-      <c r="Q24" s="123" t="s">
+      <c r="O24" s="127"/>
+      <c r="Q24" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="R24" s="123"/>
-      <c r="S24" s="124" t="s">
+      <c r="R24" s="125"/>
+      <c r="S24" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="125"/>
-      <c r="V24" s="123" t="s">
+      <c r="T24" s="127"/>
+      <c r="V24" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="W24" s="123"/>
-      <c r="X24" s="124" t="s">
+      <c r="W24" s="125"/>
+      <c r="X24" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="Y24" s="125"/>
+      <c r="Y24" s="127"/>
     </row>
     <row r="25" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124" t="s">
+      <c r="C25" s="125"/>
+      <c r="D25" s="126" t="s">
         <v>222</v>
       </c>
-      <c r="E25" s="125"/>
-      <c r="G25" s="123" t="s">
+      <c r="E25" s="127"/>
+      <c r="G25" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124" t="s">
+      <c r="H25" s="125"/>
+      <c r="I25" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="125"/>
-      <c r="L25" s="123" t="s">
+      <c r="J25" s="127"/>
+      <c r="L25" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="M25" s="123"/>
-      <c r="N25" s="124" t="s">
+      <c r="M25" s="125"/>
+      <c r="N25" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="O25" s="125"/>
-      <c r="Q25" s="123" t="s">
+      <c r="O25" s="127"/>
+      <c r="Q25" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="R25" s="123"/>
-      <c r="S25" s="124" t="s">
+      <c r="R25" s="125"/>
+      <c r="S25" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="T25" s="125"/>
-      <c r="V25" s="123" t="s">
+      <c r="T25" s="127"/>
+      <c r="V25" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="W25" s="123"/>
-      <c r="X25" s="124" t="s">
+      <c r="W25" s="125"/>
+      <c r="X25" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="Y25" s="125"/>
+      <c r="Y25" s="127"/>
     </row>
     <row r="26" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="D26" s="124">
+      <c r="C26" s="125"/>
+      <c r="D26" s="126">
         <f>D31*D33</f>
         <v>290000</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="G26" s="123" t="s">
+      <c r="E26" s="127"/>
+      <c r="G26" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124">
+      <c r="H26" s="125"/>
+      <c r="I26" s="126">
         <f>I31*I33</f>
         <v>271800</v>
       </c>
-      <c r="J26" s="125"/>
-      <c r="L26" s="123" t="s">
+      <c r="J26" s="127"/>
+      <c r="L26" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="M26" s="123"/>
-      <c r="N26" s="124">
+      <c r="M26" s="125"/>
+      <c r="N26" s="126">
         <f>N31*N33</f>
         <v>275000</v>
       </c>
-      <c r="O26" s="125"/>
-      <c r="Q26" s="123" t="s">
+      <c r="O26" s="127"/>
+      <c r="Q26" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="R26" s="123"/>
-      <c r="S26" s="124">
+      <c r="R26" s="125"/>
+      <c r="S26" s="126">
         <f>S31*S33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="T26" s="125"/>
-      <c r="V26" s="123" t="s">
+      <c r="T26" s="127"/>
+      <c r="V26" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="W26" s="123"/>
-      <c r="X26" s="124">
+      <c r="W26" s="125"/>
+      <c r="X26" s="126">
         <f>X31*X33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="Y26" s="125"/>
+      <c r="Y26" s="127"/>
     </row>
     <row r="27" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124" t="s">
+      <c r="C27" s="125"/>
+      <c r="D27" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="125"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="100">
         <f>1160*250</f>
         <v>290000</v>
       </c>
-      <c r="G27" s="123" t="s">
+      <c r="G27" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="123"/>
-      <c r="I27" s="124" t="s">
+      <c r="H27" s="125"/>
+      <c r="I27" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="J27" s="125"/>
-      <c r="L27" s="123" t="s">
+      <c r="J27" s="127"/>
+      <c r="L27" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="123"/>
-      <c r="N27" s="124" t="s">
+      <c r="M27" s="125"/>
+      <c r="N27" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="125"/>
-      <c r="Q27" s="123" t="s">
+      <c r="O27" s="127"/>
+      <c r="Q27" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="R27" s="123"/>
-      <c r="S27" s="124" t="s">
+      <c r="R27" s="125"/>
+      <c r="S27" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="T27" s="125"/>
-      <c r="V27" s="123" t="s">
+      <c r="T27" s="127"/>
+      <c r="V27" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="W27" s="123"/>
-      <c r="X27" s="124" t="s">
+      <c r="W27" s="125"/>
+      <c r="X27" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="Y27" s="125"/>
+      <c r="Y27" s="127"/>
     </row>
     <row r="28" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="129">
+      <c r="C28" s="125"/>
+      <c r="D28" s="131">
         <v>43222</v>
       </c>
-      <c r="E28" s="125"/>
-      <c r="G28" s="123" t="s">
+      <c r="E28" s="127"/>
+      <c r="G28" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="123"/>
-      <c r="I28" s="129">
+      <c r="H28" s="125"/>
+      <c r="I28" s="131">
         <v>43182</v>
       </c>
-      <c r="J28" s="125"/>
-      <c r="L28" s="123" t="s">
+      <c r="J28" s="127"/>
+      <c r="L28" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="123"/>
-      <c r="N28" s="129">
+      <c r="M28" s="125"/>
+      <c r="N28" s="131">
         <v>43219</v>
       </c>
-      <c r="O28" s="125"/>
-      <c r="Q28" s="123" t="s">
+      <c r="O28" s="127"/>
+      <c r="Q28" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="R28" s="123"/>
-      <c r="S28" s="129">
+      <c r="R28" s="125"/>
+      <c r="S28" s="131">
         <v>43201</v>
       </c>
-      <c r="T28" s="125"/>
-      <c r="V28" s="123" t="s">
+      <c r="T28" s="127"/>
+      <c r="V28" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="W28" s="123"/>
-      <c r="X28" s="129">
+      <c r="W28" s="125"/>
+      <c r="X28" s="131">
         <v>43201</v>
       </c>
-      <c r="Y28" s="125"/>
+      <c r="Y28" s="127"/>
     </row>
     <row r="29" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124">
+      <c r="C29" s="125"/>
+      <c r="D29" s="126">
         <v>108500</v>
       </c>
-      <c r="E29" s="125"/>
-      <c r="G29" s="123" t="s">
+      <c r="E29" s="127"/>
+      <c r="G29" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="123"/>
-      <c r="I29" s="124">
+      <c r="H29" s="125"/>
+      <c r="I29" s="126">
         <v>3856</v>
       </c>
-      <c r="J29" s="125"/>
-      <c r="L29" s="123" t="s">
+      <c r="J29" s="127"/>
+      <c r="L29" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="123"/>
-      <c r="N29" s="124">
+      <c r="M29" s="125"/>
+      <c r="N29" s="126">
         <v>3760</v>
       </c>
-      <c r="O29" s="125"/>
-      <c r="Q29" s="123" t="s">
+      <c r="O29" s="127"/>
+      <c r="Q29" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="R29" s="123"/>
-      <c r="S29" s="124">
+      <c r="R29" s="125"/>
+      <c r="S29" s="126">
         <v>524</v>
       </c>
-      <c r="T29" s="125"/>
-      <c r="V29" s="123" t="s">
+      <c r="T29" s="127"/>
+      <c r="V29" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="W29" s="123"/>
-      <c r="X29" s="124">
+      <c r="W29" s="125"/>
+      <c r="X29" s="126">
         <v>524</v>
       </c>
-      <c r="Y29" s="125"/>
+      <c r="Y29" s="127"/>
     </row>
     <row r="30" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124">
+      <c r="C30" s="125"/>
+      <c r="D30" s="126">
         <v>110000</v>
       </c>
-      <c r="E30" s="125"/>
-      <c r="G30" s="123" t="s">
+      <c r="E30" s="127"/>
+      <c r="G30" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="123"/>
-      <c r="I30" s="124">
+      <c r="H30" s="125"/>
+      <c r="I30" s="126">
         <v>3930</v>
       </c>
-      <c r="J30" s="125"/>
-      <c r="L30" s="123" t="s">
+      <c r="J30" s="127"/>
+      <c r="L30" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="123"/>
-      <c r="N30" s="124">
+      <c r="M30" s="125"/>
+      <c r="N30" s="126">
         <v>3700</v>
       </c>
-      <c r="O30" s="125"/>
-      <c r="Q30" s="123" t="s">
+      <c r="O30" s="127"/>
+      <c r="Q30" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="R30" s="123"/>
-      <c r="S30" s="124">
+      <c r="R30" s="125"/>
+      <c r="S30" s="126">
         <v>524</v>
       </c>
-      <c r="T30" s="125"/>
-      <c r="V30" s="123" t="s">
+      <c r="T30" s="127"/>
+      <c r="V30" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="W30" s="123"/>
-      <c r="X30" s="124">
+      <c r="W30" s="125"/>
+      <c r="X30" s="126">
         <v>524</v>
       </c>
-      <c r="Y30" s="125"/>
+      <c r="Y30" s="127"/>
     </row>
     <row r="31" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124">
+      <c r="C31" s="125"/>
+      <c r="D31" s="126">
         <v>1160</v>
       </c>
-      <c r="E31" s="125"/>
-      <c r="G31" s="123" t="s">
+      <c r="E31" s="127"/>
+      <c r="G31" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="124">
+      <c r="H31" s="125"/>
+      <c r="I31" s="126">
         <v>27.18</v>
       </c>
-      <c r="J31" s="125"/>
-      <c r="L31" s="123" t="s">
+      <c r="J31" s="127"/>
+      <c r="L31" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="123"/>
-      <c r="N31" s="124">
+      <c r="M31" s="125"/>
+      <c r="N31" s="126">
         <v>55</v>
       </c>
-      <c r="O31" s="125"/>
-      <c r="Q31" s="123" t="s">
+      <c r="O31" s="127"/>
+      <c r="Q31" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="123"/>
-      <c r="S31" s="124">
+      <c r="R31" s="125"/>
+      <c r="S31" s="126">
         <v>23.58</v>
       </c>
-      <c r="T31" s="125"/>
-      <c r="V31" s="123" t="s">
+      <c r="T31" s="127"/>
+      <c r="V31" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="W31" s="123"/>
-      <c r="X31" s="124">
+      <c r="W31" s="125"/>
+      <c r="X31" s="126">
         <v>23.58</v>
       </c>
-      <c r="Y31" s="125"/>
+      <c r="Y31" s="127"/>
     </row>
     <row r="32" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124" t="s">
+      <c r="C32" s="125"/>
+      <c r="D32" s="126" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="125"/>
-      <c r="G32" s="123" t="s">
+      <c r="E32" s="127"/>
+      <c r="G32" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="124" t="s">
+      <c r="H32" s="125"/>
+      <c r="I32" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="J32" s="125"/>
-      <c r="L32" s="123" t="s">
+      <c r="J32" s="127"/>
+      <c r="L32" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="124" t="s">
+      <c r="M32" s="125"/>
+      <c r="N32" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="O32" s="125"/>
-      <c r="Q32" s="123" t="s">
+      <c r="O32" s="127"/>
+      <c r="Q32" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="123"/>
-      <c r="S32" s="124" t="s">
+      <c r="R32" s="125"/>
+      <c r="S32" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="T32" s="125"/>
-      <c r="V32" s="123" t="s">
+      <c r="T32" s="127"/>
+      <c r="V32" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="W32" s="123"/>
-      <c r="X32" s="124" t="s">
+      <c r="W32" s="125"/>
+      <c r="X32" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="Y32" s="125"/>
+      <c r="Y32" s="127"/>
     </row>
     <row r="33" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124">
+      <c r="C33" s="125"/>
+      <c r="D33" s="126">
         <v>250</v>
       </c>
-      <c r="E33" s="125"/>
-      <c r="G33" s="123" t="s">
+      <c r="E33" s="127"/>
+      <c r="G33" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="124">
+      <c r="H33" s="125"/>
+      <c r="I33" s="126">
         <v>10000</v>
       </c>
-      <c r="J33" s="125"/>
-      <c r="L33" s="123" t="s">
+      <c r="J33" s="127"/>
+      <c r="L33" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="123"/>
-      <c r="N33" s="124">
+      <c r="M33" s="125"/>
+      <c r="N33" s="126">
         <v>5000</v>
       </c>
-      <c r="O33" s="125"/>
-      <c r="Q33" s="123" t="s">
+      <c r="O33" s="127"/>
+      <c r="Q33" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="R33" s="123"/>
-      <c r="S33" s="124">
+      <c r="R33" s="125"/>
+      <c r="S33" s="126">
         <v>10000</v>
       </c>
-      <c r="T33" s="125"/>
-      <c r="V33" s="123" t="s">
+      <c r="T33" s="127"/>
+      <c r="V33" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="W33" s="123"/>
-      <c r="X33" s="124">
+      <c r="W33" s="125"/>
+      <c r="X33" s="126">
         <v>10000</v>
       </c>
-      <c r="Y33" s="125"/>
+      <c r="Y33" s="127"/>
     </row>
     <row r="34" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="126" t="s">
+      <c r="B34" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="D34" s="127" t="s">
+      <c r="C34" s="128"/>
+      <c r="D34" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="128"/>
-      <c r="G34" s="126" t="s">
+      <c r="E34" s="130"/>
+      <c r="G34" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="126"/>
-      <c r="I34" s="127" t="s">
+      <c r="H34" s="128"/>
+      <c r="I34" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="128"/>
-      <c r="L34" s="126" t="s">
+      <c r="J34" s="130"/>
+      <c r="L34" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="126"/>
-      <c r="N34" s="127" t="s">
+      <c r="M34" s="128"/>
+      <c r="N34" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="O34" s="128"/>
-      <c r="Q34" s="126" t="s">
+      <c r="O34" s="130"/>
+      <c r="Q34" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="R34" s="126"/>
-      <c r="S34" s="127" t="s">
+      <c r="R34" s="128"/>
+      <c r="S34" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="T34" s="128"/>
-      <c r="V34" s="126" t="s">
+      <c r="T34" s="130"/>
+      <c r="V34" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="W34" s="126"/>
-      <c r="X34" s="127" t="s">
+      <c r="W34" s="128"/>
+      <c r="X34" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="Y34" s="128"/>
+      <c r="Y34" s="130"/>
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="G36" s="130" t="s">
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="G36" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="L36" s="130" t="s">
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="L36" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="Q36" s="130" t="s">
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="132"/>
+      <c r="Q36" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="130"/>
+      <c r="R36" s="132"/>
+      <c r="S36" s="132"/>
+      <c r="T36" s="132"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="129">
+      <c r="C37" s="125"/>
+      <c r="D37" s="131">
         <v>43229</v>
       </c>
-      <c r="E37" s="131"/>
-      <c r="G37" s="123" t="s">
+      <c r="E37" s="133"/>
+      <c r="G37" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="123"/>
-      <c r="I37" s="129">
+      <c r="H37" s="125"/>
+      <c r="I37" s="131">
         <v>43229</v>
       </c>
-      <c r="J37" s="131"/>
-      <c r="L37" s="123" t="s">
+      <c r="J37" s="133"/>
+      <c r="L37" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="123"/>
-      <c r="N37" s="129">
+      <c r="M37" s="125"/>
+      <c r="N37" s="131">
         <v>43214</v>
       </c>
-      <c r="O37" s="131"/>
-      <c r="Q37" s="123" t="s">
+      <c r="O37" s="133"/>
+      <c r="Q37" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="R37" s="123"/>
-      <c r="S37" s="129">
+      <c r="R37" s="125"/>
+      <c r="S37" s="131">
         <v>43209</v>
       </c>
-      <c r="T37" s="131"/>
+      <c r="T37" s="133"/>
     </row>
     <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="124" t="s">
+      <c r="C38" s="125"/>
+      <c r="D38" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="E38" s="125"/>
-      <c r="G38" s="123" t="s">
+      <c r="E38" s="127"/>
+      <c r="G38" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="123"/>
-      <c r="I38" s="124" t="s">
+      <c r="H38" s="125"/>
+      <c r="I38" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="125"/>
-      <c r="L38" s="123" t="s">
+      <c r="J38" s="127"/>
+      <c r="L38" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="123"/>
-      <c r="N38" s="124" t="s">
+      <c r="M38" s="125"/>
+      <c r="N38" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="O38" s="125"/>
-      <c r="Q38" s="123" t="s">
+      <c r="O38" s="127"/>
+      <c r="Q38" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="R38" s="123"/>
-      <c r="S38" s="124" t="s">
+      <c r="R38" s="125"/>
+      <c r="S38" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="T38" s="125"/>
+      <c r="T38" s="127"/>
     </row>
     <row r="39" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="124" t="s">
+      <c r="C39" s="125"/>
+      <c r="D39" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="125"/>
-      <c r="G39" s="123" t="s">
+      <c r="E39" s="127"/>
+      <c r="G39" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="123"/>
-      <c r="I39" s="124" t="s">
+      <c r="H39" s="125"/>
+      <c r="I39" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="J39" s="125"/>
-      <c r="L39" s="123" t="s">
+      <c r="J39" s="127"/>
+      <c r="L39" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="M39" s="123"/>
-      <c r="N39" s="124" t="s">
+      <c r="M39" s="125"/>
+      <c r="N39" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="O39" s="125"/>
-      <c r="Q39" s="123" t="s">
+      <c r="O39" s="127"/>
+      <c r="Q39" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="R39" s="123"/>
-      <c r="S39" s="124" t="s">
+      <c r="R39" s="125"/>
+      <c r="S39" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="T39" s="125"/>
+      <c r="T39" s="127"/>
     </row>
     <row r="40" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="123" t="s">
+      <c r="B40" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="123"/>
-      <c r="D40" s="124">
+      <c r="C40" s="125"/>
+      <c r="D40" s="126">
         <f>D47*D45</f>
         <v>410500.00000000006</v>
       </c>
-      <c r="E40" s="125"/>
-      <c r="G40" s="123" t="s">
+      <c r="E40" s="127"/>
+      <c r="G40" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="123"/>
-      <c r="I40" s="124">
+      <c r="H40" s="125"/>
+      <c r="I40" s="126">
         <f>I45*I47</f>
         <v>410500.00000000006</v>
       </c>
-      <c r="J40" s="125"/>
-      <c r="L40" s="123" t="s">
+      <c r="J40" s="127"/>
+      <c r="L40" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="M40" s="123"/>
-      <c r="N40" s="124">
+      <c r="M40" s="125"/>
+      <c r="N40" s="126">
         <f>N45*N47</f>
         <v>2117500</v>
       </c>
-      <c r="O40" s="125"/>
-      <c r="Q40" s="123" t="s">
+      <c r="O40" s="127"/>
+      <c r="Q40" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="R40" s="123"/>
-      <c r="S40" s="124">
+      <c r="R40" s="125"/>
+      <c r="S40" s="126">
         <f>S45*S47</f>
         <v>1045200</v>
       </c>
-      <c r="T40" s="125"/>
+      <c r="T40" s="127"/>
     </row>
     <row r="41" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="D41" s="124" t="s">
+      <c r="C41" s="125"/>
+      <c r="D41" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="E41" s="125"/>
-      <c r="G41" s="123" t="s">
+      <c r="E41" s="127"/>
+      <c r="G41" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="123"/>
-      <c r="I41" s="124" t="s">
+      <c r="H41" s="125"/>
+      <c r="I41" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="J41" s="125"/>
-      <c r="L41" s="123" t="s">
+      <c r="J41" s="127"/>
+      <c r="L41" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="M41" s="123"/>
-      <c r="N41" s="124" t="s">
+      <c r="M41" s="125"/>
+      <c r="N41" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="O41" s="125"/>
-      <c r="Q41" s="123" t="s">
+      <c r="O41" s="127"/>
+      <c r="Q41" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="R41" s="123"/>
-      <c r="S41" s="124" t="s">
+      <c r="R41" s="125"/>
+      <c r="S41" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="T41" s="125"/>
+      <c r="T41" s="127"/>
     </row>
     <row r="42" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="123"/>
-      <c r="D42" s="129">
+      <c r="C42" s="125"/>
+      <c r="D42" s="131">
         <f>D37+98</f>
         <v>43327</v>
       </c>
-      <c r="E42" s="125"/>
-      <c r="G42" s="123" t="s">
+      <c r="E42" s="127"/>
+      <c r="G42" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="123"/>
-      <c r="I42" s="129">
+      <c r="H42" s="125"/>
+      <c r="I42" s="131">
         <f>I37+98</f>
         <v>43327</v>
       </c>
-      <c r="J42" s="125"/>
-      <c r="L42" s="123" t="s">
+      <c r="J42" s="127"/>
+      <c r="L42" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="M42" s="123"/>
-      <c r="N42" s="129">
+      <c r="M42" s="125"/>
+      <c r="N42" s="131">
         <v>43266</v>
       </c>
-      <c r="O42" s="125"/>
-      <c r="Q42" s="123" t="s">
+      <c r="O42" s="127"/>
+      <c r="Q42" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="R42" s="123"/>
-      <c r="S42" s="129">
+      <c r="R42" s="125"/>
+      <c r="S42" s="131">
         <v>43266</v>
       </c>
-      <c r="T42" s="125"/>
+      <c r="T42" s="127"/>
     </row>
     <row r="43" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="123" t="s">
+      <c r="B43" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="123"/>
-      <c r="D43" s="124">
+      <c r="C43" s="125"/>
+      <c r="D43" s="126">
         <v>470.5</v>
       </c>
-      <c r="E43" s="125"/>
-      <c r="G43" s="123" t="s">
+      <c r="E43" s="127"/>
+      <c r="G43" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="H43" s="123"/>
-      <c r="I43" s="124">
+      <c r="H43" s="125"/>
+      <c r="I43" s="126">
         <v>470.5</v>
       </c>
-      <c r="J43" s="125"/>
-      <c r="L43" s="123" t="s">
+      <c r="J43" s="127"/>
+      <c r="L43" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="132"/>
-      <c r="N43" s="124">
+      <c r="M43" s="146"/>
+      <c r="N43" s="126">
         <v>14535</v>
       </c>
-      <c r="O43" s="125"/>
-      <c r="Q43" s="123" t="s">
+      <c r="O43" s="127"/>
+      <c r="Q43" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="R43" s="123"/>
-      <c r="S43" s="124">
+      <c r="R43" s="125"/>
+      <c r="S43" s="126">
         <v>15250</v>
       </c>
-      <c r="T43" s="125"/>
+      <c r="T43" s="127"/>
     </row>
     <row r="44" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="123" t="s">
+      <c r="B44" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="123"/>
-      <c r="D44" s="124">
+      <c r="C44" s="125"/>
+      <c r="D44" s="126">
         <v>470.5</v>
       </c>
-      <c r="E44" s="125"/>
+      <c r="E44" s="127"/>
       <c r="F44" s="100">
         <f>D44*1.55/100</f>
         <v>7.2927499999999998</v>
       </c>
-      <c r="G44" s="123" t="s">
+      <c r="G44" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="123"/>
-      <c r="I44" s="124">
+      <c r="H44" s="125"/>
+      <c r="I44" s="126">
         <v>470.5</v>
       </c>
-      <c r="J44" s="125"/>
-      <c r="L44" s="123" t="s">
+      <c r="J44" s="127"/>
+      <c r="L44" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="M44" s="123"/>
-      <c r="N44" s="124">
+      <c r="M44" s="125"/>
+      <c r="N44" s="126">
         <v>14500</v>
       </c>
-      <c r="O44" s="125"/>
-      <c r="Q44" s="123" t="s">
+      <c r="O44" s="127"/>
+      <c r="Q44" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="R44" s="123"/>
-      <c r="S44" s="124">
+      <c r="R44" s="125"/>
+      <c r="S44" s="126">
         <v>14500</v>
       </c>
-      <c r="T44" s="125"/>
+      <c r="T44" s="127"/>
     </row>
     <row r="45" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124">
+      <c r="C45" s="125"/>
+      <c r="D45" s="126">
         <v>32.840000000000003</v>
       </c>
-      <c r="E45" s="125"/>
-      <c r="G45" s="123" t="s">
+      <c r="E45" s="127"/>
+      <c r="G45" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="H45" s="123"/>
-      <c r="I45" s="124">
+      <c r="H45" s="125"/>
+      <c r="I45" s="126">
         <v>32.840000000000003</v>
       </c>
-      <c r="J45" s="125"/>
-      <c r="L45" s="123" t="s">
+      <c r="J45" s="127"/>
+      <c r="L45" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="M45" s="123"/>
-      <c r="N45" s="124">
+      <c r="M45" s="125"/>
+      <c r="N45" s="126">
         <v>423.5</v>
       </c>
-      <c r="O45" s="125"/>
-      <c r="Q45" s="123" t="s">
+      <c r="O45" s="127"/>
+      <c r="Q45" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="R45" s="123"/>
-      <c r="S45" s="124">
+      <c r="R45" s="125"/>
+      <c r="S45" s="126">
         <v>209.04</v>
       </c>
-      <c r="T45" s="125"/>
+      <c r="T45" s="127"/>
     </row>
     <row r="46" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="123"/>
-      <c r="D46" s="124" t="s">
+      <c r="C46" s="125"/>
+      <c r="D46" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="125"/>
-      <c r="G46" s="123" t="s">
+      <c r="E46" s="127"/>
+      <c r="G46" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="123"/>
-      <c r="I46" s="124" t="s">
+      <c r="H46" s="125"/>
+      <c r="I46" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="J46" s="125"/>
-      <c r="L46" s="123" t="s">
+      <c r="J46" s="127"/>
+      <c r="L46" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="M46" s="123"/>
-      <c r="N46" s="124" t="s">
+      <c r="M46" s="125"/>
+      <c r="N46" s="126" t="s">
         <v>210</v>
       </c>
-      <c r="O46" s="125"/>
-      <c r="Q46" s="123" t="s">
+      <c r="O46" s="127"/>
+      <c r="Q46" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="R46" s="123"/>
-      <c r="S46" s="124" t="s">
+      <c r="R46" s="125"/>
+      <c r="S46" s="126" t="s">
         <v>220</v>
       </c>
-      <c r="T46" s="125"/>
+      <c r="T46" s="127"/>
     </row>
     <row r="47" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="123"/>
-      <c r="D47" s="124">
+      <c r="C47" s="125"/>
+      <c r="D47" s="126">
         <v>12500</v>
       </c>
-      <c r="E47" s="125"/>
-      <c r="G47" s="123" t="s">
+      <c r="E47" s="127"/>
+      <c r="G47" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="123"/>
-      <c r="I47" s="124">
+      <c r="H47" s="125"/>
+      <c r="I47" s="126">
         <v>12500</v>
       </c>
-      <c r="J47" s="125"/>
-      <c r="L47" s="123" t="s">
+      <c r="J47" s="127"/>
+      <c r="L47" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="M47" s="123"/>
-      <c r="N47" s="124">
+      <c r="M47" s="125"/>
+      <c r="N47" s="126">
         <v>5000</v>
       </c>
-      <c r="O47" s="125"/>
-      <c r="Q47" s="123" t="s">
+      <c r="O47" s="127"/>
+      <c r="Q47" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="R47" s="123"/>
-      <c r="S47" s="124">
+      <c r="R47" s="125"/>
+      <c r="S47" s="126">
         <v>5000</v>
       </c>
-      <c r="T47" s="125"/>
+      <c r="T47" s="127"/>
     </row>
     <row r="48" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="126" t="s">
+      <c r="B48" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="126"/>
-      <c r="D48" s="127" t="s">
+      <c r="C48" s="128"/>
+      <c r="D48" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="E48" s="128"/>
-      <c r="G48" s="126" t="s">
+      <c r="E48" s="130"/>
+      <c r="G48" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="126"/>
-      <c r="I48" s="127" t="s">
+      <c r="H48" s="128"/>
+      <c r="I48" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="J48" s="128"/>
-      <c r="L48" s="126" t="s">
+      <c r="J48" s="130"/>
+      <c r="L48" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="M48" s="126"/>
-      <c r="N48" s="127" t="s">
+      <c r="M48" s="128"/>
+      <c r="N48" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="O48" s="128"/>
-      <c r="Q48" s="126" t="s">
+      <c r="O48" s="130"/>
+      <c r="Q48" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="R48" s="126"/>
-      <c r="S48" s="127" t="s">
+      <c r="R48" s="128"/>
+      <c r="S48" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="T48" s="128"/>
+      <c r="T48" s="130"/>
     </row>
     <row r="49" spans="2:20" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="G49" s="130" t="s">
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="G49" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="L49" s="130" t="s">
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132"/>
+      <c r="L49" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="M49" s="130"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="Q49" s="130" t="s">
+      <c r="M49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="132"/>
+      <c r="Q49" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="R49" s="130"/>
-      <c r="S49" s="130"/>
-      <c r="T49" s="130"/>
+      <c r="R49" s="132"/>
+      <c r="S49" s="132"/>
+      <c r="T49" s="132"/>
     </row>
     <row r="50" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="123" t="s">
+      <c r="B50" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="129">
+      <c r="C50" s="125"/>
+      <c r="D50" s="131">
         <v>43235</v>
       </c>
-      <c r="E50" s="131"/>
-      <c r="G50" s="123" t="s">
+      <c r="E50" s="133"/>
+      <c r="G50" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="123"/>
-      <c r="I50" s="129">
+      <c r="H50" s="125"/>
+      <c r="I50" s="131">
         <v>43236</v>
       </c>
-      <c r="J50" s="131"/>
-      <c r="L50" s="123" t="s">
+      <c r="J50" s="133"/>
+      <c r="L50" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="M50" s="123"/>
-      <c r="N50" s="129">
+      <c r="M50" s="125"/>
+      <c r="N50" s="131">
         <v>43237</v>
       </c>
-      <c r="O50" s="131"/>
-      <c r="Q50" s="123" t="s">
+      <c r="O50" s="133"/>
+      <c r="Q50" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="R50" s="123"/>
-      <c r="S50" s="129">
+      <c r="R50" s="125"/>
+      <c r="S50" s="131">
         <v>43237</v>
       </c>
-      <c r="T50" s="131"/>
+      <c r="T50" s="133"/>
     </row>
     <row r="51" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B51" s="123" t="s">
+      <c r="B51" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="123"/>
-      <c r="D51" s="124" t="s">
+      <c r="C51" s="125"/>
+      <c r="D51" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="125"/>
-      <c r="G51" s="123" t="s">
+      <c r="E51" s="127"/>
+      <c r="G51" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="H51" s="123"/>
-      <c r="I51" s="124" t="s">
+      <c r="H51" s="125"/>
+      <c r="I51" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="J51" s="125"/>
-      <c r="L51" s="123" t="s">
+      <c r="J51" s="127"/>
+      <c r="L51" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="M51" s="123"/>
-      <c r="N51" s="124" t="s">
+      <c r="M51" s="125"/>
+      <c r="N51" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="O51" s="125"/>
-      <c r="Q51" s="123" t="s">
+      <c r="O51" s="127"/>
+      <c r="Q51" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="R51" s="123"/>
-      <c r="S51" s="124" t="s">
+      <c r="R51" s="125"/>
+      <c r="S51" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="T51" s="125"/>
+      <c r="T51" s="127"/>
     </row>
     <row r="52" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="123"/>
-      <c r="D52" s="124" t="s">
+      <c r="C52" s="125"/>
+      <c r="D52" s="126" t="s">
         <v>250</v>
       </c>
-      <c r="E52" s="125"/>
-      <c r="G52" s="123" t="s">
+      <c r="E52" s="127"/>
+      <c r="G52" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="H52" s="123"/>
-      <c r="I52" s="124" t="s">
+      <c r="H52" s="125"/>
+      <c r="I52" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="125"/>
-      <c r="L52" s="123" t="s">
+      <c r="J52" s="127"/>
+      <c r="L52" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="M52" s="123"/>
-      <c r="N52" s="124" t="s">
+      <c r="M52" s="125"/>
+      <c r="N52" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="125"/>
-      <c r="Q52" s="123" t="s">
+      <c r="O52" s="127"/>
+      <c r="Q52" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="R52" s="123"/>
-      <c r="S52" s="124" t="s">
+      <c r="R52" s="125"/>
+      <c r="S52" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="T52" s="125"/>
+      <c r="T52" s="127"/>
     </row>
     <row r="53" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="123"/>
-      <c r="D53" s="124">
+      <c r="C53" s="125"/>
+      <c r="D53" s="126">
         <f>D58*D60</f>
         <v>280000</v>
       </c>
-      <c r="E53" s="125"/>
-      <c r="G53" s="123" t="s">
+      <c r="E53" s="127"/>
+      <c r="G53" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="H53" s="123"/>
-      <c r="I53" s="124">
+      <c r="H53" s="125"/>
+      <c r="I53" s="126">
         <f>I58*I60</f>
         <v>936000</v>
       </c>
-      <c r="J53" s="125"/>
-      <c r="L53" s="123" t="s">
+      <c r="J53" s="127"/>
+      <c r="L53" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="M53" s="123"/>
-      <c r="N53" s="124">
+      <c r="M53" s="125"/>
+      <c r="N53" s="126">
         <f>N58*N60</f>
         <v>1272000</v>
       </c>
-      <c r="O53" s="125"/>
-      <c r="Q53" s="123" t="s">
+      <c r="O53" s="127"/>
+      <c r="Q53" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="R53" s="123"/>
-      <c r="S53" s="124">
+      <c r="R53" s="125"/>
+      <c r="S53" s="126">
         <f>S58*S60</f>
         <v>1230000</v>
       </c>
-      <c r="T53" s="125"/>
+      <c r="T53" s="127"/>
     </row>
     <row r="54" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B54" s="123" t="s">
+      <c r="B54" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="123"/>
-      <c r="D54" s="124" t="s">
+      <c r="C54" s="125"/>
+      <c r="D54" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="E54" s="125"/>
-      <c r="G54" s="123" t="s">
+      <c r="E54" s="127"/>
+      <c r="G54" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="H54" s="123"/>
-      <c r="I54" s="124" t="s">
+      <c r="H54" s="125"/>
+      <c r="I54" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="J54" s="125"/>
-      <c r="L54" s="123" t="s">
+      <c r="J54" s="127"/>
+      <c r="L54" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="M54" s="123"/>
-      <c r="N54" s="124" t="s">
+      <c r="M54" s="125"/>
+      <c r="N54" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="O54" s="125"/>
-      <c r="Q54" s="123" t="s">
+      <c r="O54" s="127"/>
+      <c r="Q54" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="R54" s="123"/>
-      <c r="S54" s="124" t="s">
+      <c r="R54" s="125"/>
+      <c r="S54" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="T54" s="125"/>
+      <c r="T54" s="127"/>
     </row>
     <row r="55" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B55" s="123" t="s">
+      <c r="B55" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="123"/>
-      <c r="D55" s="129">
+      <c r="C55" s="125"/>
+      <c r="D55" s="131">
         <f>D50+87</f>
         <v>43322</v>
       </c>
-      <c r="E55" s="125"/>
-      <c r="G55" s="123" t="s">
+      <c r="E55" s="127"/>
+      <c r="G55" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="H55" s="123"/>
-      <c r="I55" s="129">
+      <c r="H55" s="125"/>
+      <c r="I55" s="131">
         <v>43294</v>
       </c>
-      <c r="J55" s="125"/>
-      <c r="L55" s="123" t="s">
+      <c r="J55" s="127"/>
+      <c r="L55" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="M55" s="123"/>
-      <c r="N55" s="129">
+      <c r="M55" s="125"/>
+      <c r="N55" s="131">
         <f>N50+85</f>
         <v>43322</v>
       </c>
-      <c r="O55" s="125"/>
-      <c r="Q55" s="123" t="s">
+      <c r="O55" s="127"/>
+      <c r="Q55" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="R55" s="123"/>
-      <c r="S55" s="129">
+      <c r="R55" s="125"/>
+      <c r="S55" s="131">
         <f>S50+85</f>
         <v>43322</v>
       </c>
-      <c r="T55" s="125"/>
+      <c r="T55" s="127"/>
     </row>
     <row r="56" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="123"/>
-      <c r="D56" s="124">
+      <c r="C56" s="125"/>
+      <c r="D56" s="126">
         <v>14825</v>
       </c>
-      <c r="E56" s="125"/>
-      <c r="G56" s="123" t="s">
+      <c r="E56" s="127"/>
+      <c r="G56" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="132"/>
-      <c r="I56" s="124">
+      <c r="H56" s="146"/>
+      <c r="I56" s="126">
         <v>14730</v>
       </c>
-      <c r="J56" s="125"/>
-      <c r="L56" s="123" t="s">
+      <c r="J56" s="127"/>
+      <c r="L56" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="M56" s="123"/>
-      <c r="N56" s="124">
+      <c r="M56" s="125"/>
+      <c r="N56" s="126">
         <v>482</v>
       </c>
-      <c r="O56" s="125"/>
-      <c r="Q56" s="123" t="s">
+      <c r="O56" s="127"/>
+      <c r="Q56" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="R56" s="123"/>
-      <c r="S56" s="124">
+      <c r="R56" s="125"/>
+      <c r="S56" s="126">
         <v>482.5</v>
       </c>
-      <c r="T56" s="125"/>
+      <c r="T56" s="127"/>
     </row>
     <row r="57" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B57" s="123" t="s">
+      <c r="B57" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="123"/>
-      <c r="D57" s="124">
+      <c r="C57" s="125"/>
+      <c r="D57" s="126">
         <v>14100</v>
       </c>
-      <c r="E57" s="125"/>
-      <c r="G57" s="123" t="s">
+      <c r="E57" s="127"/>
+      <c r="G57" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="H57" s="123"/>
-      <c r="I57" s="124">
+      <c r="H57" s="125"/>
+      <c r="I57" s="126">
         <v>14500</v>
       </c>
-      <c r="J57" s="125"/>
-      <c r="L57" s="123" t="s">
+      <c r="J57" s="127"/>
+      <c r="L57" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="M57" s="123"/>
-      <c r="N57" s="124">
+      <c r="M57" s="125"/>
+      <c r="N57" s="126">
         <v>480</v>
       </c>
-      <c r="O57" s="125"/>
-      <c r="Q57" s="123" t="s">
+      <c r="O57" s="127"/>
+      <c r="Q57" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="R57" s="123"/>
-      <c r="S57" s="124">
+      <c r="R57" s="125"/>
+      <c r="S57" s="126">
         <v>430</v>
       </c>
-      <c r="T57" s="125"/>
+      <c r="T57" s="127"/>
     </row>
     <row r="58" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B58" s="123" t="s">
+      <c r="B58" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="123"/>
-      <c r="D58" s="124">
+      <c r="C58" s="125"/>
+      <c r="D58" s="126">
         <v>140</v>
       </c>
-      <c r="E58" s="125"/>
-      <c r="G58" s="123" t="s">
+      <c r="E58" s="127"/>
+      <c r="G58" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="H58" s="123"/>
-      <c r="I58" s="124">
+      <c r="H58" s="125"/>
+      <c r="I58" s="126">
         <v>312</v>
       </c>
-      <c r="J58" s="125"/>
-      <c r="L58" s="123" t="s">
+      <c r="J58" s="127"/>
+      <c r="L58" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="M58" s="123"/>
-      <c r="N58" s="124">
+      <c r="M58" s="125"/>
+      <c r="N58" s="126">
         <v>31.8</v>
       </c>
-      <c r="O58" s="125"/>
-      <c r="Q58" s="123" t="s">
+      <c r="O58" s="127"/>
+      <c r="Q58" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="R58" s="123"/>
-      <c r="S58" s="124">
+      <c r="R58" s="125"/>
+      <c r="S58" s="126">
         <v>12.3</v>
       </c>
-      <c r="T58" s="125"/>
+      <c r="T58" s="127"/>
     </row>
     <row r="59" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="124" t="s">
+      <c r="C59" s="125"/>
+      <c r="D59" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="E59" s="125"/>
-      <c r="G59" s="123" t="s">
+      <c r="E59" s="127"/>
+      <c r="G59" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="H59" s="123"/>
-      <c r="I59" s="124" t="s">
+      <c r="H59" s="125"/>
+      <c r="I59" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="J59" s="125"/>
-      <c r="L59" s="123" t="s">
+      <c r="J59" s="127"/>
+      <c r="L59" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="M59" s="123"/>
-      <c r="N59" s="124" t="s">
+      <c r="M59" s="125"/>
+      <c r="N59" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="O59" s="125"/>
-      <c r="Q59" s="123" t="s">
+      <c r="O59" s="127"/>
+      <c r="Q59" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="R59" s="123"/>
-      <c r="S59" s="124" t="s">
+      <c r="R59" s="125"/>
+      <c r="S59" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="T59" s="125"/>
+      <c r="T59" s="127"/>
     </row>
     <row r="60" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B60" s="123" t="s">
+      <c r="B60" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="123"/>
-      <c r="D60" s="124">
+      <c r="C60" s="125"/>
+      <c r="D60" s="126">
         <v>2000</v>
       </c>
-      <c r="E60" s="125"/>
-      <c r="G60" s="123" t="s">
+      <c r="E60" s="127"/>
+      <c r="G60" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="H60" s="123"/>
-      <c r="I60" s="124">
+      <c r="H60" s="125"/>
+      <c r="I60" s="126">
         <v>3000</v>
       </c>
-      <c r="J60" s="125"/>
-      <c r="L60" s="123" t="s">
+      <c r="J60" s="127"/>
+      <c r="L60" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="M60" s="123"/>
-      <c r="N60" s="124">
+      <c r="M60" s="125"/>
+      <c r="N60" s="126">
         <v>40000</v>
       </c>
-      <c r="O60" s="125"/>
-      <c r="Q60" s="123" t="s">
+      <c r="O60" s="127"/>
+      <c r="Q60" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="R60" s="123"/>
-      <c r="S60" s="124">
+      <c r="R60" s="125"/>
+      <c r="S60" s="126">
         <v>100000</v>
       </c>
-      <c r="T60" s="125"/>
+      <c r="T60" s="127"/>
     </row>
     <row r="61" spans="2:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="126"/>
-      <c r="D61" s="127" t="s">
+      <c r="C61" s="128"/>
+      <c r="D61" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="E61" s="128"/>
-      <c r="G61" s="126" t="s">
+      <c r="E61" s="130"/>
+      <c r="G61" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="H61" s="126"/>
-      <c r="I61" s="127" t="s">
+      <c r="H61" s="128"/>
+      <c r="I61" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="J61" s="128"/>
-      <c r="L61" s="126" t="s">
+      <c r="J61" s="130"/>
+      <c r="L61" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="M61" s="126"/>
-      <c r="N61" s="127" t="s">
+      <c r="M61" s="128"/>
+      <c r="N61" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="O61" s="128"/>
-      <c r="Q61" s="126" t="s">
+      <c r="O61" s="130"/>
+      <c r="Q61" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="R61" s="126"/>
-      <c r="S61" s="127" t="s">
+      <c r="R61" s="128"/>
+      <c r="S61" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="T61" s="128"/>
+      <c r="T61" s="130"/>
     </row>
     <row r="62" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="2:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G63" s="130" t="s">
+      <c r="G63" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
-      <c r="L63" s="130" t="s">
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="132"/>
+      <c r="L63" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="M63" s="130"/>
-      <c r="N63" s="130"/>
-      <c r="O63" s="130"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="132"/>
     </row>
     <row r="64" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="G64" s="123" t="s">
+      <c r="G64" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H64" s="123"/>
-      <c r="I64" s="129">
+      <c r="H64" s="125"/>
+      <c r="I64" s="131">
         <v>43248</v>
       </c>
-      <c r="J64" s="131"/>
-      <c r="L64" s="123" t="s">
+      <c r="J64" s="133"/>
+      <c r="L64" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="M64" s="123"/>
-      <c r="N64" s="129">
+      <c r="M64" s="125"/>
+      <c r="N64" s="131">
         <v>43248</v>
       </c>
-      <c r="O64" s="131"/>
+      <c r="O64" s="133"/>
     </row>
     <row r="65" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G65" s="123" t="s">
+      <c r="G65" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="H65" s="123"/>
-      <c r="I65" s="124" t="s">
+      <c r="H65" s="125"/>
+      <c r="I65" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="J65" s="125"/>
-      <c r="L65" s="123" t="s">
+      <c r="J65" s="127"/>
+      <c r="L65" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="M65" s="123"/>
-      <c r="N65" s="124" t="s">
+      <c r="M65" s="125"/>
+      <c r="N65" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="O65" s="125"/>
+      <c r="O65" s="127"/>
     </row>
     <row r="66" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G66" s="123" t="s">
+      <c r="G66" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="123"/>
-      <c r="I66" s="124" t="s">
+      <c r="H66" s="125"/>
+      <c r="I66" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="J66" s="125"/>
-      <c r="L66" s="123" t="s">
+      <c r="J66" s="127"/>
+      <c r="L66" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="M66" s="123"/>
-      <c r="N66" s="124" t="s">
+      <c r="M66" s="125"/>
+      <c r="N66" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="O66" s="125"/>
+      <c r="O66" s="127"/>
     </row>
     <row r="67" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G67" s="123" t="s">
+      <c r="G67" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="H67" s="123"/>
-      <c r="I67" s="124">
+      <c r="H67" s="125"/>
+      <c r="I67" s="126">
         <f>I72*I74</f>
         <v>244200.00000000003</v>
       </c>
-      <c r="J67" s="125"/>
-      <c r="L67" s="123" t="s">
+      <c r="J67" s="127"/>
+      <c r="L67" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="M67" s="123"/>
-      <c r="N67" s="124">
+      <c r="M67" s="125"/>
+      <c r="N67" s="126">
         <f>N72*N74</f>
         <v>244200.00000000003</v>
       </c>
-      <c r="O67" s="125"/>
+      <c r="O67" s="127"/>
     </row>
     <row r="68" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G68" s="123" t="s">
+      <c r="G68" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="H68" s="123"/>
-      <c r="I68" s="124" t="s">
+      <c r="H68" s="125"/>
+      <c r="I68" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="J68" s="125"/>
-      <c r="L68" s="123" t="s">
+      <c r="J68" s="127"/>
+      <c r="L68" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="M68" s="123"/>
-      <c r="N68" s="124" t="s">
+      <c r="M68" s="125"/>
+      <c r="N68" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="O68" s="125"/>
+      <c r="O68" s="127"/>
     </row>
     <row r="69" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G69" s="123" t="s">
+      <c r="G69" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="H69" s="123"/>
-      <c r="I69" s="129">
+      <c r="H69" s="125"/>
+      <c r="I69" s="131">
         <f>I64+79</f>
         <v>43327</v>
       </c>
-      <c r="J69" s="125"/>
-      <c r="L69" s="123" t="s">
+      <c r="J69" s="127"/>
+      <c r="L69" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="M69" s="123"/>
-      <c r="N69" s="129">
+      <c r="M69" s="125"/>
+      <c r="N69" s="131">
         <f>N64+79</f>
         <v>43327</v>
       </c>
-      <c r="O69" s="125"/>
+      <c r="O69" s="127"/>
     </row>
     <row r="70" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G70" s="123" t="s">
+      <c r="G70" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="H70" s="123"/>
-      <c r="I70" s="124">
+      <c r="H70" s="125"/>
+      <c r="I70" s="126">
         <v>456.5</v>
       </c>
-      <c r="J70" s="125"/>
-      <c r="L70" s="123" t="s">
+      <c r="J70" s="127"/>
+      <c r="L70" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="M70" s="123"/>
-      <c r="N70" s="124">
+      <c r="M70" s="125"/>
+      <c r="N70" s="126">
         <v>456.5</v>
       </c>
-      <c r="O70" s="125"/>
+      <c r="O70" s="127"/>
     </row>
     <row r="71" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G71" s="123" t="s">
+      <c r="G71" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="H71" s="123"/>
-      <c r="I71" s="124">
+      <c r="H71" s="125"/>
+      <c r="I71" s="126">
         <v>456.5</v>
       </c>
-      <c r="J71" s="125"/>
-      <c r="L71" s="123" t="s">
+      <c r="J71" s="127"/>
+      <c r="L71" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="M71" s="123"/>
-      <c r="N71" s="124">
+      <c r="M71" s="125"/>
+      <c r="N71" s="126">
         <v>456.5</v>
       </c>
-      <c r="O71" s="125"/>
+      <c r="O71" s="127"/>
     </row>
     <row r="72" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G72" s="123" t="s">
+      <c r="G72" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="123"/>
-      <c r="I72" s="124">
+      <c r="H72" s="125"/>
+      <c r="I72" s="126">
         <v>24.42</v>
       </c>
-      <c r="J72" s="125"/>
-      <c r="L72" s="123" t="s">
+      <c r="J72" s="127"/>
+      <c r="L72" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="M72" s="123"/>
-      <c r="N72" s="124">
+      <c r="M72" s="125"/>
+      <c r="N72" s="126">
         <v>24.42</v>
       </c>
-      <c r="O72" s="125"/>
+      <c r="O72" s="127"/>
       <c r="Q72" s="100">
         <f>N72/N71</f>
         <v>5.349397590361446E-2</v>
       </c>
     </row>
     <row r="73" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G73" s="123" t="s">
+      <c r="G73" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="H73" s="123"/>
-      <c r="I73" s="124" t="s">
+      <c r="H73" s="125"/>
+      <c r="I73" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="J73" s="125"/>
-      <c r="L73" s="123" t="s">
+      <c r="J73" s="127"/>
+      <c r="L73" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="M73" s="123"/>
-      <c r="N73" s="124" t="s">
+      <c r="M73" s="125"/>
+      <c r="N73" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="O73" s="125"/>
+      <c r="O73" s="127"/>
     </row>
     <row r="74" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G74" s="123" t="s">
+      <c r="G74" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="H74" s="123"/>
-      <c r="I74" s="124">
+      <c r="H74" s="125"/>
+      <c r="I74" s="126">
         <v>10000</v>
       </c>
-      <c r="J74" s="125"/>
-      <c r="L74" s="123" t="s">
+      <c r="J74" s="127"/>
+      <c r="L74" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="M74" s="123"/>
-      <c r="N74" s="124">
+      <c r="M74" s="125"/>
+      <c r="N74" s="126">
         <v>10000</v>
       </c>
-      <c r="O74" s="125"/>
+      <c r="O74" s="127"/>
     </row>
     <row r="75" spans="7:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G75" s="126" t="s">
+      <c r="G75" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="H75" s="126"/>
-      <c r="I75" s="127" t="s">
+      <c r="H75" s="128"/>
+      <c r="I75" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="J75" s="128"/>
-      <c r="L75" s="126" t="s">
+      <c r="J75" s="130"/>
+      <c r="L75" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="M75" s="126"/>
-      <c r="N75" s="127" t="s">
+      <c r="M75" s="128"/>
+      <c r="N75" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="O75" s="128"/>
+      <c r="O75" s="130"/>
     </row>
     <row r="76" spans="7:17" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="7:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G77" s="130" t="s">
+      <c r="G77" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="H77" s="130"/>
-      <c r="I77" s="130"/>
-      <c r="J77" s="130"/>
-      <c r="L77" s="130" t="s">
+      <c r="H77" s="132"/>
+      <c r="I77" s="132"/>
+      <c r="J77" s="132"/>
+      <c r="L77" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="M77" s="130"/>
-      <c r="N77" s="130"/>
-      <c r="O77" s="130"/>
+      <c r="M77" s="132"/>
+      <c r="N77" s="132"/>
+      <c r="O77" s="132"/>
     </row>
     <row r="78" spans="7:17" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="G78" s="123" t="s">
+      <c r="G78" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="123"/>
-      <c r="I78" s="129">
+      <c r="H78" s="125"/>
+      <c r="I78" s="131">
         <v>43248</v>
       </c>
-      <c r="J78" s="131"/>
-      <c r="L78" s="123" t="s">
+      <c r="J78" s="133"/>
+      <c r="L78" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="M78" s="123"/>
-      <c r="N78" s="129">
+      <c r="M78" s="125"/>
+      <c r="N78" s="131">
         <v>43248</v>
       </c>
-      <c r="O78" s="131"/>
+      <c r="O78" s="133"/>
     </row>
     <row r="79" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G79" s="123" t="s">
+      <c r="G79" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="H79" s="123"/>
-      <c r="I79" s="124" t="s">
+      <c r="H79" s="125"/>
+      <c r="I79" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="J79" s="125"/>
-      <c r="L79" s="123" t="s">
+      <c r="J79" s="127"/>
+      <c r="L79" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="M79" s="123"/>
-      <c r="N79" s="124" t="s">
+      <c r="M79" s="125"/>
+      <c r="N79" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="O79" s="125"/>
+      <c r="O79" s="127"/>
     </row>
     <row r="80" spans="7:17" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G80" s="123" t="s">
+      <c r="G80" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="H80" s="123"/>
-      <c r="I80" s="124" t="s">
+      <c r="H80" s="125"/>
+      <c r="I80" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="J80" s="125"/>
-      <c r="L80" s="123" t="s">
+      <c r="J80" s="127"/>
+      <c r="L80" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="M80" s="123"/>
-      <c r="N80" s="124" t="s">
+      <c r="M80" s="125"/>
+      <c r="N80" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="O80" s="125"/>
+      <c r="O80" s="127"/>
     </row>
     <row r="81" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G81" s="123" t="s">
+      <c r="G81" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="H81" s="123"/>
-      <c r="I81" s="124">
+      <c r="H81" s="125"/>
+      <c r="I81" s="126">
         <f>I86*I88</f>
         <v>244200.00000000003</v>
       </c>
-      <c r="J81" s="125"/>
-      <c r="L81" s="123" t="s">
+      <c r="J81" s="127"/>
+      <c r="L81" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="M81" s="123"/>
-      <c r="N81" s="124">
+      <c r="M81" s="125"/>
+      <c r="N81" s="126">
         <f>N86*N88</f>
         <v>244200.00000000003</v>
       </c>
-      <c r="O81" s="125"/>
+      <c r="O81" s="127"/>
     </row>
     <row r="82" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G82" s="123" t="s">
+      <c r="G82" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="H82" s="123"/>
-      <c r="I82" s="124" t="s">
+      <c r="H82" s="125"/>
+      <c r="I82" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="J82" s="125"/>
-      <c r="L82" s="123" t="s">
+      <c r="J82" s="127"/>
+      <c r="L82" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="M82" s="123"/>
-      <c r="N82" s="124" t="s">
+      <c r="M82" s="125"/>
+      <c r="N82" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="O82" s="125"/>
+      <c r="O82" s="127"/>
     </row>
     <row r="83" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G83" s="123" t="s">
+      <c r="G83" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="H83" s="123"/>
-      <c r="I83" s="129">
+      <c r="H83" s="125"/>
+      <c r="I83" s="131">
         <f>I78+31</f>
         <v>43279</v>
       </c>
-      <c r="J83" s="125"/>
-      <c r="L83" s="123" t="s">
+      <c r="J83" s="127"/>
+      <c r="L83" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="M83" s="123"/>
-      <c r="N83" s="129">
+      <c r="M83" s="125"/>
+      <c r="N83" s="131">
         <f>N78+31</f>
         <v>43279</v>
       </c>
-      <c r="O83" s="125"/>
+      <c r="O83" s="127"/>
     </row>
     <row r="84" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G84" s="123" t="s">
+      <c r="G84" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="H84" s="123"/>
-      <c r="I84" s="124">
+      <c r="H84" s="125"/>
+      <c r="I84" s="126">
         <v>456.5</v>
       </c>
-      <c r="J84" s="125"/>
-      <c r="L84" s="123" t="s">
+      <c r="J84" s="127"/>
+      <c r="L84" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="M84" s="123"/>
-      <c r="N84" s="124">
+      <c r="M84" s="125"/>
+      <c r="N84" s="126">
         <v>456.5</v>
       </c>
-      <c r="O84" s="125"/>
+      <c r="O84" s="127"/>
       <c r="P84" s="100">
         <f>N84*3.5/100</f>
         <v>15.977499999999999</v>
       </c>
     </row>
     <row r="85" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G85" s="123" t="s">
+      <c r="G85" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="H85" s="123"/>
-      <c r="I85" s="124">
+      <c r="H85" s="125"/>
+      <c r="I85" s="126">
         <v>456.5</v>
       </c>
-      <c r="J85" s="125"/>
-      <c r="L85" s="123" t="s">
+      <c r="J85" s="127"/>
+      <c r="L85" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="M85" s="123"/>
-      <c r="N85" s="124">
+      <c r="M85" s="125"/>
+      <c r="N85" s="126">
         <v>456.5</v>
       </c>
-      <c r="O85" s="125"/>
+      <c r="O85" s="127"/>
     </row>
     <row r="86" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G86" s="123" t="s">
+      <c r="G86" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="H86" s="123"/>
-      <c r="I86" s="124">
+      <c r="H86" s="125"/>
+      <c r="I86" s="126">
         <v>24.42</v>
       </c>
-      <c r="J86" s="125"/>
-      <c r="L86" s="123" t="s">
+      <c r="J86" s="127"/>
+      <c r="L86" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="M86" s="123"/>
-      <c r="N86" s="124">
+      <c r="M86" s="125"/>
+      <c r="N86" s="126">
         <v>24.42</v>
       </c>
-      <c r="O86" s="125"/>
+      <c r="O86" s="127"/>
     </row>
     <row r="87" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G87" s="123" t="s">
+      <c r="G87" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="H87" s="123"/>
-      <c r="I87" s="124" t="s">
+      <c r="H87" s="125"/>
+      <c r="I87" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="J87" s="125"/>
-      <c r="L87" s="123" t="s">
+      <c r="J87" s="127"/>
+      <c r="L87" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="M87" s="123"/>
-      <c r="N87" s="124" t="s">
+      <c r="M87" s="125"/>
+      <c r="N87" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="O87" s="125"/>
+      <c r="O87" s="127"/>
     </row>
     <row r="88" spans="7:16" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G88" s="123" t="s">
+      <c r="G88" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="H88" s="123"/>
-      <c r="I88" s="124">
+      <c r="H88" s="125"/>
+      <c r="I88" s="126">
         <v>10000</v>
       </c>
-      <c r="J88" s="125"/>
-      <c r="L88" s="123" t="s">
+      <c r="J88" s="127"/>
+      <c r="L88" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="M88" s="123"/>
-      <c r="N88" s="124">
+      <c r="M88" s="125"/>
+      <c r="N88" s="126">
         <v>10000</v>
       </c>
-      <c r="O88" s="125"/>
+      <c r="O88" s="127"/>
     </row>
     <row r="89" spans="7:16" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="126" t="s">
+      <c r="G89" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="H89" s="126"/>
-      <c r="I89" s="127" t="s">
+      <c r="H89" s="128"/>
+      <c r="I89" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="J89" s="128"/>
-      <c r="L89" s="126" t="s">
+      <c r="J89" s="130"/>
+      <c r="L89" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="M89" s="126"/>
-      <c r="N89" s="127" t="s">
+      <c r="M89" s="128"/>
+      <c r="N89" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="O89" s="128"/>
+      <c r="O89" s="130"/>
     </row>
     <row r="90" spans="7:16" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="526">
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B27:C27"/>
@@ -14311,278 +14871,236 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14595,8 +15113,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -14627,10 +15145,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="145"/>
+      <c r="C1" s="147"/>
     </row>
     <row r="2" spans="1:26" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -14762,11 +15280,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -14786,7 +15304,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.6327982022677929</v>
+        <v>-11442.800260330714</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -14795,11 +15313,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>3.6327982022677929</v>
+        <v>11442.800260330714</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -14811,17 +15329,17 @@
       <c r="S8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="14" t="e">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>2.4545933799106711E-4</v>
-      </c>
-      <c r="U8" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>6.9432869970853517E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-1.4376044594581785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14837,11 +15355,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43796.5</v>
+        <v>43797.5</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -14922,11 +15440,11 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ref="E12:E49" ca="1" si="9">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12" ca="1" si="10">E12+H12</f>
-        <v>43330</v>
+        <v>43331</v>
       </c>
       <c r="G12" s="11">
         <v>480</v>
@@ -14946,7 +15464,7 @@
       </c>
       <c r="L12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-39.441791149393424</v>
+        <v>-477.8743098156599</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="13">
@@ -14955,11 +15473,11 @@
       </c>
       <c r="O12" s="13">
         <f t="shared" ref="O12:O13" si="13">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
-        <v>39.441791149393424</v>
+        <v>477.8743098156599</v>
       </c>
       <c r="P12" s="121">
         <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
-        <v>466.5</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>85</v>
@@ -14971,17 +15489,17 @@
       <c r="S12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="14" t="e">
         <f t="shared" ref="T12" si="15">O12/P12</f>
-        <v>8.4548319720028769E-2</v>
-      </c>
-      <c r="U12" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.52950290563700264</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-0.87003684499805445</v>
+        <v>0</v>
       </c>
       <c r="W12" s="114">
         <v>37.799999999999997</v>
@@ -14990,13 +15508,13 @@
         <f t="shared" ref="X12:X13" si="16">G12-W12</f>
         <v>442.2</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="6" t="e">
         <f t="shared" ref="Y12:Y13" si="17">500*U12</f>
-        <v>264.75145281850132</v>
-      </c>
-      <c r="Z12" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z12" s="6" t="e">
         <f t="shared" ref="Z12:Z13" si="18">1000000/P12/10</f>
-        <v>214.36227224008576</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15012,11 +15530,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="19">E13+H13</f>
-        <v>43330</v>
+        <v>43331</v>
       </c>
       <c r="G13" s="11">
         <v>430</v>
@@ -15036,7 +15554,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-15.763958166656721</v>
+        <v>-428.09573587652864</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13">
@@ -15045,11 +15563,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" si="13"/>
-        <v>15.763958166656721</v>
+        <v>428.09573587652864</v>
       </c>
       <c r="P13" s="121">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>466.5</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>85</v>
@@ -15061,17 +15579,17 @@
       <c r="S13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="14" t="e">
         <f t="shared" ref="T13" si="22">O13/P13</f>
-        <v>3.3791978921021912E-2</v>
-      </c>
-      <c r="U13" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.28653211339246809</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-0.7461843561411996</v>
+        <v>0</v>
       </c>
       <c r="W13" s="114">
         <v>37.799999999999997</v>
@@ -15080,13 +15598,13 @@
         <f t="shared" si="16"/>
         <v>392.2</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="6" t="e">
         <f t="shared" si="17"/>
-        <v>143.26605669623405</v>
-      </c>
-      <c r="Z13" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>214.36227224008576</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15102,11 +15620,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14" ca="1" si="23">E14+H14</f>
-        <v>43330</v>
+        <v>43331</v>
       </c>
       <c r="G14" s="11">
         <v>465</v>
@@ -15126,7 +15644,7 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-31.026858944103111</v>
+        <v>-462.94073763392049</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="13">
@@ -15135,11 +15653,11 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" ref="O14" si="26">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>31.026858944103111</v>
+        <v>462.94073763392049</v>
       </c>
       <c r="P14" s="121">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>466.5</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>85</v>
@@ -15151,17 +15669,17 @@
       <c r="S14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="14" t="e">
         <f t="shared" ref="T14" si="28">O14/P14</f>
-        <v>6.6509879837305705E-2</v>
-      </c>
-      <c r="U14" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.45627616415657712</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.86805903558749264</v>
+        <v>0</v>
       </c>
       <c r="W14" s="114">
         <v>37.799999999999997</v>
@@ -15170,13 +15688,13 @@
         <f t="shared" ref="X14" si="29">G14-W14</f>
         <v>427.2</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="6" t="e">
         <f t="shared" ref="Y14" si="30">500*U14</f>
-        <v>228.13808207828856</v>
-      </c>
-      <c r="Z14" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z14" s="6" t="e">
         <f t="shared" ref="Z14" si="31">1000000/P14/10</f>
-        <v>214.36227224008576</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
@@ -15201,11 +15719,11 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ref="F17:F20" ca="1" si="32">E17+H17</f>
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="G17" s="11">
         <v>13800</v>
@@ -15225,22 +15743,22 @@
       </c>
       <c r="L17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>31.37412824265607</v>
+        <v>13761.489450760782</v>
       </c>
       <c r="M17" s="15">
         <v>30</v>
       </c>
       <c r="N17" s="13">
         <f t="shared" ref="N17:N20" si="34">M17/10000*I17*P17</f>
-        <v>6.203835616438357</v>
+        <v>0</v>
       </c>
       <c r="O17" s="13">
         <f t="shared" ref="O17:O20" si="35">IF(L17&lt;=0,ABS(L17)+N17,L17-N17)</f>
-        <v>25.170292626217712</v>
+        <v>13761.489450760782</v>
       </c>
       <c r="P17" s="11">
         <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>85</v>
@@ -15252,25 +15770,25 @@
       <c r="S17" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="14" t="e">
         <f t="shared" ref="T17:T20" si="37">O17/P17</f>
-        <v>1.700695447717413E-3</v>
-      </c>
-      <c r="U17" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-8.6201553085629712E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>8.6774977524584074</v>
+        <v>0</v>
       </c>
       <c r="W17" s="114"/>
       <c r="X17" s="115">
         <v>400</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="6" t="e">
         <f>X17*U17</f>
-        <v>-34.480621234251885</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15286,11 +15804,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="32"/>
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="G18" s="11">
         <v>14000</v>
@@ -15310,22 +15828,22 @@
       </c>
       <c r="L18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>55.539920301929897</v>
+        <v>13960.931326858763</v>
       </c>
       <c r="M18" s="15">
         <v>30</v>
       </c>
       <c r="N18" s="13">
         <f t="shared" si="34"/>
-        <v>6.203835616438357</v>
+        <v>0</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" si="35"/>
-        <v>49.336084685491542</v>
+        <v>13960.931326858763</v>
       </c>
       <c r="P18" s="11">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>85</v>
@@ -15337,25 +15855,25 @@
       <c r="S18" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="14" t="e">
         <f t="shared" si="37"/>
-        <v>3.3335192355061854E-3</v>
-      </c>
-      <c r="U18" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.13790306159080501</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>12.154883528465234</v>
+        <v>0</v>
       </c>
       <c r="W18" s="114"/>
       <c r="X18" s="115">
         <v>400</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="6" t="e">
         <f>X18*U18</f>
-        <v>-55.161224636322004</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15371,11 +15889,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="32"/>
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="G19" s="11">
         <v>13800</v>
@@ -15393,24 +15911,24 @@
       <c r="K19" s="116">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>62.939023511497453</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M19" s="15">
         <v>30</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="13" t="e">
         <f t="shared" si="34"/>
-        <v>10.144191780821918</v>
-      </c>
-      <c r="O19" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="13" t="e">
         <f t="shared" si="35"/>
-        <v>52.794831730675533</v>
-      </c>
-      <c r="P19" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P19" s="11" t="e">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>14870</v>
+        <v>#N/A</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -15422,25 +15940,25 @@
       <c r="S19" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="14" t="e">
         <f t="shared" si="37"/>
-        <v>3.5504258056943869E-3</v>
-      </c>
-      <c r="U19" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U19" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.12410291332116685</v>
-      </c>
-      <c r="V19" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V19" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>14.476775740855715</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W19" s="114"/>
       <c r="X19" s="115">
         <v>400</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="6" t="e">
         <f>X19*U19</f>
-        <v>-49.641165328466741</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15456,11 +15974,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="32"/>
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="G20" s="11">
         <v>14000</v>
@@ -15478,24 +15996,24 @@
       <c r="K20" s="116">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>95.731156067495704</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M20" s="15">
         <v>30</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="13" t="e">
         <f t="shared" si="34"/>
-        <v>10.144191780821918</v>
-      </c>
-      <c r="O20" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="13" t="e">
         <f t="shared" si="35"/>
-        <v>85.586964286673791</v>
-      </c>
-      <c r="P20" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P20" s="11" t="e">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>14870</v>
+        <v>#N/A</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -15507,25 +16025,25 @@
       <c r="S20" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="14" t="e">
         <f t="shared" si="37"/>
-        <v>5.7556801806774574E-3</v>
-      </c>
-      <c r="U20" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U20" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.17373308469359472</v>
-      </c>
-      <c r="V20" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>18.136778332194353</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W20" s="114"/>
       <c r="X20" s="115">
         <v>400</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="6" t="e">
         <f>X20*U20</f>
-        <v>-69.493233877437888</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15541,11 +16059,11 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21" ca="1" si="38">E21+H21</f>
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="G21" s="11">
         <v>14000</v>
@@ -15625,11 +16143,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23:F24" ca="1" si="44">E23+H23</f>
-        <v>43281</v>
+        <v>43282</v>
       </c>
       <c r="G23" s="11">
         <f>P23</f>
@@ -15708,11 +16226,11 @@
       </c>
       <c r="E24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>43281</v>
+        <v>43282</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" ref="G24" si="51">P24</f>
@@ -15791,11 +16309,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25:F28" ca="1" si="52">E25+H25</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G25" s="11">
         <f>P25</f>
@@ -15874,11 +16392,11 @@
       </c>
       <c r="E26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" ref="G26:G28" si="59">P26</f>
@@ -15957,11 +16475,11 @@
       </c>
       <c r="E27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43281</v>
+        <v>43282</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="59"/>
@@ -16040,11 +16558,11 @@
       </c>
       <c r="E28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43281</v>
+        <v>43282</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="59"/>
@@ -16123,11 +16641,11 @@
       </c>
       <c r="E30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30:F34" ca="1" si="60">E30+H30</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G30" s="11">
         <v>3300</v>
@@ -16147,7 +16665,7 @@
       </c>
       <c r="L30" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>9.7907121091538997E-98</v>
+        <v>3289.709229568613</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="13">
@@ -16156,11 +16674,11 @@
       </c>
       <c r="O30" s="13">
         <f t="shared" ref="O30:O34" si="63">IF(L30&lt;=0,ABS(L30)+N30,L30-N30)</f>
-        <v>9.7907121091538997E-98</v>
+        <v>3289.709229568613</v>
       </c>
       <c r="P30" s="11">
         <f>RTD("wdf.rtq",,D30,"LastPrice")</f>
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>85</v>
@@ -16172,25 +16690,25 @@
       <c r="S30" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T30" s="14">
+      <c r="T30" s="14" t="e">
         <f t="shared" ref="T30:T34" si="65">O30/P30</f>
-        <v>6.6153460196985807E-102</v>
-      </c>
-      <c r="U30" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-1.9675486438787383E-99</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V30" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>4.6364663425357856E-88</v>
+        <v>0</v>
       </c>
       <c r="W30" s="114"/>
       <c r="X30" s="115">
         <v>400</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="6" t="e">
         <f>X30*U30</f>
-        <v>-7.8701945755149531E-97</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16206,11 +16724,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G31" s="11">
         <v>3350</v>
@@ -16230,7 +16748,7 @@
       </c>
       <c r="L31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>8.5134559021761884E-96</v>
+        <v>3339.5533088045013</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="13">
@@ -16239,11 +16757,11 @@
       </c>
       <c r="O31" s="13">
         <f t="shared" si="63"/>
-        <v>8.5134559021761884E-96</v>
+        <v>3339.5533088045013</v>
       </c>
       <c r="P31" s="11">
         <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="10" t="s">
         <v>85</v>
@@ -16255,25 +16773,25 @@
       <c r="S31" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T31" s="14">
+      <c r="T31" s="14" t="e">
         <f t="shared" si="65"/>
-        <v>5.752335069037965E-100</v>
-      </c>
-      <c r="U31" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-1.6938500332838515E-97</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>2.5581937670600144E-86</v>
+        <v>0</v>
       </c>
       <c r="W31" s="114"/>
       <c r="X31" s="115">
         <v>400</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="6" t="e">
         <f>X31*U31</f>
-        <v>-6.775400133135406E-95</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16289,11 +16807,11 @@
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G32" s="11">
         <v>3400</v>
@@ -16311,22 +16829,22 @@
       <c r="K32" s="116">
         <v>0.18</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>1.6724882824148738E-94</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M32" s="15"/>
-      <c r="N32" s="13">
+      <c r="N32" s="13" t="e">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O32" s="13" t="e">
         <f t="shared" si="63"/>
-        <v>1.6724882824148738E-94</v>
-      </c>
-      <c r="P32" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P32" s="11" t="e">
         <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
-        <v>14870</v>
+        <v>#N/A</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>85</v>
@@ -16338,25 +16856,25 @@
       <c r="S32" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T32" s="14">
+      <c r="T32" s="14" t="e">
         <f t="shared" si="65"/>
-        <v>1.1247399343744949E-98</v>
-      </c>
-      <c r="U32" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U32" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-3.2896011668969591E-96</v>
-      </c>
-      <c r="V32" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V32" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>3.7125633686058108E-85</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W32" s="114"/>
       <c r="X32" s="115">
         <v>400</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y32" s="6" t="e">
         <f>X32*U32</f>
-        <v>-1.3158404667587836E-93</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16372,11 +16890,11 @@
       </c>
       <c r="E33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G33" s="11">
         <v>3450</v>
@@ -16394,22 +16912,22 @@
       <c r="K33" s="116">
         <v>0.18</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>1.188371440107945E-92</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M33" s="15"/>
-      <c r="N33" s="13">
+      <c r="N33" s="13" t="e">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O33" s="13" t="e">
         <f t="shared" si="63"/>
-        <v>1.188371440107945E-92</v>
-      </c>
-      <c r="P33" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P33" s="11" t="e">
         <f>RTD("wdf.rtq",,D33,"LastPrice")</f>
-        <v>14870</v>
+        <v>#N/A</v>
       </c>
       <c r="Q33" s="10" t="s">
         <v>85</v>
@@ -16421,25 +16939,25 @@
       <c r="S33" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="14" t="e">
         <f t="shared" si="65"/>
-        <v>7.9917379966909544E-97</v>
-      </c>
-      <c r="U33" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U33" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-2.314443789497791E-94</v>
-      </c>
-      <c r="V33" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V33" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>1.7087761526585159E-83</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W33" s="114"/>
       <c r="X33" s="115">
         <v>400</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Y33" s="6" t="e">
         <f>X33*U33</f>
-        <v>-9.2577751579911639E-92</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16455,11 +16973,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G34" s="11">
         <v>3500</v>
@@ -16537,11 +17055,11 @@
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ref="F36:F40" ca="1" si="66">E36+H36</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="G36" s="11">
         <v>3300</v>
@@ -16561,7 +17079,7 @@
       </c>
       <c r="L36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>1.7066803146460334E-191</v>
+        <v>3294.7603285127593</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="13">
@@ -16570,11 +17088,11 @@
       </c>
       <c r="O36" s="13">
         <f t="shared" ref="O36:O40" si="69">IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
-        <v>1.7066803146460334E-191</v>
+        <v>3294.7603285127593</v>
       </c>
       <c r="P36" s="11">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>85</v>
@@ -16586,25 +17104,25 @@
       <c r="S36" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="14" t="e">
         <f t="shared" ref="T36:T40" si="71">O36/P36</f>
-        <v>1.1531623747608334E-195</v>
-      </c>
-      <c r="U36" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U36" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-6.7321238088912429E-193</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>2.967718007487279E-172</v>
+        <v>0</v>
       </c>
       <c r="W36" s="114"/>
       <c r="X36" s="115">
         <v>400</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Y36" s="6" t="e">
         <f>X36*U36</f>
-        <v>-2.6928495235564972E-190</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16620,11 +17138,11 @@
       </c>
       <c r="E37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" ca="1" si="66"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="G37" s="11">
         <v>3350</v>
@@ -16644,7 +17162,7 @@
       </c>
       <c r="L37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>1.0773320755272907E-187</v>
+        <v>3344.6809395508312</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="13">
@@ -16653,11 +17171,11 @@
       </c>
       <c r="O37" s="13">
         <f t="shared" si="69"/>
-        <v>1.0773320755272907E-187</v>
+        <v>3344.6809395508312</v>
       </c>
       <c r="P37" s="11">
         <f>RTD("wdf.rtq",,D37,"LastPrice")</f>
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>85</v>
@@ -16669,25 +17187,25 @@
       <c r="S37" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T37" s="14">
+      <c r="T37" s="14" t="e">
         <f t="shared" si="71"/>
-        <v>7.2792707805898018E-192</v>
-      </c>
-      <c r="U37" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-4.2071888884478116E-189</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>7.6621544338714229E-169</v>
+        <v>0</v>
       </c>
       <c r="W37" s="114"/>
       <c r="X37" s="115">
         <v>400</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Y37" s="6" t="e">
         <f>X37*U37</f>
-        <v>-1.6828755553791247E-186</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16703,11 +17221,11 @@
       </c>
       <c r="E38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ca="1" si="66"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="G38" s="11">
         <v>3400</v>
@@ -16725,22 +17243,22 @@
       <c r="K38" s="116">
         <v>0.18</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>3.6687093675766382E-185</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M38" s="15"/>
-      <c r="N38" s="13">
+      <c r="N38" s="13" t="e">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O38" s="13" t="e">
         <f t="shared" si="69"/>
-        <v>3.6687093675766382E-185</v>
-      </c>
-      <c r="P38" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P38" s="11" t="e">
         <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
-        <v>14870</v>
+        <v>#N/A</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>85</v>
@@ -16752,25 +17270,25 @@
       <c r="S38" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="14" t="e">
         <f t="shared" si="71"/>
-        <v>2.4671885457811958E-189</v>
-      </c>
-      <c r="U38" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U38" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-1.4163028723396565E-186</v>
-      </c>
-      <c r="V38" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V38" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>1.4388738659377798E-166</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W38" s="114"/>
       <c r="X38" s="115">
         <v>400</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Y38" s="6" t="e">
         <f>X38*U38</f>
-        <v>-5.6652114893586261E-184</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16786,11 +17304,11 @@
       </c>
       <c r="E39" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" ca="1" si="66"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="G39" s="11">
         <v>3450</v>
@@ -16808,22 +17326,22 @@
       <c r="K39" s="116">
         <v>0.18</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>1.5578700883401713E-181</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M39" s="15"/>
-      <c r="N39" s="13">
+      <c r="N39" s="13" t="e">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O39" s="13" t="e">
         <f t="shared" si="69"/>
-        <v>1.5578700883401713E-181</v>
-      </c>
-      <c r="P39" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P39" s="11" t="e">
         <f>RTD("wdf.rtq",,D39,"LastPrice")</f>
-        <v>14870</v>
+        <v>#N/A</v>
       </c>
       <c r="Q39" s="10" t="s">
         <v>85</v>
@@ -16835,25 +17353,25 @@
       <c r="S39" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="14" t="e">
         <f t="shared" si="71"/>
-        <v>1.0476597769604379E-185</v>
-      </c>
-      <c r="U39" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U39" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-5.954873212773896E-183</v>
-      </c>
-      <c r="V39" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V39" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>2.6025399369025921E-163</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W39" s="114"/>
       <c r="X39" s="115">
         <v>400</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Y39" s="6" t="e">
         <f>X39*U39</f>
-        <v>-2.3819492851095584E-180</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16869,11 +17387,11 @@
       </c>
       <c r="E40" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ca="1" si="66"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="G40" s="11">
         <v>3500</v>
@@ -16891,22 +17409,22 @@
       <c r="K40" s="116">
         <v>0.18</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>5.4106093896831062E-178</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M40" s="15"/>
-      <c r="N40" s="13">
+      <c r="N40" s="13" t="e">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O40" s="13" t="e">
         <f t="shared" si="69"/>
-        <v>5.4106093896831062E-178</v>
-      </c>
-      <c r="P40" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P40" s="11" t="e">
         <f>RTD("wdf.rtq",,D40,"LastPrice")</f>
-        <v>14870</v>
+        <v>#N/A</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>85</v>
@@ -16918,25 +17436,25 @@
       <c r="S40" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T40" s="14" t="e">
         <f t="shared" si="71"/>
-        <v>3.6386075250054514E-182</v>
-      </c>
-      <c r="U40" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U40" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>-2.0478871421738034E-179</v>
-      </c>
-      <c r="V40" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V40" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>3.930141900509481E-160</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W40" s="114"/>
       <c r="X40" s="115">
         <v>400</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="Y40" s="6" t="e">
         <f>X40*U40</f>
-        <v>-8.1915485686952137E-177</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16952,11 +17470,11 @@
       </c>
       <c r="E42" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" ref="F42" ca="1" si="72">E42+H42</f>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G42" s="11">
         <v>100</v>
@@ -17034,11 +17552,11 @@
       </c>
       <c r="E43" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" ref="F43:F44" ca="1" si="79">E43+H43</f>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G43" s="11">
         <v>100</v>
@@ -17116,11 +17634,11 @@
       </c>
       <c r="E44" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" ca="1" si="79"/>
-        <v>43310</v>
+        <v>43311</v>
       </c>
       <c r="G44" s="11">
         <v>100</v>
@@ -17198,11 +17716,11 @@
       </c>
       <c r="E45" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" ref="F45:F46" ca="1" si="85">E45+H45</f>
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="G45" s="11">
         <v>100</v>
@@ -17280,11 +17798,11 @@
       </c>
       <c r="E46" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" ca="1" si="85"/>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G46" s="11">
         <v>100</v>
@@ -17362,11 +17880,11 @@
       </c>
       <c r="E47" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" ref="F47" ca="1" si="91">E47+H47</f>
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="G47" s="11">
         <v>500</v>
@@ -17386,7 +17904,7 @@
       </c>
       <c r="L47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-12.773875315220238</v>
+        <v>0</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="13">
@@ -17395,11 +17913,11 @@
       </c>
       <c r="O47" s="13">
         <f t="shared" ref="O47" si="94">IF(L47&lt;=0,ABS(L47)+N47,L47-N47)</f>
-        <v>12.773875315220238</v>
+        <v>0</v>
       </c>
       <c r="P47" s="11">
         <f>RTD("wdf.rtq",,D47,"LastPrice")</f>
-        <v>466.5</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>39</v>
@@ -17411,25 +17929,25 @@
       <c r="S47" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="14" t="e">
         <f t="shared" ref="T47" si="96">O47/P47</f>
-        <v>2.7382369378821516E-2</v>
-      </c>
-      <c r="U47" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U47" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-0.32832587634885613</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-0.78222803612783309</v>
+        <v>0</v>
       </c>
       <c r="W47" s="114"/>
       <c r="X47" s="115">
         <v>400</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="Y47" s="6" t="e">
         <f t="shared" si="78"/>
-        <v>-131.33035053954245</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17471,21 +17989,21 @@
       </c>
       <c r="E49" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" ref="F49" ca="1" si="97">E49+H49</f>
-        <v>43252</v>
+        <v>43251</v>
       </c>
       <c r="G49" s="11">
         <v>3500</v>
       </c>
       <c r="H49" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49" s="12">
         <f t="shared" ref="I49" si="98">H49/365</f>
-        <v>8.21917808219178E-3</v>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="J49" s="12">
         <v>0</v>
@@ -17495,7 +18013,7 @@
       </c>
       <c r="L49" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>51.897508079609906</v>
+        <v>3499.8082244322554</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="13">
@@ -17504,10 +18022,11 @@
       </c>
       <c r="O49" s="13">
         <f t="shared" ref="O49" si="100">IF(L49&lt;=0,ABS(L49)+N49,L49-N49)</f>
-        <v>51.897508079609906</v>
+        <v>3499.8082244322554</v>
       </c>
       <c r="P49" s="11">
-        <v>3455</v>
+        <f>RTD("wdf.rtq",,D49,"LastPrice")</f>
+        <v>0</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>85</v>
@@ -17519,25 +18038,25 @@
       <c r="S49" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T49" s="14">
+      <c r="T49" s="14" t="e">
         <f t="shared" ref="T49" si="102">O49/P49</f>
-        <v>1.5020986419568713E-2</v>
-      </c>
-      <c r="U49" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U49" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>-0.78359314570661809</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V49" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>0.91751940353401551</v>
+        <v>0</v>
       </c>
       <c r="W49" s="114"/>
       <c r="X49" s="115">
         <v>400</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="Y49" s="6" t="e">
         <f>X49*U49</f>
-        <v>-313.43725828264724</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17552,12 +18071,12 @@
         <v>264</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" ref="E52:E64" ca="1" si="103">TODAY()</f>
-        <v>43249</v>
+        <f t="shared" ref="E52:E71" ca="1" si="103">TODAY()</f>
+        <v>43250</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" ref="F52:F55" ca="1" si="104">E52+H52</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="G52" s="11">
         <v>3500</v>
@@ -17635,11 +18154,11 @@
       </c>
       <c r="E53" s="8">
         <f t="shared" ca="1" si="103"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" ca="1" si="104"/>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G53" s="11">
         <v>3500</v>
@@ -17717,11 +18236,11 @@
       </c>
       <c r="E54" s="8">
         <f t="shared" ca="1" si="103"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F54" s="8">
         <f t="shared" ca="1" si="104"/>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G54" s="11">
         <v>3500</v>
@@ -17799,11 +18318,11 @@
       </c>
       <c r="E55" s="8">
         <f t="shared" ca="1" si="103"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" ca="1" si="104"/>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G55" s="11">
         <v>3500</v>
@@ -17881,7 +18400,7 @@
       </c>
       <c r="E57" s="8">
         <f t="shared" ca="1" si="103"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F57" s="8">
         <f t="shared" ref="F57:F58" ca="1" si="110">E57+H57</f>
@@ -17891,11 +18410,11 @@
         <v>49500</v>
       </c>
       <c r="H57" s="10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I57" s="12">
         <f t="shared" ref="I57:I58" si="111">H57/365</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J57" s="12">
         <v>0</v>
@@ -17905,21 +18424,21 @@
       </c>
       <c r="L57" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q57,$P57,$G57,$I57,$C$3,$J57,$K57,$C$4)*R57</f>
-        <v>77.925951704030922</v>
+        <v>171.01217245503904</v>
       </c>
       <c r="M57" s="15">
         <v>30</v>
       </c>
       <c r="N57" s="13">
         <f t="shared" ref="N57:N58" si="112">M57/10000*I57*P57</f>
-        <v>13.206000000000001</v>
+        <v>12.592602739726027</v>
       </c>
       <c r="O57" s="13">
         <f t="shared" ref="O57:O58" si="113">IF(L57&lt;=0,ABS(L57)+N57,L57-N57)</f>
-        <v>64.719951704030919</v>
+        <v>158.419569715313</v>
       </c>
       <c r="P57" s="11">
-        <v>51830</v>
+        <v>51070</v>
       </c>
       <c r="Q57" s="10" t="s">
         <v>85</v>
@@ -17933,15 +18452,15 @@
       </c>
       <c r="T57" s="14">
         <f t="shared" ref="T57:T58" si="115">O57/P57</f>
-        <v>1.2486967336297688E-3</v>
+        <v>3.1020084142414921E-3</v>
       </c>
       <c r="U57" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q57,$P57,$G57,$I57,$C$3,$J57,$K57,$C$4)*R57</f>
-        <v>-9.1154060874032439E-2</v>
+        <v>-0.17723943965393119</v>
       </c>
       <c r="V57" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q57,$P57,$G57,$I57,$C$3,$J57,$K57,$C$4)*R57</f>
-        <v>24.688430214238906</v>
+        <v>37.944601746021362</v>
       </c>
       <c r="W57" s="114"/>
       <c r="X57" s="115">
@@ -17949,7 +18468,7 @@
       </c>
       <c r="Y57" s="6">
         <f>X57*U57</f>
-        <v>-36.461624349612975</v>
+        <v>-70.895775861572474</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17965,11 +18484,11 @@
       </c>
       <c r="E58" s="8">
         <f t="shared" ca="1" si="103"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F58" s="8">
         <f t="shared" ca="1" si="110"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="G58" s="11">
         <v>49500</v>
@@ -17989,22 +18508,22 @@
       </c>
       <c r="L58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>62.435395250229703</v>
+        <v>172.73881579880072</v>
       </c>
       <c r="M58" s="15">
         <v>30</v>
       </c>
       <c r="N58" s="13">
         <f t="shared" si="112"/>
-        <v>11.493123287671233</v>
+        <v>11.302273972602741</v>
       </c>
       <c r="O58" s="13">
         <f t="shared" si="113"/>
-        <v>50.942271962558472</v>
+        <v>161.43654182619798</v>
       </c>
       <c r="P58" s="11">
         <f>RTD("wdf.rtq",,D58,"LastPrice")</f>
-        <v>51790</v>
+        <v>50930</v>
       </c>
       <c r="Q58" s="10" t="s">
         <v>85</v>
@@ -18018,15 +18537,15 @@
       </c>
       <c r="T58" s="14">
         <f t="shared" si="115"/>
-        <v>9.8363143391694296E-4</v>
+        <v>3.169773057651639E-3</v>
       </c>
       <c r="U58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>-8.0342065348304459E-2</v>
+        <v>-0.18674687835300574</v>
       </c>
       <c r="V58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>20.950838925416747</v>
+        <v>37.096448419459193</v>
       </c>
       <c r="W58" s="114"/>
       <c r="X58" s="115">
@@ -18034,7 +18553,7 @@
       </c>
       <c r="Y58" s="6">
         <f>X58*U58</f>
-        <v>-32.136826139321784</v>
+        <v>-74.698751341202296</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18050,11 +18569,11 @@
       </c>
       <c r="E60" s="8">
         <f t="shared" ca="1" si="103"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F60" s="8">
         <f t="shared" ref="F60:F61" ca="1" si="116">E60+H60</f>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G60" s="11">
         <v>495</v>
@@ -18132,11 +18651,11 @@
       </c>
       <c r="E61" s="8">
         <f t="shared" ca="1" si="103"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F61" s="8">
         <f t="shared" ca="1" si="116"/>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G61" s="11">
         <v>500</v>
@@ -18210,15 +18729,15 @@
         <v>160</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E63" s="8">
         <f t="shared" ca="1" si="103"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" ref="F63" ca="1" si="122">E63+H63</f>
-        <v>43371</v>
+        <v>43372</v>
       </c>
       <c r="G63" s="11">
         <v>100</v>
@@ -18292,15 +18811,15 @@
         <v>160</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E64" s="8">
         <f t="shared" ca="1" si="103"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F64" s="8">
         <f t="shared" ref="F64" ca="1" si="128">E64+H64</f>
-        <v>43371</v>
+        <v>43372</v>
       </c>
       <c r="G64" s="11">
         <v>100</v>
@@ -18365,29 +18884,436 @@
         <v>193.3989641389644</v>
       </c>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H72" s="148" t="s">
-        <v>275</v>
-      </c>
-      <c r="I72" s="148" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H73" s="148" t="s">
+    <row r="66" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="34"/>
+      <c r="B66" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43250</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" ref="F66:F68" ca="1" si="134">E66+H66</f>
+        <v>43294</v>
+      </c>
+      <c r="G66" s="11">
+        <v>14500</v>
+      </c>
+      <c r="H66" s="10">
+        <v>44</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" ref="I66:I68" si="135">H66/365</f>
+        <v>0.12054794520547946</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="116">
+        <v>0.13</v>
+      </c>
+      <c r="L66" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q66,$P66,$G66,$I66,$C$3,$J66,$K66,$C$4)*R66</f>
+        <v>14465.083204283648</v>
+      </c>
+      <c r="M66" s="15">
+        <v>30</v>
+      </c>
+      <c r="N66" s="13">
+        <f t="shared" ref="N66:N68" si="136">M66/10000*I66*P66</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="13">
+        <f t="shared" ref="O66:O68" si="137">IF(L66&lt;=0,ABS(L66)+N66,L66-N66)</f>
+        <v>14465.083204283648</v>
+      </c>
+      <c r="P66" s="11">
+        <f>RTD("wdf.rtq",,D66,"LastPrice")</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R66" s="10">
+        <f t="shared" ref="R66:R68" si="138">IF(S66="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S66" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T66" s="14" t="e">
+        <f t="shared" ref="T66:T68" si="139">O66/P66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U66" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q66,$P66,$G66,$I66,$C$3,$J66,$K66,$C$4)*R66</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V66" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q66,$P66,$G66,$I66,$C$3,$J66,$K66,$C$4)*R66</f>
+        <v>0</v>
+      </c>
+      <c r="W66" s="114"/>
+      <c r="X66" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y66" s="6" t="e">
+        <f>X66*U66</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="34"/>
+      <c r="B67" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43250</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" ca="1" si="134"/>
+        <v>43325</v>
+      </c>
+      <c r="G67" s="11">
+        <v>14500</v>
+      </c>
+      <c r="H67" s="10">
+        <v>75</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" si="135"/>
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="116">
+        <v>0.13</v>
+      </c>
+      <c r="L67" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q67,$P67,$G67,$I67,$C$3,$J67,$K67,$C$4)*R67</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67" s="15">
+        <v>30</v>
+      </c>
+      <c r="N67" s="13" t="e">
+        <f t="shared" si="136"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O67" s="13" t="e">
+        <f t="shared" si="137"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P67" s="11" t="e">
+        <f>RTD("wdf.rtq",,D67,"LastPrice")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R67" s="10">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="S67" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T67" s="14" t="e">
+        <f t="shared" si="139"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U67" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q67,$P67,$G67,$I67,$C$3,$J67,$K67,$C$4)*R67</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V67" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q67,$P67,$G67,$I67,$C$3,$J67,$K67,$C$4)*R67</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W67" s="114"/>
+      <c r="X67" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y67" s="6" t="e">
+        <f>X67*U67</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="34"/>
+      <c r="B68" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43250</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" ca="1" si="134"/>
+        <v>43294</v>
+      </c>
+      <c r="G68" s="11">
+        <v>15200</v>
+      </c>
+      <c r="H68" s="10">
+        <v>44</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" si="135"/>
+        <v>0.12054794520547946</v>
+      </c>
+      <c r="J68" s="12">
+        <v>0</v>
+      </c>
+      <c r="K68" s="116">
+        <v>0.13</v>
+      </c>
+      <c r="L68" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q68,$P68,$G68,$I68,$C$3,$J68,$K68,$C$4)*R68</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="15">
+        <v>30</v>
+      </c>
+      <c r="N68" s="13">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="13">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="11">
+        <f>RTD("wdf.rtq",,D68,"LastPrice")</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R68" s="10">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="S68" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T68" s="14" t="e">
+        <f t="shared" si="139"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U68" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q68,$P68,$G68,$I68,$C$3,$J68,$K68,$C$4)*R68</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V68" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q68,$P68,$G68,$I68,$C$3,$J68,$K68,$C$4)*R68</f>
+        <v>0</v>
+      </c>
+      <c r="W68" s="114"/>
+      <c r="X68" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y68" s="6" t="e">
+        <f>X68*U68</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="34"/>
+      <c r="B70" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="I73" s="149">
-        <v>2.5770111518076675</v>
-      </c>
-    </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H74" s="148" t="s">
-        <v>274</v>
-      </c>
-      <c r="I74" s="149">
-        <v>2.6342572034049425</v>
-      </c>
+      <c r="E70" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43250</v>
+      </c>
+      <c r="F70" s="8">
+        <f t="shared" ref="F70:F71" ca="1" si="140">E70+H70</f>
+        <v>43283</v>
+      </c>
+      <c r="G70" s="11">
+        <v>100</v>
+      </c>
+      <c r="H70" s="10">
+        <v>33</v>
+      </c>
+      <c r="I70" s="12">
+        <f t="shared" ref="I70:I71" si="141">H70/365</f>
+        <v>9.0410958904109592E-2</v>
+      </c>
+      <c r="J70" s="12">
+        <v>0</v>
+      </c>
+      <c r="K70" s="116">
+        <v>0.15</v>
+      </c>
+      <c r="L70" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q70,$P70,$G70,$I70,$C$3,$J70,$K70,$C$4)*R70</f>
+        <v>1.7959314396931774</v>
+      </c>
+      <c r="M70" s="15"/>
+      <c r="N70" s="13">
+        <f t="shared" ref="N70:N71" si="142">M70/10000*I70*P70</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="13">
+        <f t="shared" ref="O70:O71" si="143">IF(L70&lt;=0,ABS(L70)+N70,L70-N70)</f>
+        <v>1.7959314396931774</v>
+      </c>
+      <c r="P70" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R70" s="10">
+        <f t="shared" ref="R70:R71" si="144">IF(S70="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T70" s="14">
+        <f t="shared" ref="T70:T71" si="145">O70/P70</f>
+        <v>1.7959314396931773E-2</v>
+      </c>
+      <c r="U70" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q70,$P70,$G70,$I70,$C$3,$J70,$K70,$C$4)*R70</f>
+        <v>-0.49011707220145695</v>
+      </c>
+      <c r="V70" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q70,$P70,$G70,$I70,$C$3,$J70,$K70,$C$4)*R70</f>
+        <v>0.11970842246429925</v>
+      </c>
+      <c r="W70" s="114"/>
+      <c r="X70" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y70" s="6">
+        <f>X70*U70</f>
+        <v>-196.04682888058278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="34"/>
+      <c r="B71" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" s="8">
+        <f t="shared" ca="1" si="103"/>
+        <v>43250</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" ca="1" si="140"/>
+        <v>43283</v>
+      </c>
+      <c r="G71" s="11">
+        <v>100</v>
+      </c>
+      <c r="H71" s="10">
+        <v>33</v>
+      </c>
+      <c r="I71" s="12">
+        <f t="shared" si="141"/>
+        <v>9.0410958904109592E-2</v>
+      </c>
+      <c r="J71" s="12">
+        <v>0</v>
+      </c>
+      <c r="K71" s="116">
+        <v>0.33</v>
+      </c>
+      <c r="L71" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q71,$P71,$G71,$I71,$C$3,$J71,$K71,$C$4)*R71</f>
+        <v>3.9497636457868026</v>
+      </c>
+      <c r="M71" s="15"/>
+      <c r="N71" s="13">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="13">
+        <f t="shared" si="143"/>
+        <v>3.9497636457868026</v>
+      </c>
+      <c r="P71" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R71" s="10">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
+      <c r="S71" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T71" s="14">
+        <f t="shared" si="145"/>
+        <v>3.9497636457868024E-2</v>
+      </c>
+      <c r="U71" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q71,$P71,$G71,$I71,$C$3,$J71,$K71,$C$4)*R71</f>
+        <v>0.51884551554159941</v>
+      </c>
+      <c r="V71" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q71,$P71,$G71,$I71,$C$3,$J71,$K71,$C$4)*R71</f>
+        <v>0.11959159170536182</v>
+      </c>
+      <c r="W71" s="114"/>
+      <c r="X71" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y71" s="6">
+        <f>X71*U71</f>
+        <v>207.53820621663976</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="H72" s="122"/>
+      <c r="I72" s="122"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="H73" s="122"/>
+      <c r="I73" s="123"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="H74" s="122"/>
+      <c r="I74" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18403,19 +19329,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S12:S14 S17:S21 S23:S28 S30:S34 S36:S40 S52:S55 S42:S49 S57:S58 S60:S61 S63:S64</xm:sqref>
+          <xm:sqref>S8:S9 S12:S14 S17:S21 S23:S28 S30:S34 S36:S40 S52:S55 S42:S49 S57:S58 S60:S61 S63:S64 S66:S68 S70:S71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q12:Q14 Q17:Q21 Q23:Q28 Q30:Q34 Q36:Q40 Q52:Q55 Q42:Q49 Q57:Q58 Q60:Q61 Q63:Q64</xm:sqref>
+          <xm:sqref>Q8:Q9 Q12:Q14 Q17:Q21 Q23:Q28 Q30:Q34 Q36:Q40 Q52:Q55 Q42:Q49 Q57:Q58 Q60:Q61 Q63:Q64 Q66:Q68 Q70:Q71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C12:C14 C17:C21 C23:C28 C30:C34 C36:C40 C52:C55 C42:C49 C57:C58 C60:C61 C63:C64</xm:sqref>
+          <xm:sqref>C8:C9 C12:C14 C17:C21 C23:C28 C30:C34 C36:C40 C52:C55 C42:C49 C57:C58 C60:C61 C63:C64 C66:C68 C70:C71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18475,10 +19401,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="145"/>
+      <c r="C1" s="147"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
@@ -18605,11 +19531,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -18673,11 +19599,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -18744,11 +19670,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -18812,15 +19738,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>446.5</v>
+        <v>-20</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -18837,17 +19763,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.8256949920485681</v>
+        <v>19.983568397474013</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.8256949920485681</v>
+        <v>19.983568397474013</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>466.5</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -18860,13 +19786,13 @@
         <v>20</v>
       </c>
       <c r="T11" s="50"/>
-      <c r="U11" s="43">
+      <c r="U11" s="43" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.2261658707304548</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.2842866947926268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -18882,15 +19808,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>496.5</v>
+        <v>30</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -18909,17 +19835,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.0970742245447838</v>
+        <v>0</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.0970742245447838</v>
+        <v>0</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>466.5</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -18932,13 +19858,13 @@
         <v>151</v>
       </c>
       <c r="T12" s="58"/>
-      <c r="U12" s="51">
+      <c r="U12" s="51" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.15120286735736954</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.22151930030676681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -18955,15 +19881,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>446.5|496.5</v>
+        <v>-20|30</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -18977,7 +19903,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.7286207675037844</v>
+        <v>19.983568397474013</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -18988,28 +19914,28 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.7286207675037844</v>
+        <v>19.983568397474013</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>466.5</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
       <c r="S13" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="T13" s="64">
+      <c r="T13" s="64" t="e">
         <f>O13/P13</f>
-        <v>3.7055107556351217E-3</v>
-      </c>
-      <c r="U13" s="64">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="64" t="e">
         <f>U12+U11</f>
-        <v>0.37736873808782434</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2767394485859995E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -19025,11 +19951,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -19050,17 +19976,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-306.33528467337419</v>
+        <v>0</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>306.33528467337419</v>
+        <v>0</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3649</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -19073,13 +19999,13 @@
         <v>20</v>
       </c>
       <c r="T14" s="50"/>
-      <c r="U14" s="43">
+      <c r="U14" s="43" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.64903081386091799</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.6987095521620859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -19096,11 +20022,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -19122,17 +20048,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>61.682638762463284</v>
+        <v>3263.6856394682386</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>61.682638762463284</v>
+        <v>3263.6856394682386</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3649</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -19145,13 +20071,13 @@
         <v>151</v>
       </c>
       <c r="T15" s="58"/>
-      <c r="U15" s="51">
+      <c r="U15" s="51" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.20157061297254586</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>5.1131144113212486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -19168,11 +20094,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -19190,7 +20116,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-244.65264591091091</v>
+        <v>3263.6856394682386</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -19201,28 +20127,28 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>244.65264591091091</v>
+        <v>3263.6856394682386</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3649</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
       <c r="S16" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="T16" s="64">
+      <c r="T16" s="64" t="e">
         <f>O16/P16</f>
-        <v>6.7046491069035596E-2</v>
-      </c>
-      <c r="U16" s="64">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" s="64" t="e">
         <f>U15+U14</f>
-        <v>-0.85060142683346385</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.5855951408408373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -19239,11 +20165,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G18" s="118">
         <v>3000</v>
@@ -19263,17 +20189,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>28.47514229249407</v>
+        <v>36.499241882332399</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>28.47514229249407</v>
+        <v>36.499241882332399</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -19288,11 +20214,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.304163798062973</v>
+        <v>-0.36532295282540872</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.1247752831368985</v>
+        <v>3.3321166163170801</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -19309,11 +20235,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G19" s="119">
         <v>3280</v>
@@ -19335,17 +20261,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-8.0999931008180965</v>
+        <v>-5.8409610893708361</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>8.0999931008180965</v>
+        <v>5.8409610893708361</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -19360,11 +20286,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.10706418142092389</v>
+        <v>-8.1978082650380202E-2</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-1.6466976191764502</v>
+        <v>-1.3418834342377295</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -19381,11 +20307,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -19403,7 +20329,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>20.375149191675973</v>
+        <v>30.658280792961563</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -19414,26 +20340,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>20.375149191675973</v>
+        <v>30.658280792961563</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>6.6390189611195746E-3</v>
+        <v>1.0068400917228756E-2</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.41122797948389689</v>
+        <v>-0.44730103547578892</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>1.4780776639604483</v>
+        <v>1.9902331820793506</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -19449,11 +20375,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="G21" s="118">
         <v>3000</v>
@@ -19473,17 +20399,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>66.250694074335343</v>
+        <v>75.609333834217296</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>66.250694074335343</v>
+        <v>75.609333834217296</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -19498,11 +20424,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.37137734700536384</v>
+        <v>-0.40872504249591657</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.8037515783958042</v>
+        <v>5.9153847461789155</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -19519,11 +20445,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="G22" s="119">
         <v>3280</v>
@@ -19545,17 +20471,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-38.324529592060344</v>
+        <v>-32.79521792159801</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>38.324529592060344</v>
+        <v>32.79521792159801</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -19570,11 +20496,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.24367886139771144</v>
+        <v>-0.21734246870437346</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-4.8150897197007225</v>
+        <v>-4.4817337738481342</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -19591,11 +20517,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -19613,7 +20539,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>27.926164482274999</v>
+        <v>42.814115912619286</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -19624,26 +20550,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>27.926164482274999</v>
+        <v>42.814115912619286</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>9.0994345005783635E-3</v>
+        <v>1.4060464995934083E-2</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.61505620840307529</v>
+        <v>-0.62606751120029003</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>0.98866185869508172</v>
+        <v>1.4336509723307813</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -19660,11 +20586,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G26" s="118">
         <v>2950</v>
@@ -19684,17 +20610,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>15.452792993471803</v>
+        <v>20.623417736643546</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>15.452792993471803</v>
+        <v>20.623417736643546</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -19709,11 +20635,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.1914343787461803</v>
+        <v>-0.24060015478539754</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>2.4341048400944487</v>
+        <v>2.7582073648874825</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -19730,11 +20656,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G27" s="119">
         <v>3350</v>
@@ -19756,17 +20682,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-3.3009641074661431</v>
+        <v>-2.2709473864450302</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>3.3009641074661431</v>
+        <v>2.2709473864450302</v>
       </c>
       <c r="P27" s="94">
         <f>P26</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -19781,11 +20707,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-5.0017476104358138E-2</v>
+        <v>-3.6382865671669151E-2</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.92210880237026771</v>
+        <v>-0.70798487428758961</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -19802,11 +20728,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -19824,7 +20750,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>12.15182888600566</v>
+        <v>18.352470350198516</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -19835,26 +20761,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>12.15182888600566</v>
+        <v>18.352470350198516</v>
       </c>
       <c r="P28" s="111">
         <f>P27</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>3.9595402039770801E-3</v>
+        <v>6.0270838588500873E-3</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.24145185485053844</v>
+        <v>-0.27698302045706669</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>1.511996037724181</v>
+        <v>2.0502224905998929</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -19870,11 +20796,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="G29" s="118">
         <v>2950</v>
@@ -19894,17 +20820,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>48.120185264126235</v>
+        <v>55.627292257022305</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>48.120185264126235</v>
+        <v>55.627292257022305</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -19919,11 +20845,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.29570321242999853</v>
+        <v>-0.33020589039551851</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>5.3052588474392337</v>
+        <v>5.5193537992189476</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -19940,11 +20866,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="G30" s="119">
         <v>3350</v>
@@ -19966,17 +20892,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-25.434059277512233</v>
+        <v>-21.453715464458924</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>25.434059277512233</v>
+        <v>21.453715464458924</v>
       </c>
       <c r="P30" s="94">
         <f>P29</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -19991,11 +20917,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.17677995743952124</v>
+        <v>-0.15518951590820507</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-3.9859163213976103</v>
+        <v>-3.6355518217689848</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -20012,11 +20938,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -20034,7 +20960,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>22.686125986614002</v>
+        <v>34.173576792563381</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -20045,26 +20971,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>22.686125986614002</v>
+        <v>34.173576792563381</v>
       </c>
       <c r="P31" s="111">
         <f>P30</f>
-        <v>3069</v>
+        <v>3045</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>7.3920254110830894E-3</v>
+        <v>1.1222849521367284E-2</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.47248316986951977</v>
+        <v>-0.48539540630372358</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>1.3193425260416234</v>
+        <v>1.8838019774499628</v>
       </c>
     </row>
   </sheetData>
@@ -20128,11 +21054,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -20420,11 +21346,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -20502,11 +21428,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -20584,11 +21510,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -20666,11 +21592,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -20748,11 +21674,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -20830,11 +21756,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -21494,8 +22420,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V16" sqref="C11:V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -21520,10 +22446,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="145"/>
+      <c r="C1" s="147"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -21669,9 +22595,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -21679,20 +22605,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19" t="e">
+      <c r="K8" s="19">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>#VALUE!</v>
+        <v>3925.7505698872742</v>
       </c>
       <c r="L8" s="36">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -21714,9 +22640,9 @@
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24" t="e">
+      <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="V8" s="24" t="e">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
@@ -21774,11 +22700,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43429</v>
+        <v>43430</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -21886,11 +22812,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -21973,11 +22899,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -22060,11 +22986,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -22147,11 +23073,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -22234,11 +23160,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -22321,11 +23247,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>

--- a/PricerAndQutation/OptionPricer_v2_20180516.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180516.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="259">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -914,6 +914,52 @@
   </si>
   <si>
     <t>ap810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu1808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1905</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf901</t>
+  </si>
+  <si>
+    <t>cf905</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ta809</t>
+  </si>
+  <si>
+    <t>ta809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc1809</t>
+  </si>
+  <si>
+    <t>pp1809</t>
+  </si>
+  <si>
+    <t>pp1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb1810</t>
+  </si>
+  <si>
+    <t>hc1810</t>
+  </si>
+  <si>
+    <t>hc1810</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1289,7 +1335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1459,6 +1505,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1471,7 +1608,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1746,6 +1883,93 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1772,7 +1996,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>14790</v>
+        <v>14810</v>
         <stp/>
         <stp>al1809</stp>
         <stp>LastPrice</stp>
@@ -1780,7 +2004,7 @@
         <tr r="P16" s="1"/>
       </tp>
       <tp>
-        <v>14720</v>
+        <v>14740</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
@@ -1789,24 +2013,24 @@
         <tr r="P13" s="1"/>
       </tp>
       <tp>
-        <v>457</v>
+        <v>465</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="9"/>
+        <tr r="P20" s="1"/>
         <tr r="P19" s="1"/>
-        <tr r="P20" s="1"/>
       </tp>
       <tp>
-        <v>9347</v>
+        <v>9116</v>
         <stp/>
         <stp>ap810</stp>
         <stp>LastPrice</stp>
+        <tr r="P22" s="1"/>
         <tr r="P23" s="1"/>
-        <tr r="P22" s="1"/>
       </tp>
       <tp>
-        <v>3042</v>
+        <v>3005</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
@@ -1816,7 +2040,7 @@
         <tr r="P29" s="9"/>
       </tp>
       <tp>
-        <v>3719</v>
+        <v>3712</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
@@ -2123,10 +2347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R31"/>
+  <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3509,6 +3733,824 @@
         <v>-1</v>
       </c>
       <c r="R31" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="93">
+        <v>43256</v>
+      </c>
+      <c r="E33" s="93">
+        <v>43280</v>
+      </c>
+      <c r="F33" s="92">
+        <v>52230</v>
+      </c>
+      <c r="G33" s="92">
+        <v>24</v>
+      </c>
+      <c r="H33" s="92">
+        <v>6.575342465753424E-2</v>
+      </c>
+      <c r="I33" s="92">
+        <v>0</v>
+      </c>
+      <c r="J33" s="92">
+        <v>0.1275</v>
+      </c>
+      <c r="K33" s="92">
+        <v>190.50384453499828</v>
+      </c>
+      <c r="L33" s="92">
+        <v>30</v>
+      </c>
+      <c r="M33" s="92">
+        <v>10.592876712328767</v>
+      </c>
+      <c r="N33" s="99">
+        <v>179.91096782266951</v>
+      </c>
+      <c r="O33" s="92">
+        <v>53700</v>
+      </c>
+      <c r="P33" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q33" s="92">
+        <v>1</v>
+      </c>
+      <c r="R33" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B34" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="93">
+        <v>43256</v>
+      </c>
+      <c r="E34" s="93">
+        <v>43286</v>
+      </c>
+      <c r="F34" s="92">
+        <v>19950</v>
+      </c>
+      <c r="G34" s="92">
+        <v>30</v>
+      </c>
+      <c r="H34" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I34" s="92">
+        <v>0</v>
+      </c>
+      <c r="J34" s="92">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K34" s="92">
+        <v>-79.390863783723262</v>
+      </c>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92">
+        <v>0</v>
+      </c>
+      <c r="N34" s="99">
+        <v>79.390863783723262</v>
+      </c>
+      <c r="O34" s="92">
+        <v>17980</v>
+      </c>
+      <c r="P34" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="182" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="183" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="183" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="183" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="183" t="s">
+        <v>182</v>
+      </c>
+      <c r="O35" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="183"/>
+      <c r="R35" s="183" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B36" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="185" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="186">
+        <v>43256</v>
+      </c>
+      <c r="E36" s="186">
+        <v>43285</v>
+      </c>
+      <c r="F36" s="185">
+        <v>100</v>
+      </c>
+      <c r="G36" s="185">
+        <v>29</v>
+      </c>
+      <c r="H36" s="185">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I36" s="185">
+        <v>0</v>
+      </c>
+      <c r="J36" s="185">
+        <v>0.09</v>
+      </c>
+      <c r="K36" s="185">
+        <v>1.0104233752708041</v>
+      </c>
+      <c r="L36" s="185"/>
+      <c r="M36" s="185">
+        <v>0</v>
+      </c>
+      <c r="N36" s="187">
+        <v>1.0104233752708041</v>
+      </c>
+      <c r="O36" s="185">
+        <v>100</v>
+      </c>
+      <c r="P36" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="185">
+        <v>1</v>
+      </c>
+      <c r="R36" s="188" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="190" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="191">
+        <v>43256</v>
+      </c>
+      <c r="E37" s="191">
+        <v>43313</v>
+      </c>
+      <c r="F37" s="190">
+        <v>100</v>
+      </c>
+      <c r="G37" s="190">
+        <v>57</v>
+      </c>
+      <c r="H37" s="190">
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="I37" s="190">
+        <v>0</v>
+      </c>
+      <c r="J37" s="190">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K37" s="190">
+        <v>1.492941316345636</v>
+      </c>
+      <c r="L37" s="190"/>
+      <c r="M37" s="190">
+        <v>0</v>
+      </c>
+      <c r="N37" s="192">
+        <v>1.492941316345636</v>
+      </c>
+      <c r="O37" s="190">
+        <v>100</v>
+      </c>
+      <c r="P37" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="190">
+        <v>1</v>
+      </c>
+      <c r="R37" s="193" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B38" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="185" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="186">
+        <v>43256</v>
+      </c>
+      <c r="E38" s="186">
+        <v>43285</v>
+      </c>
+      <c r="F38" s="185">
+        <v>100</v>
+      </c>
+      <c r="G38" s="185">
+        <v>29</v>
+      </c>
+      <c r="H38" s="185">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I38" s="185">
+        <v>0</v>
+      </c>
+      <c r="J38" s="185">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K38" s="185">
+        <v>2.3012614610915776</v>
+      </c>
+      <c r="L38" s="185"/>
+      <c r="M38" s="185">
+        <v>0</v>
+      </c>
+      <c r="N38" s="187">
+        <v>2.3012614610915776</v>
+      </c>
+      <c r="O38" s="185">
+        <v>100</v>
+      </c>
+      <c r="P38" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="185">
+        <v>1</v>
+      </c>
+      <c r="R38" s="188" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="190" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="191">
+        <v>43256</v>
+      </c>
+      <c r="E39" s="191">
+        <v>43313</v>
+      </c>
+      <c r="F39" s="190">
+        <v>100</v>
+      </c>
+      <c r="G39" s="190">
+        <v>57</v>
+      </c>
+      <c r="H39" s="190">
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="I39" s="190">
+        <v>0</v>
+      </c>
+      <c r="J39" s="190">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K39" s="190">
+        <v>3.2209186115487185</v>
+      </c>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190">
+        <v>0</v>
+      </c>
+      <c r="N39" s="192">
+        <v>3.2209186115487185</v>
+      </c>
+      <c r="O39" s="190">
+        <v>100</v>
+      </c>
+      <c r="P39" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q39" s="190">
+        <v>1</v>
+      </c>
+      <c r="R39" s="193" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B40" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="185" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="186">
+        <v>43256</v>
+      </c>
+      <c r="E40" s="186">
+        <v>43285</v>
+      </c>
+      <c r="F40" s="185">
+        <v>100</v>
+      </c>
+      <c r="G40" s="185">
+        <v>29</v>
+      </c>
+      <c r="H40" s="185">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I40" s="185">
+        <v>0</v>
+      </c>
+      <c r="J40" s="185">
+        <v>0.125</v>
+      </c>
+      <c r="K40" s="185">
+        <v>1.403330840532206</v>
+      </c>
+      <c r="L40" s="185"/>
+      <c r="M40" s="185">
+        <v>0</v>
+      </c>
+      <c r="N40" s="187">
+        <v>1.403330840532206</v>
+      </c>
+      <c r="O40" s="185">
+        <v>100</v>
+      </c>
+      <c r="P40" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="185">
+        <v>1</v>
+      </c>
+      <c r="R40" s="188" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B41" s="194" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="195" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="196">
+        <v>43256</v>
+      </c>
+      <c r="E41" s="196">
+        <v>43285</v>
+      </c>
+      <c r="F41" s="195">
+        <v>100</v>
+      </c>
+      <c r="G41" s="195">
+        <v>29</v>
+      </c>
+      <c r="H41" s="195">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I41" s="195">
+        <v>0</v>
+      </c>
+      <c r="J41" s="195">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K41" s="195">
+        <v>-1.9645656248129484</v>
+      </c>
+      <c r="L41" s="195"/>
+      <c r="M41" s="195">
+        <v>0</v>
+      </c>
+      <c r="N41" s="197">
+        <v>1.9645656248129484</v>
+      </c>
+      <c r="O41" s="195">
+        <v>100</v>
+      </c>
+      <c r="P41" s="195" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="195">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="198" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B42" s="194" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="195" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="196">
+        <v>43256</v>
+      </c>
+      <c r="E42" s="196">
+        <v>43313</v>
+      </c>
+      <c r="F42" s="195">
+        <v>100</v>
+      </c>
+      <c r="G42" s="195">
+        <v>57</v>
+      </c>
+      <c r="H42" s="195">
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="I42" s="195">
+        <v>0</v>
+      </c>
+      <c r="J42" s="195">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="K42" s="195">
+        <v>2.1214211969258798</v>
+      </c>
+      <c r="L42" s="195"/>
+      <c r="M42" s="195">
+        <v>0</v>
+      </c>
+      <c r="N42" s="197">
+        <v>2.1214211969258798</v>
+      </c>
+      <c r="O42" s="195">
+        <v>100</v>
+      </c>
+      <c r="P42" s="195" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" s="195">
+        <v>1</v>
+      </c>
+      <c r="R42" s="198" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="190" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="191">
+        <v>43256</v>
+      </c>
+      <c r="E43" s="191">
+        <v>43313</v>
+      </c>
+      <c r="F43" s="190">
+        <v>100</v>
+      </c>
+      <c r="G43" s="190">
+        <v>57</v>
+      </c>
+      <c r="H43" s="190">
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="I43" s="190">
+        <v>0</v>
+      </c>
+      <c r="J43" s="190">
+        <v>0.19</v>
+      </c>
+      <c r="K43" s="190">
+        <v>-2.9853567090553241</v>
+      </c>
+      <c r="L43" s="190"/>
+      <c r="M43" s="190">
+        <v>0</v>
+      </c>
+      <c r="N43" s="192">
+        <v>2.9853567090553241</v>
+      </c>
+      <c r="O43" s="190">
+        <v>100</v>
+      </c>
+      <c r="P43" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q43" s="190">
+        <v>-1</v>
+      </c>
+      <c r="R43" s="193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B44" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="185" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="186">
+        <v>43256</v>
+      </c>
+      <c r="E44" s="186">
+        <v>43285</v>
+      </c>
+      <c r="F44" s="185">
+        <v>100</v>
+      </c>
+      <c r="G44" s="185">
+        <v>29</v>
+      </c>
+      <c r="H44" s="185">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I44" s="185">
+        <v>0</v>
+      </c>
+      <c r="J44" s="185">
+        <v>0.215</v>
+      </c>
+      <c r="K44" s="185">
+        <v>2.4134845640644613</v>
+      </c>
+      <c r="L44" s="185"/>
+      <c r="M44" s="185">
+        <v>0</v>
+      </c>
+      <c r="N44" s="187">
+        <v>2.4134845640644613</v>
+      </c>
+      <c r="O44" s="185">
+        <v>100</v>
+      </c>
+      <c r="P44" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q44" s="185">
+        <v>1</v>
+      </c>
+      <c r="R44" s="188" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="190" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="191">
+        <v>43256</v>
+      </c>
+      <c r="E45" s="191">
+        <v>43285</v>
+      </c>
+      <c r="F45" s="190">
+        <v>100</v>
+      </c>
+      <c r="G45" s="190">
+        <v>29</v>
+      </c>
+      <c r="H45" s="190">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I45" s="190">
+        <v>0</v>
+      </c>
+      <c r="J45" s="190">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K45" s="190">
+        <v>-3.1988996284107571</v>
+      </c>
+      <c r="L45" s="190"/>
+      <c r="M45" s="190">
+        <v>0</v>
+      </c>
+      <c r="N45" s="192">
+        <v>3.1988996284107571</v>
+      </c>
+      <c r="O45" s="190">
+        <v>100</v>
+      </c>
+      <c r="P45" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q45" s="190">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B46" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="185" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" s="186">
+        <v>43256</v>
+      </c>
+      <c r="E46" s="186">
+        <v>43285</v>
+      </c>
+      <c r="F46" s="185">
+        <v>100</v>
+      </c>
+      <c r="G46" s="185">
+        <v>29</v>
+      </c>
+      <c r="H46" s="185">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I46" s="185">
+        <v>0</v>
+      </c>
+      <c r="J46" s="185">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K46" s="185">
+        <v>2.3012614610915776</v>
+      </c>
+      <c r="L46" s="185"/>
+      <c r="M46" s="185">
+        <v>0</v>
+      </c>
+      <c r="N46" s="187">
+        <v>2.3012614610915776</v>
+      </c>
+      <c r="O46" s="185">
+        <v>100</v>
+      </c>
+      <c r="P46" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="185">
+        <v>1</v>
+      </c>
+      <c r="R46" s="188" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="190" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="191">
+        <v>43256</v>
+      </c>
+      <c r="E47" s="191">
+        <v>43285</v>
+      </c>
+      <c r="F47" s="190">
+        <v>100</v>
+      </c>
+      <c r="G47" s="190">
+        <v>29</v>
+      </c>
+      <c r="H47" s="190">
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="I47" s="190">
+        <v>0</v>
+      </c>
+      <c r="J47" s="190">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K47" s="190">
+        <v>-3.0867147477978421</v>
+      </c>
+      <c r="L47" s="190"/>
+      <c r="M47" s="190">
+        <v>0</v>
+      </c>
+      <c r="N47" s="192">
+        <v>3.0867147477978421</v>
+      </c>
+      <c r="O47" s="190">
+        <v>100</v>
+      </c>
+      <c r="P47" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q47" s="190">
+        <v>-1</v>
+      </c>
+      <c r="R47" s="193" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3692,11 +4734,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -3765,11 +4807,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -3835,11 +4877,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -5080,7 +6122,7 @@
       <c r="H23" s="121"/>
       <c r="I23" s="127">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="J23" s="129"/>
       <c r="L23" s="121" t="s">
@@ -5089,7 +6131,7 @@
       <c r="M23" s="121"/>
       <c r="N23" s="127">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="O23" s="129"/>
       <c r="Q23" s="121" t="s">
@@ -5098,7 +6140,7 @@
       <c r="R23" s="121"/>
       <c r="S23" s="127">
         <f ca="1">TODAY()-1</f>
-        <v>43254</v>
+        <v>43255</v>
       </c>
       <c r="T23" s="129"/>
       <c r="V23" s="121" t="s">
@@ -5107,7 +6149,7 @@
       <c r="W23" s="121"/>
       <c r="X23" s="127">
         <f ca="1">TODAY()-1</f>
-        <v>43254</v>
+        <v>43255</v>
       </c>
       <c r="Y23" s="129"/>
     </row>
@@ -7485,10 +8527,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7654,11 +8696,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -7678,7 +8720,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-4.2299417311546677</v>
+        <v>-4.0725807620219854</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -7687,11 +8729,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>4.2299417311546677</v>
+        <v>4.0725807620219854</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14720</v>
+        <v>14740</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -7705,15 +8747,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>2.8736017195344211E-4</v>
+        <v>2.762944886039339E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>8.0085804277985062E-3</v>
+        <v>7.729035579018273E-3</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-1.6201687033904264</v>
+        <v>-1.5727513506203223</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7729,11 +8771,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43802.5</v>
+        <v>43803.5</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -7813,12 +8855,12 @@
         <v>202</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E23" ca="1" si="9">TODAY()</f>
-        <v>43255</v>
+        <f t="shared" ref="E13:E44" ca="1" si="9">TODAY()</f>
+        <v>43256</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13:F17" ca="1" si="10">E13+H13</f>
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="G13" s="11">
         <v>3300</v>
@@ -7838,7 +8880,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>4.8939784618879658E-97</v>
+        <v>3.2721285064954938E-97</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13">
@@ -7847,11 +8889,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" ref="O13:O17" si="13">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>4.8939784618879658E-97</v>
+        <v>3.2721285064954938E-97</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>14720</v>
+        <v>14740</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>85</v>
@@ -7865,15 +8907,15 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13:T17" si="15">O13/P13</f>
-        <v>3.3247136289999765E-101</v>
+        <v>2.2198972228599009E-101</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-9.8529690196396214E-99</v>
+        <v>-6.5847161079511259E-99</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>1.9660964360709582E-87</v>
+        <v>1.3697543872362737E-87</v>
       </c>
       <c r="W13" s="114"/>
       <c r="X13" s="115">
@@ -7881,7 +8923,7 @@
       </c>
       <c r="Y13" s="6">
         <f>X13*U13</f>
-        <v>-3.9411876078558486E-96</v>
+        <v>-2.6338864431804503E-96</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7897,11 +8939,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="G14" s="11">
         <v>3350</v>
@@ -7921,7 +8963,7 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>4.1878287787375187E-95</v>
+        <v>2.8112658871603756E-95</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="13">
@@ -7930,11 +8972,11 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" si="13"/>
-        <v>4.1878287787375187E-95</v>
+        <v>2.8112658871603756E-95</v>
       </c>
       <c r="P14" s="11">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>14720</v>
+        <v>14740</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>85</v>
@@ -7948,15 +8990,15 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" si="15"/>
-        <v>2.8449923768597273E-99</v>
+        <v>1.9072360157126022E-99</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-8.3471126535191461E-97</v>
+        <v>-5.6008613463010514E-97</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>1.0693093466420167E-85</v>
+        <v>7.4766379076179944E-86</v>
       </c>
       <c r="W14" s="114"/>
       <c r="X14" s="115">
@@ -7964,7 +9006,7 @@
       </c>
       <c r="Y14" s="6">
         <f>X14*U14</f>
-        <v>-3.3388450614076585E-94</v>
+        <v>-2.2403445385204206E-94</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7980,11 +9022,11 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="G15" s="11">
         <v>3400</v>
@@ -8004,7 +9046,7 @@
       </c>
       <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>8.0785319245442081E-94</v>
+        <v>5.4478770860269681E-94</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="13">
@@ -8013,11 +9055,11 @@
       </c>
       <c r="O15" s="13">
         <f t="shared" si="13"/>
-        <v>8.0785319245442081E-94</v>
+        <v>5.4478770860269681E-94</v>
       </c>
       <c r="P15" s="11">
         <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
-        <v>14790</v>
+        <v>14810</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>85</v>
@@ -8031,15 +9073,15 @@
       </c>
       <c r="T15" s="14">
         <f t="shared" si="15"/>
-        <v>5.4621581639920268E-98</v>
+        <v>3.6785125496468388E-98</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-1.5917565035183364E-95</v>
+        <v>-1.0729528011128535E-95</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>1.5266602992621667E-84</v>
+        <v>1.0718248592608244E-84</v>
       </c>
       <c r="W15" s="114"/>
       <c r="X15" s="115">
@@ -8047,7 +9089,7 @@
       </c>
       <c r="Y15" s="6">
         <f>X15*U15</f>
-        <v>-6.3670260140733457E-93</v>
+        <v>-4.2918112044514141E-93</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8063,11 +9105,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="G16" s="11">
         <v>3450</v>
@@ -8087,7 +9129,7 @@
       </c>
       <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>5.6518822648606798E-92</v>
+        <v>3.826251047279633E-92</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13">
@@ -8096,11 +9138,11 @@
       </c>
       <c r="O16" s="13">
         <f t="shared" si="13"/>
-        <v>5.6518822648606798E-92</v>
+        <v>3.826251047279633E-92</v>
       </c>
       <c r="P16" s="11">
         <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
-        <v>14790</v>
+        <v>14810</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>85</v>
@@ -8114,15 +9156,15 @@
       </c>
       <c r="T16" s="14">
         <f t="shared" si="15"/>
-        <v>3.8214214096421091E-96</v>
+        <v>2.5835591136256805E-96</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-1.1026458312939953E-93</v>
+        <v>-7.4615564398814889E-94</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>6.92975682034583E-83</v>
+        <v>4.882152843257111E-83</v>
       </c>
       <c r="W16" s="114"/>
       <c r="X16" s="115">
@@ -8130,7 +9172,7 @@
       </c>
       <c r="Y16" s="6">
         <f>X16*U16</f>
-        <v>-4.410583325175981E-91</v>
+        <v>-2.9846225759525956E-91</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8146,11 +9188,11 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="G17" s="11">
         <v>3500</v>
@@ -8228,11 +9270,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ref="F19" ca="1" si="16">E19+H19</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="G19" s="11">
         <v>500</v>
@@ -8252,7 +9294,7 @@
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-47.768654090876225</v>
+        <v>-41.571832763472173</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="13">
@@ -8261,11 +9303,11 @@
       </c>
       <c r="O19" s="13">
         <f t="shared" ref="O19" si="19">IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
-        <v>47.768654090876225</v>
+        <v>41.571832763472173</v>
       </c>
       <c r="P19" s="11">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -8279,15 +9321,15 @@
       </c>
       <c r="T19" s="14">
         <f t="shared" ref="T19" si="21">O19/P19</f>
-        <v>0.10452659538484951</v>
+        <v>8.9401790889187469E-2</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>0.79991103989698331</v>
+        <v>0.74831539594129026</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.36475530871467754</v>
+        <v>-0.42326815804059947</v>
       </c>
       <c r="W19" s="114"/>
       <c r="X19" s="115">
@@ -8295,7 +9337,7 @@
       </c>
       <c r="Y19" s="6">
         <f>X19*U19</f>
-        <v>319.96441595879332</v>
+        <v>299.3261583765161</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
@@ -8310,11 +9352,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20" ca="1" si="22">E20+H20</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="G20" s="11">
         <v>500</v>
@@ -8334,7 +9376,7 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-4.8392809570000281</v>
+        <v>-6.629319747526452</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="13">
@@ -8343,11 +9385,11 @@
       </c>
       <c r="O20" s="13">
         <f t="shared" ref="O20" si="25">IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>4.8392809570000281</v>
+        <v>6.629319747526452</v>
       </c>
       <c r="P20" s="11">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>39</v>
@@ -8361,15 +9403,15 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" ref="T20" si="27">O20/P20</f>
-        <v>1.0589236229759361E-2</v>
+        <v>1.4256601607583767E-2</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.19844647484390521</v>
+        <v>-0.25004211880101934</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.36475530871469886</v>
+        <v>-0.42326815804057816</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
@@ -8384,11 +9426,11 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22" ca="1" si="28">E22+H22</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="G22" s="11">
         <v>9000</v>
@@ -8408,7 +9450,7 @@
       </c>
       <c r="L22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-180.34581834729124</v>
+        <v>-265.93962750107357</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="13">
@@ -8417,11 +9459,11 @@
       </c>
       <c r="O22" s="13">
         <f t="shared" ref="O22" si="31">IF(L22&lt;=0,ABS(L22)+N22,L22-N22)</f>
-        <v>180.34581834729124</v>
+        <v>265.93962750107357</v>
       </c>
       <c r="P22" s="11">
         <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
-        <v>9347</v>
+        <v>9116</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>85</v>
@@ -8435,15 +9477,15 @@
       </c>
       <c r="T22" s="14">
         <f t="shared" ref="T22" si="33">O22/P22</f>
-        <v>1.9294513570909517E-2</v>
+        <v>2.9172841981249843E-2</v>
       </c>
       <c r="U22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>0.31861601737546152</v>
+        <v>0.42453045236925391</v>
       </c>
       <c r="V22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-9.555529148078449</v>
+        <v>-10.225658984172696</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
@@ -8458,11 +9500,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23" ca="1" si="34">E23+H23</f>
-        <v>43316</v>
+        <v>43317</v>
       </c>
       <c r="G23" s="11">
         <v>9000</v>
@@ -8482,7 +9524,7 @@
       </c>
       <c r="L23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-309.41640518596932</v>
+        <v>-400.63866836158741</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="13">
@@ -8491,11 +9533,11 @@
       </c>
       <c r="O23" s="13">
         <f t="shared" ref="O23" si="37">IF(L23&lt;=0,ABS(L23)+N23,L23-N23)</f>
-        <v>309.41640518596932</v>
+        <v>400.63866836158741</v>
       </c>
       <c r="P23" s="11">
         <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
-        <v>9347</v>
+        <v>9116</v>
       </c>
       <c r="Q23" s="10" t="s">
         <v>85</v>
@@ -8509,15 +9551,1414 @@
       </c>
       <c r="T23" s="14">
         <f t="shared" ref="T23" si="39">O23/P23</f>
-        <v>3.3103285031129699E-2</v>
+        <v>4.3948954405615116E-2</v>
       </c>
       <c r="U23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>0.35752383712406299</v>
+        <v>0.43325025435478892</v>
       </c>
       <c r="V23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-14.229586660857422</v>
+        <v>-14.618688001821511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="34"/>
+      <c r="B25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" ref="F25" ca="1" si="40">E25+H25</f>
+        <v>43280</v>
+      </c>
+      <c r="G25" s="11">
+        <v>52230</v>
+      </c>
+      <c r="H25" s="10">
+        <v>24</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" ref="I25" si="41">H25/365</f>
+        <v>6.575342465753424E-2</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="116">
+        <v>0.1275</v>
+      </c>
+      <c r="L25" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
+        <v>190.50384453499828</v>
+      </c>
+      <c r="M25" s="15">
+        <v>30</v>
+      </c>
+      <c r="N25" s="13">
+        <f t="shared" ref="N25" si="42">M25/10000*I25*P25</f>
+        <v>10.592876712328767</v>
+      </c>
+      <c r="O25" s="13">
+        <f t="shared" ref="O25" si="43">IF(L25&lt;=0,ABS(L25)+N25,L25-N25)</f>
+        <v>179.91096782266951</v>
+      </c>
+      <c r="P25" s="11">
+        <v>53700</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" ref="R25" si="44">IF(S25="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T25" s="14">
+        <f t="shared" ref="T25" si="45">O25/P25</f>
+        <v>3.3502973523774583E-3</v>
+      </c>
+      <c r="U25" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
+        <v>-0.19318112281325739</v>
+      </c>
+      <c r="V25" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
+        <v>37.665912727388786</v>
+      </c>
+      <c r="W25" s="114"/>
+      <c r="X25" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y25" s="6">
+        <f>X25*U25</f>
+        <v>-77.272449125302956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="34"/>
+      <c r="B27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" ref="F27:F29" ca="1" si="46">E27+H27</f>
+        <v>43563</v>
+      </c>
+      <c r="G27" s="11">
+        <v>350</v>
+      </c>
+      <c r="H27" s="10">
+        <v>307</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" ref="I27:I29" si="47">H27/365</f>
+        <v>0.84109589041095889</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="L27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>2.1633534347839287</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="13">
+        <f t="shared" ref="N27:N29" si="48">M27/10000*I27*P27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" ref="O27:O29" si="49">IF(L27&lt;=0,ABS(L27)+N27,L27-N27)</f>
+        <v>2.1633534347839287</v>
+      </c>
+      <c r="P27" s="11">
+        <v>460</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" ref="R27:R29" si="50">IF(S27="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T27" s="14">
+        <f t="shared" ref="T27:T29" si="51">O27/P27</f>
+        <v>4.70294224953028E-3</v>
+      </c>
+      <c r="U27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>-5.5913136676899455E-2</v>
+      </c>
+      <c r="V27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>0.47339859374906013</v>
+      </c>
+      <c r="W27" s="114"/>
+      <c r="X27" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y27" s="6">
+        <f>X27*U27</f>
+        <v>-22.365254670759782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="34"/>
+      <c r="B28" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ca="1" si="46"/>
+        <v>43563</v>
+      </c>
+      <c r="G28" s="11">
+        <v>460</v>
+      </c>
+      <c r="H28" s="10">
+        <v>307</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="47"/>
+        <v>0.84109589041095889</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="L28" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
+        <v>-33.052667774565123</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="13">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="13">
+        <f t="shared" si="49"/>
+        <v>33.052667774565123</v>
+      </c>
+      <c r="P28" s="11">
+        <v>460</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="50"/>
+        <v>-1</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="14">
+        <f t="shared" si="51"/>
+        <v>7.1853625596880702E-2</v>
+      </c>
+      <c r="U28" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
+        <v>0.45573257775544107</v>
+      </c>
+      <c r="V28" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
+        <v>-1.6479994453830926</v>
+      </c>
+      <c r="W28" s="114"/>
+      <c r="X28" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y28" s="6">
+        <f>X28*U28</f>
+        <v>182.29303110217643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="34"/>
+      <c r="B29" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" ca="1" si="46"/>
+        <v>43563</v>
+      </c>
+      <c r="G29" s="11">
+        <v>490</v>
+      </c>
+      <c r="H29" s="10">
+        <v>307</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" si="47"/>
+        <v>0.84109589041095889</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="L29" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
+        <v>21.37911798395055</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="13">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" si="49"/>
+        <v>21.37911798395055</v>
+      </c>
+      <c r="P29" s="11">
+        <v>460</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" si="51"/>
+        <v>4.647634344337076E-2</v>
+      </c>
+      <c r="U29" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
+        <v>0.39356072357037419</v>
+      </c>
+      <c r="V29" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
+        <v>1.6026955359131847</v>
+      </c>
+      <c r="W29" s="114"/>
+      <c r="X29" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y29" s="6">
+        <f>X29*U29</f>
+        <v>157.42428942814968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="34"/>
+      <c r="B31" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" ref="F31" ca="1" si="52">E31+H31</f>
+        <v>43286</v>
+      </c>
+      <c r="G31" s="11">
+        <v>20600</v>
+      </c>
+      <c r="H31" s="10">
+        <v>30</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" ref="I31" si="53">H31/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="116">
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="L31" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
+        <v>-78.847663319336334</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="13">
+        <f t="shared" ref="N31" si="54">M31/10000*I31*P31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" ref="O31" si="55">IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
+        <v>78.847663319336334</v>
+      </c>
+      <c r="P31" s="11">
+        <v>18515</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="R31" s="10">
+        <f t="shared" ref="R31" si="56">IF(S31="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="14">
+        <f t="shared" ref="T31" si="57">O31/P31</f>
+        <v>4.2585829500046629E-3</v>
+      </c>
+      <c r="U31" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
+        <v>-0.10905850401741191</v>
+      </c>
+      <c r="V31" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
+        <v>-9.9107501026288674</v>
+      </c>
+      <c r="W31" s="114"/>
+      <c r="X31" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y31" s="6">
+        <f>X31*U31</f>
+        <v>-43.623401606964762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="146"/>
+    </row>
+    <row r="33" spans="1:25" s="166" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="155"/>
+      <c r="B33" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="157" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="158">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F33" s="158">
+        <f t="shared" ref="F33:F38" ca="1" si="58">E33+H33</f>
+        <v>43285</v>
+      </c>
+      <c r="G33" s="159">
+        <v>100</v>
+      </c>
+      <c r="H33" s="157">
+        <v>29</v>
+      </c>
+      <c r="I33" s="160">
+        <f t="shared" ref="I33:I38" si="59">H33/365</f>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J33" s="160">
+        <v>0</v>
+      </c>
+      <c r="K33" s="161">
+        <v>0.12</v>
+      </c>
+      <c r="L33" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
+        <v>1.3472030700832036</v>
+      </c>
+      <c r="M33" s="162"/>
+      <c r="N33" s="156">
+        <f t="shared" ref="N33:N38" si="60">M33/10000*I33*P33</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="156">
+        <f t="shared" ref="O33:O38" si="61">IF(L33&lt;=0,ABS(L33)+N33,L33-N33)</f>
+        <v>1.3472030700832036</v>
+      </c>
+      <c r="P33" s="159">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="157" t="s">
+        <v>248</v>
+      </c>
+      <c r="R33" s="157">
+        <f t="shared" ref="R33:R38" si="62">IF(S33="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S33" s="157" t="s">
+        <v>151</v>
+      </c>
+      <c r="T33" s="163">
+        <f t="shared" ref="T33:T38" si="63">O33/P33</f>
+        <v>1.3472030700832036E-2</v>
+      </c>
+      <c r="U33" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
+        <v>0.50594209629686304</v>
+      </c>
+      <c r="V33" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
+        <v>0.11225618195812359</v>
+      </c>
+      <c r="W33" s="164"/>
+      <c r="X33" s="165">
+        <v>400</v>
+      </c>
+      <c r="Y33" s="166">
+        <f>X33*U33</f>
+        <v>202.37683851874522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="181" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="170"/>
+      <c r="B34" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="172" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="172" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="173">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F34" s="173">
+        <f t="shared" ca="1" si="58"/>
+        <v>43313</v>
+      </c>
+      <c r="G34" s="174">
+        <v>100</v>
+      </c>
+      <c r="H34" s="172">
+        <v>57</v>
+      </c>
+      <c r="I34" s="175">
+        <f t="shared" si="59"/>
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="J34" s="175">
+        <v>0</v>
+      </c>
+      <c r="K34" s="176">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L34" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
+        <v>1.492941316345636</v>
+      </c>
+      <c r="M34" s="177"/>
+      <c r="N34" s="171">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="171">
+        <f t="shared" si="61"/>
+        <v>1.492941316345636</v>
+      </c>
+      <c r="P34" s="174">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="172" t="s">
+        <v>248</v>
+      </c>
+      <c r="R34" s="172">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="S34" s="172" t="s">
+        <v>151</v>
+      </c>
+      <c r="T34" s="178">
+        <f t="shared" si="63"/>
+        <v>1.492941316345636E-2</v>
+      </c>
+      <c r="U34" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
+        <v>0.50590547246116557</v>
+      </c>
+      <c r="V34" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
+        <v>0.1571331589150553</v>
+      </c>
+      <c r="W34" s="179"/>
+      <c r="X34" s="180">
+        <v>400</v>
+      </c>
+      <c r="Y34" s="181">
+        <f>X34*U34</f>
+        <v>202.36218898446623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="34"/>
+      <c r="B35" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" ca="1" si="58"/>
+        <v>43285</v>
+      </c>
+      <c r="G35" s="11">
+        <v>100</v>
+      </c>
+      <c r="H35" s="10">
+        <v>29</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="59"/>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="116">
+        <v>0.21</v>
+      </c>
+      <c r="L35" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
+        <v>2.3573735977138597</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="13">
+        <f t="shared" si="61"/>
+        <v>2.3573735977138597</v>
+      </c>
+      <c r="P35" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="R35" s="10">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T35" s="14">
+        <f t="shared" si="63"/>
+        <v>2.3573735977138598E-2</v>
+      </c>
+      <c r="U35" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
+        <v>0.51099296155463492</v>
+      </c>
+      <c r="V35" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
+        <v>0.11222307513368079</v>
+      </c>
+      <c r="W35" s="114"/>
+      <c r="X35" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y35" s="6">
+        <f>X35*U35</f>
+        <v>204.39718462185397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="34"/>
+      <c r="B36" s="147" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="148" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="148" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="149">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F36" s="149">
+        <f t="shared" ca="1" si="58"/>
+        <v>43313</v>
+      </c>
+      <c r="G36" s="150">
+        <v>100</v>
+      </c>
+      <c r="H36" s="148">
+        <v>57</v>
+      </c>
+      <c r="I36" s="151">
+        <f t="shared" si="59"/>
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="J36" s="151">
+        <v>0</v>
+      </c>
+      <c r="K36" s="152">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L36" s="147">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
+        <v>3.2209186115487185</v>
+      </c>
+      <c r="M36" s="153"/>
+      <c r="N36" s="147">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="147">
+        <f t="shared" si="61"/>
+        <v>3.2209186115487185</v>
+      </c>
+      <c r="P36" s="150">
+        <v>100</v>
+      </c>
+      <c r="Q36" s="148" t="s">
+        <v>248</v>
+      </c>
+      <c r="R36" s="148">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="S36" s="148" t="s">
+        <v>151</v>
+      </c>
+      <c r="T36" s="154">
+        <f t="shared" si="63"/>
+        <v>3.2209186115487183E-2</v>
+      </c>
+      <c r="U36" s="147">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
+        <v>0.51454537315365201</v>
+      </c>
+      <c r="V36" s="147">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
+        <v>0.15703196990514812</v>
+      </c>
+      <c r="W36" s="114"/>
+      <c r="X36" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y36" s="6">
+        <f>X36*U36</f>
+        <v>205.8181492614608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="166" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="155"/>
+      <c r="B37" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="157" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="158">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F37" s="158">
+        <f t="shared" ca="1" si="58"/>
+        <v>43285</v>
+      </c>
+      <c r="G37" s="159">
+        <v>100</v>
+      </c>
+      <c r="H37" s="157">
+        <v>29</v>
+      </c>
+      <c r="I37" s="160">
+        <f t="shared" si="59"/>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J37" s="160">
+        <v>0</v>
+      </c>
+      <c r="K37" s="161">
+        <v>0.125</v>
+      </c>
+      <c r="L37" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
+        <v>1.403330840532206</v>
+      </c>
+      <c r="M37" s="162"/>
+      <c r="N37" s="156">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="156">
+        <f t="shared" si="61"/>
+        <v>1.403330840532206</v>
+      </c>
+      <c r="P37" s="159">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="157" t="s">
+        <v>248</v>
+      </c>
+      <c r="R37" s="157">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="S37" s="157" t="s">
+        <v>151</v>
+      </c>
+      <c r="T37" s="163">
+        <f t="shared" si="63"/>
+        <v>1.403330840532206E-2</v>
+      </c>
+      <c r="U37" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
+        <v>0.50622273632612291</v>
+      </c>
+      <c r="V37" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
+        <v>0.11225481624785871</v>
+      </c>
+      <c r="W37" s="164"/>
+      <c r="X37" s="165">
+        <v>400</v>
+      </c>
+      <c r="Y37" s="166">
+        <f>X37*U37</f>
+        <v>202.48909453044917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="95" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="167"/>
+      <c r="B38" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" ca="1" si="58"/>
+        <v>43285</v>
+      </c>
+      <c r="G38" s="11">
+        <v>100</v>
+      </c>
+      <c r="H38" s="10">
+        <v>29</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" si="59"/>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="116">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L38" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
+        <v>-1.9645656248129484</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" si="61"/>
+        <v>1.9645656248129484</v>
+      </c>
+      <c r="P38" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="14">
+        <f t="shared" si="63"/>
+        <v>1.9645656248129483E-2</v>
+      </c>
+      <c r="U38" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
+        <v>-0.50902891832436126</v>
+      </c>
+      <c r="V38" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
+        <v>-0.11223809461234069</v>
+      </c>
+      <c r="W38" s="168"/>
+      <c r="X38" s="169">
+        <v>400</v>
+      </c>
+      <c r="Y38" s="95">
+        <f>X38*U38</f>
+        <v>-203.6115673297445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="95" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="167"/>
+      <c r="B39" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" ref="F39:F40" ca="1" si="64">E39+H39</f>
+        <v>43313</v>
+      </c>
+      <c r="G39" s="11">
+        <v>100</v>
+      </c>
+      <c r="H39" s="10">
+        <v>57</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" ref="I39:I40" si="65">H39/365</f>
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+      <c r="K39" s="116">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L39" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>2.1214211969258798</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="13">
+        <f t="shared" ref="N39:N40" si="66">M39/10000*I39*P39</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" ref="O39:O40" si="67">IF(L39&lt;=0,ABS(L39)+N39,L39-N39)</f>
+        <v>2.1214211969258798</v>
+      </c>
+      <c r="P39" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" ref="R39:R40" si="68">IF(S39="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T39" s="14">
+        <f t="shared" ref="T39:T40" si="69">O39/P39</f>
+        <v>2.1214211969258798E-2</v>
+      </c>
+      <c r="U39" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>0.50904787971326471</v>
+      </c>
+      <c r="V39" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>0.15710494209223924</v>
+      </c>
+      <c r="W39" s="168"/>
+      <c r="X39" s="169">
+        <v>400</v>
+      </c>
+      <c r="Y39" s="95">
+        <f>X39*U39</f>
+        <v>203.61915188530588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="181" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="170"/>
+      <c r="B40" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="172" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="172" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="173">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F40" s="173">
+        <f t="shared" ca="1" si="64"/>
+        <v>43313</v>
+      </c>
+      <c r="G40" s="174">
+        <v>100</v>
+      </c>
+      <c r="H40" s="172">
+        <v>57</v>
+      </c>
+      <c r="I40" s="175">
+        <f t="shared" si="65"/>
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="J40" s="175">
+        <v>0</v>
+      </c>
+      <c r="K40" s="176">
+        <v>0.19</v>
+      </c>
+      <c r="L40" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
+        <v>-2.9853567090553241</v>
+      </c>
+      <c r="M40" s="177"/>
+      <c r="N40" s="171">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="171">
+        <f t="shared" si="67"/>
+        <v>2.9853567090553241</v>
+      </c>
+      <c r="P40" s="174">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="172" t="s">
+        <v>248</v>
+      </c>
+      <c r="R40" s="172">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="S40" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="178">
+        <f t="shared" si="69"/>
+        <v>2.9853567090553243E-2</v>
+      </c>
+      <c r="U40" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
+        <v>-0.51336756267161832</v>
+      </c>
+      <c r="V40" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
+        <v>-0.15705013313119309</v>
+      </c>
+      <c r="W40" s="179"/>
+      <c r="X40" s="180">
+        <v>400</v>
+      </c>
+      <c r="Y40" s="181">
+        <f>X40*U40</f>
+        <v>-205.34702506864733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="166" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="155"/>
+      <c r="B41" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="157" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="158">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F41" s="158">
+        <f t="shared" ref="F41:F44" ca="1" si="70">E41+H41</f>
+        <v>43285</v>
+      </c>
+      <c r="G41" s="159">
+        <v>100</v>
+      </c>
+      <c r="H41" s="157">
+        <v>29</v>
+      </c>
+      <c r="I41" s="160">
+        <f t="shared" ref="I41:I44" si="71">H41/365</f>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J41" s="160">
+        <v>0</v>
+      </c>
+      <c r="K41" s="161">
+        <v>0.215</v>
+      </c>
+      <c r="L41" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
+        <v>2.4134845640644613</v>
+      </c>
+      <c r="M41" s="162"/>
+      <c r="N41" s="156">
+        <f t="shared" ref="N41:N44" si="72">M41/10000*I41*P41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="156">
+        <f t="shared" ref="O41:O44" si="73">IF(L41&lt;=0,ABS(L41)+N41,L41-N41)</f>
+        <v>2.4134845640644613</v>
+      </c>
+      <c r="P41" s="159">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="157" t="s">
+        <v>248</v>
+      </c>
+      <c r="R41" s="157">
+        <f t="shared" ref="R41:R44" si="74">IF(S41="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S41" s="157" t="s">
+        <v>151</v>
+      </c>
+      <c r="T41" s="163">
+        <f t="shared" ref="T41:T44" si="75">O41/P41</f>
+        <v>2.4134845640644612E-2</v>
+      </c>
+      <c r="U41" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
+        <v>0.5112735167777771</v>
+      </c>
+      <c r="V41" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
+        <v>0.11222070675373175</v>
+      </c>
+      <c r="W41" s="164"/>
+      <c r="X41" s="165">
+        <v>400</v>
+      </c>
+      <c r="Y41" s="166">
+        <f>X41*U41</f>
+        <v>204.50940671111084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="181" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="170"/>
+      <c r="B42" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="172" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="172" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="173">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F42" s="173">
+        <f t="shared" ca="1" si="70"/>
+        <v>43285</v>
+      </c>
+      <c r="G42" s="174">
+        <v>100</v>
+      </c>
+      <c r="H42" s="172">
+        <v>29</v>
+      </c>
+      <c r="I42" s="175">
+        <f t="shared" si="71"/>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J42" s="175">
+        <v>0</v>
+      </c>
+      <c r="K42" s="176">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L42" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
+        <v>-3.1988996284107571</v>
+      </c>
+      <c r="M42" s="177"/>
+      <c r="N42" s="171">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="171">
+        <f t="shared" si="73"/>
+        <v>3.1988996284107571</v>
+      </c>
+      <c r="P42" s="174">
+        <v>100</v>
+      </c>
+      <c r="Q42" s="172" t="s">
+        <v>248</v>
+      </c>
+      <c r="R42" s="172">
+        <f t="shared" si="74"/>
+        <v>-1</v>
+      </c>
+      <c r="S42" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="178">
+        <f t="shared" si="75"/>
+        <v>3.198899628410757E-2</v>
+      </c>
+      <c r="U42" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
+        <v>-0.51520059613743285</v>
+      </c>
+      <c r="V42" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
+        <v>-0.11218170533332739</v>
+      </c>
+      <c r="W42" s="179"/>
+      <c r="X42" s="180">
+        <v>400</v>
+      </c>
+      <c r="Y42" s="181">
+        <f>X42*U42</f>
+        <v>-206.08023845497314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" s="166" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="155"/>
+      <c r="B43" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="157" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="158">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F43" s="158">
+        <f t="shared" ca="1" si="70"/>
+        <v>43285</v>
+      </c>
+      <c r="G43" s="159">
+        <v>100</v>
+      </c>
+      <c r="H43" s="157">
+        <v>29</v>
+      </c>
+      <c r="I43" s="160">
+        <f t="shared" si="71"/>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J43" s="160">
+        <v>0</v>
+      </c>
+      <c r="K43" s="161">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L43" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>2.3012614610915776</v>
+      </c>
+      <c r="M43" s="162"/>
+      <c r="N43" s="156">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="156">
+        <f t="shared" si="73"/>
+        <v>2.3012614610915776</v>
+      </c>
+      <c r="P43" s="159">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="157" t="s">
+        <v>248</v>
+      </c>
+      <c r="R43" s="157">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="S43" s="157" t="s">
+        <v>151</v>
+      </c>
+      <c r="T43" s="163">
+        <f t="shared" si="75"/>
+        <v>2.3012614610915777E-2</v>
+      </c>
+      <c r="U43" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>0.51071240046134392</v>
+      </c>
+      <c r="V43" s="156">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>0.11222538783527369</v>
+      </c>
+      <c r="W43" s="164"/>
+      <c r="X43" s="165">
+        <v>400</v>
+      </c>
+      <c r="Y43" s="166">
+        <f>X43*U43</f>
+        <v>204.28496018453757</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" s="181" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="170"/>
+      <c r="B44" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="172" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="172" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="173">
+        <f t="shared" ca="1" si="9"/>
+        <v>43256</v>
+      </c>
+      <c r="F44" s="173">
+        <f t="shared" ca="1" si="70"/>
+        <v>43285</v>
+      </c>
+      <c r="G44" s="174">
+        <v>100</v>
+      </c>
+      <c r="H44" s="172">
+        <v>29</v>
+      </c>
+      <c r="I44" s="175">
+        <f t="shared" si="71"/>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="J44" s="175">
+        <v>0</v>
+      </c>
+      <c r="K44" s="176">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L44" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
+        <v>-3.0867147477978421</v>
+      </c>
+      <c r="M44" s="177"/>
+      <c r="N44" s="171">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="171">
+        <f t="shared" si="73"/>
+        <v>3.0867147477978421</v>
+      </c>
+      <c r="P44" s="174">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="172" t="s">
+        <v>248</v>
+      </c>
+      <c r="R44" s="172">
+        <f t="shared" si="74"/>
+        <v>-1</v>
+      </c>
+      <c r="S44" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="178">
+        <f t="shared" si="75"/>
+        <v>3.0867147477978422E-2</v>
+      </c>
+      <c r="U44" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
+        <v>-0.51463967128384525</v>
+      </c>
+      <c r="V44" s="171">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
+        <v>-0.11218794464959458</v>
+      </c>
+      <c r="W44" s="179"/>
+      <c r="X44" s="180">
+        <v>400</v>
+      </c>
+      <c r="Y44" s="181">
+        <f>X44*U44</f>
+        <v>-205.8558685135381</v>
       </c>
     </row>
   </sheetData>
@@ -8534,19 +10975,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S13:S17 S19:S20 S22:S23</xm:sqref>
+          <xm:sqref>S8:S9 S13:S17 S19:S20 S22:S23 S25 S27:S29 S31 S33:S44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q13:Q17 Q19:Q20 Q22:Q23</xm:sqref>
+          <xm:sqref>Q8:Q9 Q13:Q17 Q19:Q20 Q22:Q23 Q25 Q27:Q29 Q31 Q33:Q44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C13:C17 C19:C20 C22:C23</xm:sqref>
+          <xm:sqref>C8:C9 C13:C17 C19:C20 C22:C23 C25 C27:C29 C31 C33:C44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8736,11 +11177,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -8804,11 +11245,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -8875,11 +11316,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -8943,15 +11384,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -8968,17 +11409,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.6490327804257845</v>
+        <v>-3.7976707861370187</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.6490327804257845</v>
+        <v>3.7976707861370187</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -8993,11 +11434,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.22158661422793102</v>
+        <v>0.22545206596760181</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.27527782046584548</v>
+        <v>-0.28286629039953226</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -9013,15 +11454,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -9040,17 +11481,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>1.9715810016098771</v>
+        <v>2.0770696298898912</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>1.9715810016098771</v>
+        <v>2.0770696298898912</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -9065,11 +11506,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.14625430723214095</v>
+        <v>0.15042733371544159</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.21223453195070974</v>
+        <v>0.22005235026643533</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9086,15 +11527,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>437|487</v>
+        <v>445|495</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -9108,7 +11549,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.6774517788159073</v>
+        <v>-1.7206011562471275</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -9119,11 +11560,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.6774517788159073</v>
+        <v>1.7206011562471275</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -9132,15 +11573,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.6705728201660991E-3</v>
+        <v>3.7002175403164032E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.36784092146007197</v>
+        <v>0.3758793996830434</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.3043288515135743E-2</v>
+        <v>-6.2813940133096935E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -9156,11 +11597,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -9181,17 +11622,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-353.37607877400796</v>
+        <v>-348.53050120161379</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>353.37607877400796</v>
+        <v>348.53050120161379</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3719</v>
+        <v>3712</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -9206,11 +11647,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.69441193891179864</v>
+        <v>-0.69003272074041888</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.444092149674816</v>
+        <v>-6.4735528736466676</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -9227,11 +11668,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -9253,17 +11694,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>48.86114839815275</v>
+        <v>50.032142141144277</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>48.86114839815275</v>
+        <v>50.032142141144277</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3719</v>
+        <v>3712</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -9278,11 +11719,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.16560451783789176</v>
+        <v>-0.16897345687993948</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.6105932277813508</v>
+        <v>4.6619705621044432</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9299,11 +11740,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -9321,7 +11762,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-304.51493037585522</v>
+        <v>-298.49835906046951</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -9332,11 +11773,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>304.51493037585522</v>
+        <v>298.49835906046951</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3719</v>
+        <v>3712</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -9345,15 +11786,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>8.1880863236314924E-2</v>
+        <v>8.0414428626204071E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.86001645674969041</v>
+        <v>-0.85900617762035836</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.8334989218934652</v>
+        <v>-1.8115823115422245</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -9370,11 +11811,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43286</v>
+        <v>43287</v>
       </c>
       <c r="G18" s="118">
         <v>3000</v>
@@ -9394,17 +11835,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>37.607145916622812</v>
+        <v>53.293069237209465</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>37.607145916622812</v>
+        <v>53.293069237209465</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -9419,11 +11860,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.37329036662185899</v>
+        <v>-0.47565627980930003</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.3523622019148434</v>
+        <v>3.4817165035884727</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -9440,11 +11881,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43286</v>
+        <v>43287</v>
       </c>
       <c r="G19" s="119">
         <v>3280</v>
@@ -9466,17 +11907,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-5.5992555746560413</v>
+        <v>-3.2384142837232446</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>5.5992555746560413</v>
+        <v>3.2384142837232446</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -9491,11 +11932,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-7.9170777708270634E-2</v>
+        <v>-5.0101509619082663E-2</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-1.3057851559664897</v>
+        <v>-0.90408525416621899</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9512,11 +11953,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43286</v>
+        <v>43287</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -9534,7 +11975,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>32.007890341966771</v>
+        <v>50.054654953486221</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -9545,26 +11986,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>32.007890341966771</v>
+        <v>50.054654953486221</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>1.0521988935557782E-2</v>
+        <v>1.6657123112641007E-2</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.45246114433012963</v>
+        <v>-0.52575778942838269</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>2.0465770459483537</v>
+        <v>2.5776312494222537</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -9580,11 +12021,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43347</v>
+        <v>43348</v>
       </c>
       <c r="G21" s="118">
         <v>3000</v>
@@ -9604,17 +12045,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>76.842637052865257</v>
+        <v>93.242499667759375</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>76.842637052865257</v>
+        <v>93.242499667759375</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -9629,11 +12070,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.41348001789174305</v>
+        <v>-0.47332928619425729</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.9255365969474951</v>
+        <v>5.9773220506594953</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -9650,11 +12091,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43347</v>
+        <v>43348</v>
       </c>
       <c r="G22" s="119">
         <v>3280</v>
@@ -9676,17 +12117,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-32.147976607973419</v>
+        <v>-24.925300337981923</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>32.147976607973419</v>
+        <v>24.925300337981923</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -9701,11 +12142,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.21415575259311481</v>
+        <v>-0.17690238558998317</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-4.4391784253782021</v>
+        <v>-3.9045022938885836</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9722,11 +12163,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43347</v>
+        <v>43348</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -9744,7 +12185,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>44.694660444891838</v>
+        <v>68.317199329777452</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -9755,26 +12196,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>44.694660444891838</v>
+        <v>68.317199329777452</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>1.469252480108213E-2</v>
+        <v>2.273450892837852E-2</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.62763577048485786</v>
+        <v>-0.65023167178424046</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>1.4863581715692931</v>
+        <v>2.0728197567709117</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -9791,11 +12232,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43286</v>
+        <v>43287</v>
       </c>
       <c r="G26" s="118">
         <v>2950</v>
@@ -9815,17 +12256,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>21.355128555512124</v>
+        <v>32.117511626570604</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>21.355128555512124</v>
+        <v>32.117511626570604</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -9840,11 +12281,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.24722430781594085</v>
+        <v>-0.33686261967886821</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>2.7962323822158055</v>
+        <v>3.1931239459840981</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -9861,11 +12302,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43286</v>
+        <v>43287</v>
       </c>
       <c r="G27" s="119">
         <v>3350</v>
@@ -9887,17 +12328,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-2.1640208383531956</v>
+        <v>-1.161004776241775</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>2.1640208383531956</v>
+        <v>1.161004776241775</v>
       </c>
       <c r="P27" s="94">
         <f>P26</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -9912,11 +12353,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-3.4909576272923459E-2</v>
+        <v>-2.0363260334477218E-2</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.68381637823564034</v>
+        <v>-0.43165900247809219</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9933,11 +12374,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43286</v>
+        <v>43287</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -9955,7 +12396,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>19.191107717158928</v>
+        <v>30.956506850328829</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -9966,26 +12407,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>19.191107717158928</v>
+        <v>30.956506850328829</v>
       </c>
       <c r="P28" s="111">
         <f>P27</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>6.3087139109661173E-3</v>
+        <v>1.0301666173154353E-2</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.28213388408886431</v>
+        <v>-0.35722588001334543</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>2.1124160039801652</v>
+        <v>2.7614649435060059</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -10001,11 +12442,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43347</v>
+        <v>43348</v>
       </c>
       <c r="G29" s="118">
         <v>2950</v>
@@ -10025,17 +12466,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>56.624567980749134</v>
+        <v>70.047909757183106</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>56.624567980749134</v>
+        <v>70.047909757183106</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -10050,11 +12491,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.33464921708059592</v>
+        <v>-0.39155285847982668</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>5.5430857541673504</v>
+        <v>5.7732872528425787</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -10071,11 +12512,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43347</v>
+        <v>43348</v>
       </c>
       <c r="G30" s="119">
         <v>3350</v>
@@ -10097,17 +12538,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-20.992027128778034</v>
+        <v>-15.907169011985843</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>20.992027128778034</v>
+        <v>15.907169011985843</v>
       </c>
       <c r="P30" s="94">
         <f>P29</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -10122,11 +12563,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.15260705632726967</v>
+        <v>-0.12291907168560101</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-3.5918871743672582</v>
+        <v>-3.0611836610159742</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10143,11 +12584,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43347</v>
+        <v>43348</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -10165,7 +12606,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>35.6325408519711</v>
+        <v>54.140740745197263</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -10176,26 +12617,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>35.6325408519711</v>
+        <v>54.140740745197263</v>
       </c>
       <c r="P31" s="111">
         <f>P30</f>
-        <v>3042</v>
+        <v>3005</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>1.1713524277439546E-2</v>
+        <v>1.8016885439333531E-2</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.48725627340786559</v>
+        <v>-0.51447193016542769</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>1.9511985798000921</v>
+        <v>2.7121035918266045</v>
       </c>
     </row>
   </sheetData>
@@ -10551,11 +12992,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -10633,11 +13074,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -10715,11 +13156,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -10797,11 +13238,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -10879,11 +13320,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -10961,11 +13402,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -11819,11 +14260,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -11905,11 +14346,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43435</v>
+        <v>43436</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -12017,11 +14458,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -12104,11 +14545,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -12191,11 +14632,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -12278,11 +14719,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -12365,11 +14806,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -12452,11 +14893,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43255</v>
+        <v>43256</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>
